--- a/DMP/Report/Template/ART sites.xlsx
+++ b/DMP/Report/Template/ART sites.xlsx
@@ -8133,8 +8133,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E1172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1153" workbookViewId="0">
-      <selection activeCell="B1173" sqref="B1173"/>
+    <sheetView tabSelected="1" topLeftCell="A1163" workbookViewId="0">
+      <selection activeCell="B1169" sqref="B1169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/DMP/Report/Template/ART sites.xlsx
+++ b/DMP/Report/Template/ART sites.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4686" uniqueCount="2564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4686" uniqueCount="2563">
   <si>
     <t>Facility</t>
   </si>
@@ -7693,9 +7693,6 @@
   </si>
   <si>
     <t>xu4mnSBhh65</t>
-  </si>
-  <si>
-    <t>Primary Health Centre Arumangye Bosco</t>
   </si>
   <si>
     <t>Arumangye Bosco Primary Health Center</t>
@@ -7725,7 +7722,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7817,7 +7814,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -8129,12 +8126,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E1172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1163" workbookViewId="0">
-      <selection activeCell="B1169" sqref="B1169"/>
+      <selection activeCell="B1171" sqref="B1171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24383,7 +24380,7 @@
         <v>2453</v>
       </c>
       <c r="B1160" s="3" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="C1160" s="3" t="s">
         <v>2526</v>
@@ -24526,10 +24523,10 @@
         <v>2555</v>
       </c>
       <c r="C1170" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D1170" t="s">
         <v>2556</v>
-      </c>
-      <c r="D1170" t="s">
-        <v>2557</v>
       </c>
     </row>
     <row r="1171" spans="1:4" x14ac:dyDescent="0.35">
@@ -24537,13 +24534,13 @@
         <v>2453</v>
       </c>
       <c r="B1171" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C1171" t="s">
         <v>2558</v>
       </c>
-      <c r="C1171" t="s">
+      <c r="D1171" t="s">
         <v>2559</v>
-      </c>
-      <c r="D1171" t="s">
-        <v>2560</v>
       </c>
     </row>
     <row r="1172" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -24551,13 +24548,13 @@
         <v>790</v>
       </c>
       <c r="B1172" s="6" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="C1172" s="6" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="D1172" s="6" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
   </sheetData>

--- a/DMP/Report/Template/ART sites.xlsx
+++ b/DMP/Report/Template/ART sites.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7932" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7932" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="JustRADETNames" sheetId="2" r:id="rId2"/>
+    <sheet name="OriginalRADETFacilities" sheetId="2" r:id="rId2"/>
+    <sheet name="CCFN_Extra" sheetId="4" r:id="rId3"/>
+    <sheet name="IHVN_Extra" sheetId="3" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IHVN_Extra!$A$1:$D$216</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$2:$E$984</definedName>
+    <definedName name="Faclist">INDEX([1]!LGAFac[#Data],,MATCH(LGA,LGAFac_list,0))</definedName>
+    <definedName name="LGA">[1]MainPage!$S$17</definedName>
+    <definedName name="LGAFac_list">[1]!LGAFac[#Headers]</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -29,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6451" uniqueCount="4323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7524" uniqueCount="4672">
   <si>
     <t>Facility</t>
   </si>
@@ -11797,1207 +11806,2254 @@
     <t>fc Dagiri Primary Health Center</t>
   </si>
   <si>
+    <t>go Federal Medical Center - Gombe</t>
+  </si>
+  <si>
+    <t>go Tula Cottage Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go Iliya Nursing Home </t>
+  </si>
+  <si>
+    <t>go Infectious Disesase Hospital - Zambuk</t>
+  </si>
+  <si>
+    <t>im Holy Rosary Maternity Home</t>
+  </si>
+  <si>
+    <t>im Osina Community Hospital</t>
+  </si>
+  <si>
+    <t>im Ogwa General Hospital</t>
+  </si>
+  <si>
+    <t>jg Birnin Kudu General Hospital</t>
+  </si>
+  <si>
+    <t>jg Rasheed Shekoni Specialist Hospital</t>
+  </si>
+  <si>
+    <t>kd Kujama Rural Hospital</t>
+  </si>
+  <si>
+    <t>kd Giwa General Hospital</t>
+  </si>
+  <si>
+    <t>kd Turunku Rural Hospital</t>
+  </si>
+  <si>
+    <t>kd Foltz Medical Center - Katari</t>
+  </si>
+  <si>
+    <t>kd Barau Dikko Specialist Hospital</t>
+  </si>
+  <si>
+    <t>kd Gwamna Awan General Hospital</t>
+  </si>
+  <si>
+    <t>kd Turaki Buga Memorial Hospital</t>
+  </si>
+  <si>
+    <t>kd Zango-Kataf General Hospital</t>
+  </si>
+  <si>
+    <t>kd Hajiya Gambo Sawaba Hospital</t>
+  </si>
+  <si>
+    <t>ke Sir Yahaya Memorial Hospital</t>
+  </si>
+  <si>
+    <t>kn Fagwalawa Cottage Hospital</t>
+  </si>
+  <si>
+    <t>kn Tsakuwa Basic Health Post</t>
+  </si>
+  <si>
+    <t>kn Kano Infectious Diseases Hospital</t>
+  </si>
+  <si>
+    <t>kn Kabo General Hospital</t>
+  </si>
+  <si>
+    <t>kn Hasiya Bayero Paediatric Hospital</t>
+  </si>
+  <si>
+    <t>kn Mohammad Abdullahi Wase Specialist Hospital Nassarwa</t>
+  </si>
+  <si>
+    <t>kn Yelwa Primary Health centre</t>
+  </si>
+  <si>
+    <t>ko Ika Christian Hospital</t>
+  </si>
+  <si>
+    <t>ko Egume General Hospital</t>
+  </si>
+  <si>
+    <t>ko Iyara Comprehensive Health Center</t>
+  </si>
+  <si>
+    <t>ko St John's Hospital Kabba</t>
+  </si>
+  <si>
+    <t>ko Lokoja Federal Medical Center</t>
+  </si>
+  <si>
+    <t>ko Ugwolawo General Hospital</t>
+  </si>
+  <si>
+    <t>ko Okengwe General Hospital</t>
+  </si>
+  <si>
+    <t>ko Okpo General Hospital</t>
+  </si>
+  <si>
+    <t>kt Alheri Clinic</t>
+  </si>
+  <si>
+    <t>kw Civil Services Hospitals</t>
+  </si>
+  <si>
+    <t>la Sango Primary Health Center</t>
+  </si>
+  <si>
+    <t>la Alimosho General Hospital</t>
+  </si>
+  <si>
+    <t>la Iru Primary Health Center</t>
+  </si>
+  <si>
+    <t>la Ifako Ijaiye General Hospital</t>
+  </si>
+  <si>
+    <t>la Ojodu Primary Health Care</t>
+  </si>
+  <si>
+    <t>la Ijede Health Center</t>
+  </si>
+  <si>
+    <t>la Lagos General Hospital</t>
+  </si>
+  <si>
+    <t>la Lagos State Mainland Hospital</t>
+  </si>
+  <si>
+    <t>la Lagos University Teaching Hospital (LUTH)</t>
+  </si>
+  <si>
+    <t>la Pinecrest Hospital</t>
+  </si>
+  <si>
+    <t>na Gudi Primary Health Care Center</t>
+  </si>
+  <si>
+    <t>na Jatau Clinic</t>
+  </si>
+  <si>
+    <t>na Sabo Clinic</t>
+  </si>
+  <si>
+    <t>na Anointed Clinic</t>
+  </si>
+  <si>
+    <t>na Blessed Trinity Clinic</t>
+  </si>
+  <si>
+    <t>na Mak-Lin Clinic</t>
+  </si>
+  <si>
+    <t>na Agu Hospital</t>
+  </si>
+  <si>
+    <t>na Alpha Medical Center</t>
+  </si>
+  <si>
+    <t>na Omatdefu Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>na Ikon Allah Iroh Hospital</t>
+  </si>
+  <si>
+    <t>ni General Hospital Bida</t>
+  </si>
+  <si>
+    <t>ni IBB Specialist Hospital</t>
+  </si>
+  <si>
+    <t>og Sacred Heart Catholic Hospital - Abeokuta</t>
+  </si>
+  <si>
+    <t>og Specialist Hospital - Ilaro</t>
+  </si>
+  <si>
+    <t>og Ifo General Hospital</t>
+  </si>
+  <si>
+    <t>og Iperu-Remo General Hospital</t>
+  </si>
+  <si>
+    <t>og Ibiade General Hospital</t>
+  </si>
+  <si>
+    <t>og Olabisi Onabanjo University Teaching Hospital</t>
+  </si>
+  <si>
+    <t>on General Hospital Iwaro-Oka Akoko</t>
+  </si>
+  <si>
+    <t>on Isolo Health Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on Basic Health Center Oke Aro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">on General Hospital Ile-Oluji </t>
+  </si>
+  <si>
+    <t xml:space="preserve">on Comprehensive Health Center Ode-Irele </t>
+  </si>
+  <si>
+    <t xml:space="preserve">on General Hospital Ore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">on State Specialist Hospital Okitipupa </t>
+  </si>
+  <si>
+    <t>on Mother and Child Hospital Ondo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on Comprehensive Health Center Ifon </t>
+  </si>
+  <si>
+    <t>on Federal Medical Center Owo</t>
+  </si>
+  <si>
+    <t>os Seventh Day Adventist Hospital - Ile-Ife</t>
+  </si>
+  <si>
+    <t>os Our Lady of Fatima Catholic Hospital- Jaleyemi</t>
+  </si>
+  <si>
+    <t>oy University College Hospital Ibadan</t>
+  </si>
+  <si>
+    <t>oy Ring Road Hospital State Hospital</t>
+  </si>
+  <si>
+    <t>oy Our Lady's Catholic Hospital Iseyin</t>
+  </si>
+  <si>
+    <t>pl Seventh Day Adventist (SDA) Hospital - Jengre</t>
+  </si>
+  <si>
+    <t>pl Faith Alive Foundation</t>
+  </si>
+  <si>
+    <t>pl Evangelical Church of West Africa (ECWA) Comprehensive Hospital - Bukuru</t>
+  </si>
+  <si>
+    <t>pl Church of Christ in Nigeria (COCIN) Hospital and Rehabilitation Center</t>
+  </si>
+  <si>
+    <t>pl Pankshin General Hospital</t>
+  </si>
+  <si>
+    <t>pl St. Virgillus Catholic Rural Health Center</t>
+  </si>
+  <si>
+    <t>ri University of Portharcourt Teaching Hospital</t>
+  </si>
+  <si>
+    <t>ri Omoku General Hospital</t>
+  </si>
+  <si>
+    <t>so Women and Children Welfare Clinic</t>
+  </si>
+  <si>
+    <t>so Specialist Hospital Sokoto</t>
+  </si>
+  <si>
+    <t>so General Hospital Tambuwal</t>
+  </si>
+  <si>
+    <t>ta Sancta Maria Clinic Bali</t>
+  </si>
+  <si>
+    <t>ta Government House Clinic</t>
+  </si>
+  <si>
+    <t>ta GECHAAN Lifeline Center</t>
+  </si>
+  <si>
+    <t>ta UMCN RHP</t>
+  </si>
+  <si>
+    <t>za Yerima Bakura Specialist Hospital</t>
+  </si>
+  <si>
+    <t>zz 108 Nigerian Airforce Hospital Abuja</t>
+  </si>
+  <si>
+    <t>ab Semcon Friends Mission Hospital and Motherless Babies Home</t>
+  </si>
+  <si>
+    <t>ab Living Word Mission Hospital</t>
+  </si>
+  <si>
+    <t>ab Umuahia Federal Medical Centre</t>
+  </si>
+  <si>
+    <t>ak Ukpom Abak General Hospital</t>
+  </si>
+  <si>
+    <t>ak Mbioto 2 General Hospital</t>
+  </si>
+  <si>
+    <t>ak Use Abat St. Theresa's Hospital</t>
+  </si>
+  <si>
+    <t>ak Ikot Ekpene Primary Health Centre</t>
+  </si>
+  <si>
+    <t>ak Mbiaya Comprehensive Health Centre</t>
+  </si>
+  <si>
+    <t>ak Uyo Base Primary Health Centre</t>
+  </si>
+  <si>
+    <t>an Umuchu Visitation Hospital</t>
+  </si>
+  <si>
+    <t>an Neni Comprehensive Health Centre NAUTH</t>
+  </si>
+  <si>
+    <t>an Regina Caeli Hospital</t>
+  </si>
+  <si>
+    <t>an Nkpor Crown Hospital/Maternity</t>
+  </si>
+  <si>
+    <t>an Onitsha Pieta Hospital</t>
+  </si>
+  <si>
+    <t>ba Apple Clinic</t>
+  </si>
+  <si>
+    <t>be Heleen Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>be St. Vincents Hospital</t>
+  </si>
+  <si>
+    <t>be Nongu u Kristu ke Sudan hen Tiv (NKST) Hospital - Sai</t>
+  </si>
+  <si>
+    <t>be Icheen Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>be City Hospital</t>
+  </si>
+  <si>
+    <t>be Methodist Hospital - Ogoli Ugboju</t>
+  </si>
+  <si>
+    <t>be King of Kings Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>be Sev-Av Foundation - Vandeikya</t>
+  </si>
+  <si>
+    <t>by Twon-Brass General Hospital</t>
+  </si>
+  <si>
+    <t>by Tien-Biseni Cottage Hospital</t>
+  </si>
+  <si>
+    <t>cr Ikot Offiong Ambai Health Centre</t>
+  </si>
+  <si>
+    <t>cr Goldie Clinic</t>
+  </si>
+  <si>
+    <t>cr Faith Foundation Clinic</t>
+  </si>
+  <si>
+    <t>cr Holy Family Catholic Hospital</t>
+  </si>
+  <si>
+    <t>cr Odukpani Primary Health Centre</t>
+  </si>
+  <si>
+    <t>cr Ogoja Santa Maria Clinic</t>
+  </si>
+  <si>
+    <t>cr Yala Lutheran Hospital</t>
+  </si>
+  <si>
+    <t>de St. Francis Catholic Hospital - Okpara Inland</t>
+  </si>
+  <si>
+    <t>de St. Joseph's Hospital - Asaba</t>
+  </si>
+  <si>
+    <t>eb Federal Teaching Hospital (FETHA) - Abakaliki</t>
+  </si>
+  <si>
+    <t>eb Romec Hospital and Maternity</t>
+  </si>
+  <si>
+    <t>eb Sudan United Mission Hospital - Onuenyim</t>
+  </si>
+  <si>
+    <t>eb Little Seed Hospital</t>
+  </si>
+  <si>
+    <t>ed Ossiomio Specialist Hospital</t>
+  </si>
+  <si>
+    <t>ek Okesa Ekiti Comprehensive Health Center</t>
+  </si>
+  <si>
+    <t>ek Atiba Basic Health Center</t>
+  </si>
+  <si>
+    <t>en Iji Nike Cottage Hospital</t>
+  </si>
+  <si>
+    <t>en Mother of Christ Specialist Hospital</t>
+  </si>
+  <si>
+    <t>fc Amana Medical Center</t>
+  </si>
+  <si>
+    <t>fc Daughters of Charity (DOC) Hospital - Kubwa</t>
+  </si>
+  <si>
+    <t>fc Diamond Crest Hospital and Maternity</t>
+  </si>
+  <si>
+    <t>go Gombe State Specialist Hospital</t>
+  </si>
+  <si>
+    <t>kd Sabo Tsaha Primary Health Center</t>
+  </si>
+  <si>
+    <t>kd Kachia General Hospital</t>
+  </si>
+  <si>
+    <t>kd Kawo General Hospital</t>
+  </si>
+  <si>
+    <t>kd Harmony Hospital</t>
+  </si>
+  <si>
+    <t>kd National Tuberculosis And Leprosy Training Center - Zaria</t>
+  </si>
+  <si>
+    <t>kn Khadijat Memorial Hospital (FGE)</t>
+  </si>
+  <si>
+    <t>kn Murtala Mohammed Specialist Hospital</t>
+  </si>
+  <si>
+    <t>ko Grimmard Hospital - Anyingba</t>
+  </si>
+  <si>
+    <t>kt Federal Medical Center - Katsina</t>
+  </si>
+  <si>
+    <t>kw Sobi Specialist Hospital</t>
+  </si>
+  <si>
+    <t>la Sango Primary Health Centre</t>
+  </si>
+  <si>
+    <t>la Aregbesola Primary Health Center</t>
+  </si>
+  <si>
+    <t>la St. Kizito Clinic</t>
+  </si>
+  <si>
+    <t>la Ifako Primary Health Center</t>
+  </si>
+  <si>
+    <t>la Massey Street Children's Hospital</t>
+  </si>
+  <si>
+    <t>la Nigerian Institute of Medical Research (NIMR)</t>
+  </si>
+  <si>
+    <t>la Mushin General Hospital</t>
+  </si>
+  <si>
+    <t>la St. Catherine of Siena Medical Centre - Mafoluku</t>
+  </si>
+  <si>
+    <t>na Mochu Clinic</t>
+  </si>
+  <si>
+    <t>na Best Clinic</t>
+  </si>
+  <si>
+    <t>na Federal Medical Center - Keffi</t>
+  </si>
+  <si>
+    <t>na Minlap Clinic</t>
+  </si>
+  <si>
+    <t>na Angbas Clinic</t>
+  </si>
+  <si>
+    <t>na Dehi Hospital and Maternity</t>
+  </si>
+  <si>
+    <t>og St. Mary's Clinic - Ajilete</t>
+  </si>
+  <si>
+    <t>on St. Catherine's Hospital - Iwaro-Oka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on Comprehensive Health Center Isolo </t>
+  </si>
+  <si>
+    <t>on State Specialist Hospital Ondo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on General Hospital Ido-Ani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">on General Hospital Owo </t>
+  </si>
+  <si>
+    <t>oy St. Anne's Anglican Hospital Molete Ibadan</t>
+  </si>
+  <si>
+    <t>pl Jos University Teaching Hospital</t>
+  </si>
+  <si>
+    <t>pl Vom Christian Hospital</t>
+  </si>
+  <si>
+    <t>pl Mangu General Hospital</t>
+  </si>
+  <si>
+    <t>ta Specialist Hospital Jalingo.</t>
+  </si>
+  <si>
+    <t>ta General Hospital Gembu</t>
+  </si>
+  <si>
+    <t>zz 2 Division Hospital Ibadan</t>
+  </si>
+  <si>
+    <t>ab Mendel Hospital and Diagnostic Centre Ltd</t>
+  </si>
+  <si>
+    <t>an Obosi St Martin's Hospital</t>
+  </si>
+  <si>
+    <t>an St Charles Borromeo Hospital</t>
+  </si>
+  <si>
+    <t>an Umunze Immaculate Heart Hospital</t>
+  </si>
+  <si>
+    <t>ba Bayara Infectious Diseases Hospital</t>
+  </si>
+  <si>
+    <t>be Kator Clinic</t>
+  </si>
+  <si>
+    <t>be Nongu u Kristu ke Sudan hen Tiv (NKST) Hospital - Jato Aka Adikpo</t>
+  </si>
+  <si>
+    <t>be Federal Medical Center - Makurdi</t>
+  </si>
+  <si>
+    <t>be Nazareth Hospital</t>
+  </si>
+  <si>
+    <t>be Kyado Primary Health Center</t>
+  </si>
+  <si>
+    <t>be St. Thomas Hospital - Ihugh</t>
+  </si>
+  <si>
+    <t>by Yenagoa Federal Medical Centre</t>
+  </si>
+  <si>
+    <t>cr Mount Zion Medical Centre</t>
+  </si>
+  <si>
+    <t>cr University of Calabar Medical Centre</t>
+  </si>
+  <si>
+    <t>cr Ukpem General Hospital</t>
+  </si>
+  <si>
+    <t>cr Danex Medical Centre</t>
+  </si>
+  <si>
+    <t>de Tuberculosis Referral Center - Eku</t>
+  </si>
+  <si>
+    <t>de St. Rebecca Clinic</t>
+  </si>
+  <si>
+    <t>eb Mercy Hospital and Maternity</t>
+  </si>
+  <si>
+    <t>eb St. Charles Clinic</t>
+  </si>
+  <si>
+    <t>ek Primary Health Centre Odo-Ado</t>
+  </si>
+  <si>
+    <t>en National Orthopaedic Hospital (NOHE) - Enugu</t>
+  </si>
+  <si>
+    <t>fc Asokoro District Hospital</t>
+  </si>
+  <si>
+    <t>fc Excellence and Friends Management Consult (EFederal Medical Center) Care Center (Modern Health Hospital)</t>
+  </si>
+  <si>
+    <t>fc Gwagwalada Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>go Miyetti Hospital</t>
+  </si>
+  <si>
+    <t>kd Sabon Tasha General Hospital</t>
+  </si>
+  <si>
+    <t>kd Muslim Specialist Hospital</t>
+  </si>
+  <si>
+    <t>kd Jowako Hospital</t>
+  </si>
+  <si>
+    <t>kn Nakowa Clinic</t>
+  </si>
+  <si>
+    <t>kn Nuhu Bamalli Maternity Hospital</t>
+  </si>
+  <si>
+    <t>ko Kogi Diagnosis Referral Hospital</t>
+  </si>
+  <si>
+    <t>kt Katsina General Hospital</t>
+  </si>
+  <si>
+    <t>la Bee-Hess Hospital</t>
+  </si>
+  <si>
+    <t>la Jefis Specialist Hospital</t>
+  </si>
+  <si>
+    <t>la Onikan Health Centre</t>
+  </si>
+  <si>
+    <t>na Orient Hospital</t>
+  </si>
+  <si>
+    <t>na City International</t>
+  </si>
+  <si>
+    <t>na Imani Clinic</t>
+  </si>
+  <si>
+    <t>na Tamaiko Clinic</t>
+  </si>
+  <si>
+    <t>na Dalhatu Araf Specialist Hospital</t>
+  </si>
+  <si>
+    <t>na Henad Medical Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on Comprehensive Health Center Oba-Ile </t>
+  </si>
+  <si>
+    <t>pl Our Lady of Apostle (OLA) Hospital - Jos</t>
+  </si>
+  <si>
+    <t>ta Ummah Clinic</t>
+  </si>
+  <si>
+    <t>ta Mambilla Baptist Hospital</t>
+  </si>
+  <si>
+    <t>zz 21 Brigade Medical Centre Maiduguri</t>
+  </si>
+  <si>
+    <t>ab St. Anthony Hospital Ltd</t>
+  </si>
+  <si>
+    <t>an Toronto Hospital Onitsha</t>
+  </si>
+  <si>
+    <t>ba City Clinic</t>
+  </si>
+  <si>
+    <t>be Lord Is Saviour Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>be St. Monica's Hospital -Adikpo</t>
+  </si>
+  <si>
+    <t>be Grace Cottage Hospital</t>
+  </si>
+  <si>
+    <t>be New Era Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>be Nongu u Kristu ke Sudan hen Tiv (NKST) Hospital- Zaki Biam</t>
+  </si>
+  <si>
+    <t>be Vandeikya General Hospital</t>
+  </si>
+  <si>
+    <t>cr University of Calabar Teaching Hospital</t>
+  </si>
+  <si>
+    <t>eb Our Lady's Clinic</t>
+  </si>
+  <si>
+    <t>ek University of Ado-Ekiti Teaching Hospital</t>
+  </si>
+  <si>
+    <t>fc Bismol Hospital and Maternity</t>
+  </si>
+  <si>
+    <t>fc Fill Medical Center</t>
+  </si>
+  <si>
+    <t>fc Gwagwalada Township Clinic</t>
+  </si>
+  <si>
+    <t>go Musaba Clinic</t>
+  </si>
+  <si>
+    <t>kd Police Medical Center</t>
+  </si>
+  <si>
+    <t>kd Maneks Hospital</t>
+  </si>
+  <si>
+    <t>kn Sheikh Mohammed Jidda General Hospital</t>
+  </si>
+  <si>
+    <t>kn Sabo Bakin Zuwo Maternity Hospital</t>
+  </si>
+  <si>
+    <t>ko Maria Goretti Hospital</t>
+  </si>
+  <si>
+    <t>kt Kofar Kaura Primary Health Care</t>
+  </si>
+  <si>
+    <t>la Crystal Specialist Hospital</t>
+  </si>
+  <si>
+    <t>na Our Lady of Apostles Hospital - Akwanga</t>
+  </si>
+  <si>
+    <t>na Emotan Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>na Jama'a Medical Center</t>
+  </si>
+  <si>
+    <t>na Kowa Hospital</t>
+  </si>
+  <si>
+    <t>na Nasara Clinic</t>
+  </si>
+  <si>
+    <t>on Mother And Child Hospital - Akure</t>
+  </si>
+  <si>
+    <t>pl Plateau State Specialist Hospital</t>
+  </si>
+  <si>
+    <t>ta Warwar General Hospital</t>
+  </si>
+  <si>
+    <t>zz 3 Division Hospital Jos</t>
+  </si>
+  <si>
+    <t>ba MRS 33 Shadawanka</t>
+  </si>
+  <si>
+    <t>be Myom Hospital - Gboko</t>
+  </si>
+  <si>
+    <t>be Hope Hospital</t>
+  </si>
+  <si>
+    <t>be New Life Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>be Sankera General Hospital</t>
+  </si>
+  <si>
+    <t>eb Police Clinic - Abakaliki</t>
+  </si>
+  <si>
+    <t>fc Cream Medics</t>
+  </si>
+  <si>
+    <t>fc Gabic Divine Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>fc Jerab Hospitals</t>
+  </si>
+  <si>
+    <t>kd Zakari Isah Memorial Clinic</t>
+  </si>
+  <si>
+    <t>kd St. Gerald's Hospital - Kaduna</t>
+  </si>
+  <si>
+    <t>na Rinze Primary Health Care Center</t>
+  </si>
+  <si>
+    <t>na Ettal Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>na Keffi General Hospital</t>
+  </si>
+  <si>
+    <t>na M&amp;D Hospital</t>
+  </si>
+  <si>
+    <t>na Nasarawa Medical Center</t>
+  </si>
+  <si>
+    <t>on State Specialist Hospital - Akure</t>
+  </si>
+  <si>
+    <t>pl Solat Women Hospital</t>
+  </si>
+  <si>
+    <t>zz 302 Artillery Regiment Medical Reception Station Onitsha</t>
+  </si>
+  <si>
+    <t>ba MRS School of Armor</t>
+  </si>
+  <si>
+    <t>be Nongu u Kristu ke Sudan hen Tiv (NKST) Hospital - Mkar</t>
+  </si>
+  <si>
+    <t>be Jolua Hospital</t>
+  </si>
+  <si>
+    <t>be Otia Hospital - Otukpo</t>
+  </si>
+  <si>
+    <t>be St. Anthony's Hospital -Zaki Biam</t>
+  </si>
+  <si>
+    <t>fc Custom Staff Clinic</t>
+  </si>
+  <si>
+    <t>fc Kubwa General Hospital</t>
+  </si>
+  <si>
+    <t>fc Joefag Alheri Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>kd Yusuf Dantsoho Memorial Hospital</t>
+  </si>
+  <si>
+    <t>na Royal Hospital - Akwanga</t>
+  </si>
+  <si>
+    <t>na Favour Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>na Nagari Allah Magani Hospital</t>
+  </si>
+  <si>
+    <t>na Namu Clinic</t>
+  </si>
+  <si>
+    <t>zz 34 Brigade Medical Centre Owerri</t>
+  </si>
+  <si>
+    <t>ba Ni'ima Consultant</t>
+  </si>
+  <si>
+    <t>be Royal Hospital</t>
+  </si>
+  <si>
+    <t>be King Cross Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>be Otukpo Comprehensive Health Center</t>
+  </si>
+  <si>
+    <t>be Woman Health Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>fc Diamond Medical Center</t>
+  </si>
+  <si>
+    <t>fc Lamina Hospital</t>
+  </si>
+  <si>
+    <t>fc Living Rock Hospital and Maternity</t>
+  </si>
+  <si>
+    <t>na Fountainhead Hospital</t>
+  </si>
+  <si>
+    <t>na Nasara Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>na Olivet Medical Center</t>
+  </si>
+  <si>
+    <t>zz 345 Aeromedical Hospital Kaduna</t>
+  </si>
+  <si>
+    <t>ba Pohlycon Clinic</t>
+  </si>
+  <si>
+    <t>be Seta Clinic</t>
+  </si>
+  <si>
+    <t>be Makurdi Family Support Program Clinic</t>
+  </si>
+  <si>
+    <t>be Oturkpo General Hospital</t>
+  </si>
+  <si>
+    <t>be Zaki-Biam City Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>fc Divine Clinic</t>
+  </si>
+  <si>
+    <t>fc Laura Hospital and Maternity</t>
+  </si>
+  <si>
+    <t>fc Minat Clinic</t>
+  </si>
+  <si>
+    <t>na Karu Primary Health Center</t>
+  </si>
+  <si>
+    <t>na Shukura Specialist Hospital</t>
+  </si>
+  <si>
+    <t>na Oshyegba Medical Center</t>
+  </si>
+  <si>
+    <t>zz 347 Nigerian Airforce Hospital Jos</t>
+  </si>
+  <si>
+    <t>ba Reemee Clinic</t>
+  </si>
+  <si>
+    <t>be Sev-Av Foundation - Gboko</t>
+  </si>
+  <si>
+    <t>be Multicare Hospital</t>
+  </si>
+  <si>
+    <t>be Salem Hospital</t>
+  </si>
+  <si>
+    <t>fc EFAB Medical Center</t>
+  </si>
+  <si>
+    <t>fc Lurcia Well Hospital Limited</t>
+  </si>
+  <si>
+    <t>fc University Of Abuja Teaching Hospital - Gwagwalda</t>
+  </si>
+  <si>
+    <t>na Kingscare Hospital</t>
+  </si>
+  <si>
+    <t>na Sadanji Medical Center</t>
+  </si>
+  <si>
+    <t>zz 44 Nigerian Army Reference Hospital Kaduna</t>
+  </si>
+  <si>
+    <t>ba Urban Maternity</t>
+  </si>
+  <si>
+    <t>be St. Luke's Hospital</t>
+  </si>
+  <si>
+    <t>be Northbank General Hospital</t>
+  </si>
+  <si>
+    <t>be Sev-Av Foundation - Otukpo</t>
+  </si>
+  <si>
+    <t>fc Evangelical Church of West Africa (ECWA) Medical Center</t>
+  </si>
+  <si>
+    <t>fc Omega Hospital</t>
+  </si>
+  <si>
+    <t>fc Viewpoint Hospital</t>
+  </si>
+  <si>
+    <t>na Kpamu Shammah Hospital</t>
+  </si>
+  <si>
+    <t>na Sauki Hospital</t>
+  </si>
+  <si>
+    <t>zz 445 Nigerian Airforce Hospital Ikeja</t>
+  </si>
+  <si>
+    <t>be Three Brothers Transport Hospital - Gboko</t>
+  </si>
+  <si>
+    <t>be Queens Clinic</t>
+  </si>
+  <si>
+    <t>be St. Charles' Hospital</t>
+  </si>
+  <si>
+    <t>fc Federal Staff Hospital - Gwarimpa</t>
+  </si>
+  <si>
+    <t>fc Our Lady of Fatima Hospital - Bwari</t>
+  </si>
+  <si>
+    <t>na Livia Shammah Hospitals Limited</t>
+  </si>
+  <si>
+    <t>na Shabu Model Comprehensive Center</t>
+  </si>
+  <si>
+    <t>zz 45 Nigerian Airforce Hospital Makurdi</t>
+  </si>
+  <si>
+    <t>be Sandra Hospital</t>
+  </si>
+  <si>
+    <t>be St. Daniel Hospital</t>
+  </si>
+  <si>
+    <t>fc Federal Staff Hospital - Jabi</t>
+  </si>
+  <si>
+    <t>fc Ronella Specialist Hospital</t>
+  </si>
+  <si>
+    <t>na Maraba Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>na Voice of Islam Hospital</t>
+  </si>
+  <si>
+    <t>zz 6 Battalion Medical Reception Station Abak</t>
+  </si>
+  <si>
+    <t>be Ushakaa Hospital</t>
+  </si>
+  <si>
+    <t>be St. Joseph's Hospital-Ogobia</t>
+  </si>
+  <si>
+    <t>fc Garki General Hospital</t>
+  </si>
+  <si>
+    <t>fc Sumit Hospital</t>
+  </si>
+  <si>
+    <t>na Mararaba Guruku Medical Center</t>
+  </si>
+  <si>
+    <t>zz 68 Nigerian Army Reference Hospital Yaba</t>
+  </si>
+  <si>
+    <t>be Yima Hospital</t>
+  </si>
+  <si>
+    <t>be Success Hospital</t>
+  </si>
+  <si>
+    <t>fc Gwarimpa General Hospital</t>
+  </si>
+  <si>
+    <t>fc Viva Hospital</t>
+  </si>
+  <si>
+    <t>na Masaka Specialist Hospital</t>
+  </si>
+  <si>
+    <t>zz 82 Division Hospital Enugu</t>
+  </si>
+  <si>
+    <t>fc Holy Trinity Hospital</t>
+  </si>
+  <si>
+    <t>na Mayday Specialist Hospital and Maternity</t>
+  </si>
+  <si>
+    <t>zz Armed Forces Specialist Hospital Kano</t>
+  </si>
+  <si>
+    <t>fc Karshi General Hospital</t>
+  </si>
+  <si>
+    <t>na Nakowa Clinic</t>
+  </si>
+  <si>
+    <t>zz Defense Headquarters Medical Centre Abuja</t>
+  </si>
+  <si>
+    <t>fc King's Care Hospital</t>
+  </si>
+  <si>
+    <t>na Nisi Hospital</t>
+  </si>
+  <si>
+    <t>zz Military Hospital Benin</t>
+  </si>
+  <si>
+    <t>fc Maitama General Hospital</t>
+  </si>
+  <si>
+    <t>na Ojone Favour</t>
+  </si>
+  <si>
+    <t>zz Military Hospital Lagos</t>
+  </si>
+  <si>
+    <t>fc Massan Clinic Limited</t>
+  </si>
+  <si>
+    <t>na Pijag Maternity Home</t>
+  </si>
+  <si>
+    <t>zz Military Hospital Portharcourt</t>
+  </si>
+  <si>
+    <t>fc National Hospital - Abuja</t>
+  </si>
+  <si>
+    <t>na Uke General Hospital</t>
+  </si>
+  <si>
+    <t>zz Naval Medical Centre Onne</t>
+  </si>
+  <si>
+    <t>fc National Institute For Pharmaceutical Research - Idu</t>
+  </si>
+  <si>
+    <t>zz Nigerian Navy Hospital Calabar</t>
+  </si>
+  <si>
+    <t>fc Nyanya General Hospital</t>
+  </si>
+  <si>
+    <t>zz Nigerian Navy Hospital Warri</t>
+  </si>
+  <si>
+    <t>fc Our Lady's Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>zz Nigerian Navy Reference Hospital Ojo</t>
+  </si>
+  <si>
+    <t>fc Pan-Raf Hospital</t>
+  </si>
+  <si>
+    <t>fc Pigba Medical Center</t>
+  </si>
+  <si>
+    <t>fc Precious Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>fc Rapha Hospital</t>
+  </si>
+  <si>
+    <t>fc Rouz Hospital and Maternity</t>
+  </si>
+  <si>
+    <t>fc Ruz Medical &amp; Diagnostic Centre</t>
+  </si>
+  <si>
+    <t>fc Sisters of Nativity Hospital (SON) - Jikwoyi</t>
+  </si>
+  <si>
+    <t>fc The Crown Hospital</t>
+  </si>
+  <si>
+    <t>fc Tolbert Specialist Hospital</t>
+  </si>
+  <si>
+    <t>LGA</t>
+  </si>
+  <si>
+    <t>Benue</t>
+  </si>
+  <si>
+    <t>be Katsina-Ala</t>
+  </si>
+  <si>
+    <t>Abakor Primary Health Care</t>
+  </si>
+  <si>
+    <t>ZBXG7XEJ03X</t>
+  </si>
+  <si>
+    <t>Adikpo Katsina-Ala Primary Health Centre</t>
+  </si>
+  <si>
+    <t>VJPhKVM98uw</t>
+  </si>
+  <si>
+    <t>BRqwnMjuuez</t>
+  </si>
+  <si>
+    <t>Convenant Clinic</t>
+  </si>
+  <si>
+    <t>fj8v2Srxtyx</t>
+  </si>
+  <si>
+    <t>Igbabaka Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Jpn6N6zqMLg</t>
+  </si>
+  <si>
+    <t>Ikpaukur Local Government Health Center</t>
+  </si>
+  <si>
+    <t>rQOXT4Cy2Pj</t>
+  </si>
+  <si>
+    <t>Manns Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>VYCAuTYwbka</t>
+  </si>
+  <si>
+    <t>Mbasar Primary Health Centre</t>
+  </si>
+  <si>
+    <t>dXAyAAaM53N</t>
+  </si>
+  <si>
+    <t>Mbatyula Local Goverment Health Centre</t>
+  </si>
+  <si>
+    <t>j1d80tpRRRb</t>
+  </si>
+  <si>
+    <t>Nagu Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Bx2hbPaU0O1</t>
+  </si>
+  <si>
+    <t>Numbeve Primary Health Centre</t>
+  </si>
+  <si>
+    <t>iBE2tO1KDku</t>
+  </si>
+  <si>
+    <t>Salem Clinic - Gbor</t>
+  </si>
+  <si>
+    <t>W0z2Y4xAH3N</t>
+  </si>
+  <si>
+    <t>Seafa Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>Xoj1RSPZgNb</t>
+  </si>
+  <si>
+    <t>Tordonga Primary Health Center</t>
+  </si>
+  <si>
+    <t>W5NNtTAwz9t</t>
+  </si>
+  <si>
+    <t>be Konshisha</t>
+  </si>
+  <si>
+    <t>Agidi Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Vwphz4aVBkw</t>
+  </si>
+  <si>
+    <t>Bonta Family Support Program Clinic</t>
+  </si>
+  <si>
+    <t>A0oG89zfO3P</t>
+  </si>
+  <si>
+    <t>Gemanen Health Clinic Ageraga</t>
+  </si>
+  <si>
+    <t>jUTYBRwnEHz</t>
+  </si>
+  <si>
+    <t>Hope Hospital - Gungul</t>
+  </si>
+  <si>
+    <t>Kx8nR3Z0zoJ</t>
+  </si>
+  <si>
+    <t>Igbughul Primary Health Center</t>
+  </si>
+  <si>
+    <t>oR3iWfmLDLd</t>
+  </si>
+  <si>
+    <t>Jumota Health Clinic Tsuwe</t>
+  </si>
+  <si>
+    <t>BGygT2oyOXk</t>
+  </si>
+  <si>
+    <t>Kusa Erem Agbeede Health Clinic</t>
+  </si>
+  <si>
+    <t>n3leeELsmMM</t>
+  </si>
+  <si>
+    <t>Luter Health Clinic</t>
+  </si>
+  <si>
+    <t>fZtEYsSUToC</t>
+  </si>
+  <si>
+    <t>Mbahan Health Clinic Ankugh</t>
+  </si>
+  <si>
+    <t>NnQBS3G7K8x</t>
+  </si>
+  <si>
+    <t>Mhen Health Clinic Jov-Mbavaa</t>
+  </si>
+  <si>
+    <t>Hb4aAEXMUMh</t>
+  </si>
+  <si>
+    <t>Mkaa Health Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>gmZiQa8rGP8</t>
+  </si>
+  <si>
+    <t>Royal Clinic and Maternity Wuese</t>
+  </si>
+  <si>
+    <t>lT0dFPuROo5</t>
+  </si>
+  <si>
+    <t>Sauki Health Clinic</t>
+  </si>
+  <si>
+    <t>pcpLg0h9HGx</t>
+  </si>
+  <si>
+    <t>St. Joseph Maternity Clinic - Korinya</t>
+  </si>
+  <si>
+    <t>KLG4R1DqCDW</t>
+  </si>
+  <si>
+    <t>Uboagere Comprehensive Health Center</t>
+  </si>
+  <si>
+    <t>jUhaJSvsg2f</t>
+  </si>
+  <si>
+    <t>be Makurdi</t>
+  </si>
+  <si>
+    <t>Benue Women Primary Health Center</t>
+  </si>
+  <si>
+    <t>SK0Tbjnhqol</t>
+  </si>
+  <si>
+    <t>Rahama Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>Km93XCNZYCr</t>
+  </si>
+  <si>
+    <t>be Ushongo</t>
+  </si>
+  <si>
+    <t>Akerior Comprehensive Health Center</t>
+  </si>
+  <si>
+    <t>XS7oHkodgdY</t>
+  </si>
+  <si>
+    <t>Atekombo Comprehensive Health Center</t>
+  </si>
+  <si>
+    <t>qHFn6eKPzZR</t>
+  </si>
+  <si>
+    <t>Baki Clinic</t>
+  </si>
+  <si>
+    <t>UnkA6GX7nnG</t>
+  </si>
+  <si>
+    <t>Faith Health Clinic - Atoga</t>
+  </si>
+  <si>
+    <t>Mb6TF6q1qQF</t>
+  </si>
+  <si>
+    <t>Hegha Comprehensive Health Center</t>
+  </si>
+  <si>
+    <t>CZugrC0pZ3a</t>
+  </si>
+  <si>
+    <t>Ikumbur Memorial clinic</t>
+  </si>
+  <si>
+    <t>ugvUhWcPhsa</t>
+  </si>
+  <si>
+    <t>Kartyo Comprehensive Health Center</t>
+  </si>
+  <si>
+    <t>oOwDebIrySs</t>
+  </si>
+  <si>
+    <t>Mayange Primary Health Care</t>
+  </si>
+  <si>
+    <t>UdO3AJxt6D7</t>
+  </si>
+  <si>
+    <t>Mgbayiman Clinic</t>
+  </si>
+  <si>
+    <t>GDWQ1gtrq7o</t>
+  </si>
+  <si>
+    <t>Nongu u Kristu ke Sudan hen Tiv (NKST) Clinic -Aku</t>
+  </si>
+  <si>
+    <t>yk6RVaDElKT</t>
+  </si>
+  <si>
+    <t>Phesset Clinic</t>
+  </si>
+  <si>
+    <t>mHQFWXYfC6i</t>
+  </si>
+  <si>
+    <t>Progress Clinic</t>
+  </si>
+  <si>
+    <t>kWdcnanesGf</t>
+  </si>
+  <si>
+    <t>St. Francis Primary Health Center</t>
+  </si>
+  <si>
+    <t>xJSu0qeS9vf</t>
+  </si>
+  <si>
+    <t>Tor Medical Center - Ushongo</t>
+  </si>
+  <si>
+    <t>TWjlsSujkEb</t>
+  </si>
+  <si>
+    <t>Yaakar Comprehensive Health Center</t>
+  </si>
+  <si>
+    <t>cIKRpGcM5yd</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>de Oshimili North</t>
+  </si>
+  <si>
+    <t>de Warri North</t>
+  </si>
+  <si>
+    <t>FCT</t>
+  </si>
+  <si>
+    <t>Alliance Prolfa International  Hospital</t>
+  </si>
+  <si>
+    <t>aUEMySOgyUj</t>
+  </si>
+  <si>
+    <t>De Rose Of Sharon Clinic &amp; Maternity Hospital</t>
+  </si>
+  <si>
+    <t>HDftMwEayKH</t>
+  </si>
+  <si>
+    <t>Fereprod Medical Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getwell Hospital </t>
+  </si>
+  <si>
+    <t>Jikwoyi Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Kabusa Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Karu Primary Health Centre</t>
+  </si>
+  <si>
+    <t>PbRh5MSdqkf</t>
+  </si>
+  <si>
+    <t>Kpaduma Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Saffron Clinic</t>
+  </si>
+  <si>
+    <t>HVyvyE3c0Yf</t>
+  </si>
+  <si>
+    <t>Standard Care Hospital &amp; Maternity</t>
+  </si>
+  <si>
+    <t>zTOPNsW4lUA</t>
+  </si>
+  <si>
+    <t>Sheretti Primary Health Centre</t>
+  </si>
+  <si>
+    <t>no5jUGnd1ZR</t>
+  </si>
+  <si>
+    <t>Karshi Primary Health Centre</t>
+  </si>
+  <si>
+    <t>SpSTJ4KRVyh</t>
+  </si>
+  <si>
+    <t>Bassajiwa Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Jahi Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Kuchingoro Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Mabushi Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Gidan Mangoro Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Gwa-Gwa Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Idu-Karimo Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Kagini Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Garki Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Miracle Seed Clinic &amp; Maternity</t>
+  </si>
+  <si>
+    <t>Northland Medical Center</t>
+  </si>
+  <si>
+    <t>vQw04A24H0T</t>
+  </si>
+  <si>
+    <t>Kapital Hospital</t>
+  </si>
+  <si>
+    <t>XjlYgrhhlYK</t>
+  </si>
+  <si>
+    <t>Freedom Scan Medical Center</t>
+  </si>
+  <si>
+    <t>gNhTYE0YB0P</t>
+  </si>
+  <si>
+    <t>Dutsen Garki Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Heartland Alliance Hospital</t>
+  </si>
+  <si>
+    <t>EGR2uDTGAxp</t>
+  </si>
+  <si>
+    <t>Wumba Clinic (Formerly Apex Clinic)</t>
+  </si>
+  <si>
+    <t>V6JGUZovtyk</t>
+  </si>
+  <si>
+    <t>Queens Clinic &amp; Maternity</t>
+  </si>
+  <si>
+    <t>gPzTgphPpvP</t>
+  </si>
+  <si>
+    <t>Divine Winners Clinic &amp; Maternity</t>
+  </si>
+  <si>
+    <t>Kogo Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Sabon Gari Primary Health Centre</t>
+  </si>
+  <si>
+    <t>IJ5PG1Bw2VW</t>
+  </si>
+  <si>
+    <t>Unity Clinic And Maternity</t>
+  </si>
+  <si>
+    <t>Jiwa Primary Health Center</t>
+  </si>
+  <si>
+    <t>JVEcArvuL4Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dakwa Primary Health Center </t>
+  </si>
+  <si>
+    <t>Durumi Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Police Hospital Dei-Dei</t>
+  </si>
+  <si>
+    <t>JAbzLkhpM7T</t>
+  </si>
+  <si>
+    <t>Yimi Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Zuba Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Bethel Clinic &amp; Maternity</t>
+  </si>
+  <si>
+    <t>RYVTvf4hkWx</t>
+  </si>
+  <si>
+    <t>Kano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dala Mother &amp; Child Hospital </t>
+  </si>
+  <si>
+    <t>yNjhW4au9Gd</t>
+  </si>
+  <si>
+    <t>Evangelical Church of West Africa Clinic</t>
+  </si>
+  <si>
+    <t>zcSL0a1oPEw</t>
+  </si>
+  <si>
+    <t>Mariya Sanusi Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Nassarawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Alagye </t>
+  </si>
+  <si>
+    <t>DbI2S56BNj3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Okpatte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Idadu </t>
+  </si>
+  <si>
+    <t>YVk6aoeOl9Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Burum Burum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Rukubi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Doma Maintown </t>
+  </si>
+  <si>
+    <t>xEytSJqElVY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Arumangye Bosco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Aso Pada </t>
+  </si>
+  <si>
+    <t>FY9Jon1iRLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Gidan Zankara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Gora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Karshi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Mararaba Guruku </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Masaka </t>
+  </si>
+  <si>
+    <t>zEA6UJ3Z2Dg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre New Karu </t>
+  </si>
+  <si>
+    <t>sB8cWMd8QyO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Nyanya Gbagyi </t>
+  </si>
+  <si>
+    <t>J5bNl9I7Zao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Rafin Kwara </t>
+  </si>
+  <si>
+    <t>lPVMyTCU5Yy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Auta Balefi </t>
+  </si>
+  <si>
+    <t>IAIrKgIdFUg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Angwan Waje </t>
+  </si>
+  <si>
+    <t>StdZqGX4NXD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre  Mararaba Udege </t>
+  </si>
+  <si>
+    <t>EP1dUbwLtP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Loko 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Assakio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Azuba Bashayi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Barkin Abdullahi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Doma Road </t>
+  </si>
+  <si>
+    <t>qsS9YwrZSND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Gidan Maiakuya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Kadarko National </t>
+  </si>
+  <si>
+    <t>JWxRzMCgQo6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre New Market Road </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Tudun Gwandara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Health Centre Imon </t>
+  </si>
+  <si>
+    <t>Facility Name</t>
+  </si>
+  <si>
+    <t>DATIM Code</t>
+  </si>
+  <si>
+    <t>be Aboho Primary Health Centre</t>
+  </si>
+  <si>
+    <t>be Agwabi Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Aba Health Centre</t>
+  </si>
+  <si>
+    <t>be Abeda Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Aso Comprehensive Health Center</t>
+  </si>
+  <si>
+    <t>be Anonghul Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Abiam Family Support Program Clinic</t>
+  </si>
+  <si>
+    <t>be Anyiin Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Asukunya Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Anvambe Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Aondana Health Clinic</t>
+  </si>
+  <si>
+    <t>be Dooshima Primary Health Centre</t>
+  </si>
+  <si>
+    <t>be Gwarche Primary Health Centre</t>
+  </si>
+  <si>
+    <t>be Anzembe Clinic</t>
+  </si>
+  <si>
+    <t>be European Economic Community Health Clinic</t>
+  </si>
+  <si>
+    <t>be Gboragayo Primary Health Centre</t>
+  </si>
+  <si>
+    <t>be Kpe-Ambila Primary Health Centre</t>
+  </si>
+  <si>
+    <t>be Jingir Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Jimba Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Igboughol Local Government Health Clinic</t>
+  </si>
+  <si>
+    <t>be Nongu u Kristu ke Sudan hen Tiv (NKST) Clinic - Wannune</t>
+  </si>
+  <si>
+    <t>be Kur Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Kwashon Primary Health Centre</t>
+  </si>
+  <si>
+    <t>be Ikyo Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Tiortyu Local Government Health Center</t>
+  </si>
+  <si>
+    <t>be Nongu u Kristu ke Sudan hen Tiv (NKST) Primary Health Center - Biliji</t>
+  </si>
+  <si>
+    <t>be Mbaakem Health Centre</t>
+  </si>
+  <si>
+    <t>be Iorza Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Tse-Akiishi Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Otsafu Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Mbaier Health Centre</t>
+  </si>
+  <si>
+    <t>be Mchia Local Government Health Center</t>
+  </si>
+  <si>
+    <t>be Tse-Tiah Primary Health Centre</t>
+  </si>
+  <si>
+    <t>be Sahara Clinic</t>
+  </si>
+  <si>
+    <t>be Mbalosu Primary Health Centre</t>
+  </si>
+  <si>
+    <t>be Uzer Local Government Health Center</t>
+  </si>
+  <si>
+    <t>be Township Clinic</t>
+  </si>
+  <si>
+    <t>be Mbashija Primary Health Centre</t>
+  </si>
+  <si>
+    <t>be Wende Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Tyowanye Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Nakar Gwer West Comprehensive Health Center</t>
+  </si>
+  <si>
+    <t>be Uga Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Tongov Primary Health Centre</t>
+  </si>
+  <si>
+    <t>be Atighir Local Government Health Center</t>
+  </si>
+  <si>
+    <t>be Jor Maternal and Child Health Clinic</t>
+  </si>
+  <si>
+    <t>be Onmba Aondo Comprehensive Health Center</t>
+  </si>
+  <si>
+    <t>fc Dabibako Primary Health Center</t>
+  </si>
+  <si>
+    <t>organisationunitid</t>
+  </si>
+  <si>
+    <t>fc 360 Care Clinic &amp; Maternity, Mpape</t>
+  </si>
+  <si>
+    <t>b8wSBkFN6qj</t>
+  </si>
+  <si>
+    <t>fc Azriel Hosptial Lugbe</t>
+  </si>
+  <si>
+    <t>ZDD57v5qRpA</t>
+  </si>
+  <si>
+    <t>Lagos</t>
+  </si>
+  <si>
+    <t>la Christ the King Catholic Hospital - Akowonjo</t>
+  </si>
+  <si>
+    <t>RD3JhCrIpQg</t>
+  </si>
+  <si>
+    <t>fc Cornelian Maternity and Rural Health - Gidan Mangoro</t>
+  </si>
+  <si>
+    <t>Nasarawa</t>
+  </si>
+  <si>
+    <t>na Diamond Clinic - Lafiya</t>
+  </si>
+  <si>
+    <t>e5ZNLK1GbTi</t>
+  </si>
+  <si>
+    <t>fc Evangelical Church of West Africa (ECWA) Health Clinic - Kabusa</t>
+  </si>
+  <si>
+    <t>GQIkBebg3SA</t>
+  </si>
+  <si>
+    <t>na Evangelical Reformed Church of Christ (ERCC) Clinic - Murya</t>
+  </si>
+  <si>
+    <t>UAiWkGylFj4</t>
+  </si>
+  <si>
+    <t>fc Faith Medical Center - Karimo</t>
+  </si>
+  <si>
+    <t>YUsdxekuYrY</t>
+  </si>
+  <si>
+    <t>la Gowon Estate Hospital - Ipaja</t>
+  </si>
+  <si>
+    <t>D8fXWtqwMAU</t>
+  </si>
+  <si>
+    <t>na Graceland Clinic - Lafiya</t>
+  </si>
+  <si>
+    <t>iJszAqdhmdK</t>
+  </si>
+  <si>
+    <t>la Mary the Queen Hospital - Akowonjo</t>
+  </si>
+  <si>
+    <t>tscvxzvaPHe</t>
+  </si>
+  <si>
+    <t>fc Medical Missions of Mary - Lugbe</t>
+  </si>
+  <si>
+    <t>G5maKPztL5K</t>
+  </si>
+  <si>
+    <t>be Mimidoo Clinic and Maternity - Gungul</t>
+  </si>
+  <si>
+    <t>uE7DozqVDx3</t>
+  </si>
+  <si>
+    <t>la Mother Theresa Medical Center - Idimu</t>
+  </si>
+  <si>
+    <t>be Nongu u Kristu ke Sudan hen Tiv (NKST) Clinic - Ishua</t>
+  </si>
+  <si>
+    <t>tmdPeVe2bj9</t>
+  </si>
+  <si>
+    <t>be Nongu u Kristu ke Sudan hen Tiv (NKST) Comprehensive Health Center - Garagbohol</t>
+  </si>
+  <si>
+    <t>Rf1yYN2IDWc</t>
+  </si>
+  <si>
+    <t>be Nongu u Kristu ke Sudan hen Tiv (NKST) Health Center - Gbe</t>
+  </si>
+  <si>
+    <t>KNwYLS8wBMQ</t>
+  </si>
+  <si>
+    <t>be Nongu u Kristu ke Sudan hen Tiv (NKST) Health Center - Uchi</t>
+  </si>
+  <si>
+    <t>be Nongu u Kristu ke Sudan hen Tiv (NKST) Primary Health Center - Kasar</t>
+  </si>
+  <si>
+    <t>bD3Z7sBYAkk</t>
+  </si>
+  <si>
+    <t>na Owoche Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>U5N1HnNpRM2</t>
+  </si>
+  <si>
+    <t>na St. Bernards Clinic - Akanga</t>
+  </si>
+  <si>
+    <t>be St. Francis Primary Health Center - Agagbe</t>
+  </si>
+  <si>
+    <t>la St. Leo Medical Centre</t>
+  </si>
+  <si>
+    <t>Plateau</t>
+  </si>
+  <si>
+    <t>na Zumunta Yelwa Ediya Clinic</t>
+  </si>
+  <si>
+    <t>bK8mKs9KWZ1</t>
+  </si>
+  <si>
+    <t>fc St. Andrews Anglican Hospital - Kubwa</t>
+  </si>
+  <si>
+    <t>v3TkEm3tIOC</t>
+  </si>
+  <si>
+    <t>be Avaa Gbande Memorial Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>go Talase General Hospital</t>
+  </si>
+  <si>
     <t>go Madi Memorial Hospital</t>
   </si>
   <si>
-    <t>go Talase General Hospital</t>
-  </si>
-  <si>
     <t>go Yambu Dok Clinic</t>
   </si>
   <si>
     <t>go Bajoga General Hospital</t>
   </si>
   <si>
-    <t>go Federal Medical Center - Gombe</t>
-  </si>
-  <si>
-    <t>go Tula Cottage Hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">go Iliya Nursing Home </t>
-  </si>
-  <si>
-    <t>go Infectious Disesase Hospital - Zambuk</t>
-  </si>
-  <si>
-    <t>im Holy Rosary Maternity Home</t>
-  </si>
-  <si>
-    <t>im Osina Community Hospital</t>
-  </si>
-  <si>
-    <t>im Ogwa General Hospital</t>
-  </si>
-  <si>
-    <t>jg Birnin Kudu General Hospital</t>
-  </si>
-  <si>
-    <t>jg Rasheed Shekoni Specialist Hospital</t>
-  </si>
-  <si>
-    <t>kd Kujama Rural Hospital</t>
-  </si>
-  <si>
-    <t>kd Giwa General Hospital</t>
-  </si>
-  <si>
-    <t>kd Turunku Rural Hospital</t>
-  </si>
-  <si>
-    <t>kd Foltz Medical Center - Katari</t>
-  </si>
-  <si>
-    <t>kd Barau Dikko Specialist Hospital</t>
-  </si>
-  <si>
-    <t>kd Gwamna Awan General Hospital</t>
-  </si>
-  <si>
-    <t>kd Turaki Buga Memorial Hospital</t>
-  </si>
-  <si>
-    <t>kd Zango-Kataf General Hospital</t>
-  </si>
-  <si>
-    <t>kd Hajiya Gambo Sawaba Hospital</t>
-  </si>
-  <si>
-    <t>ke Sir Yahaya Memorial Hospital</t>
-  </si>
-  <si>
-    <t>kn Fagwalawa Cottage Hospital</t>
-  </si>
-  <si>
-    <t>kn Tsakuwa Basic Health Post</t>
-  </si>
-  <si>
-    <t>kn Kano Infectious Diseases Hospital</t>
-  </si>
-  <si>
-    <t>kn Kabo General Hospital</t>
-  </si>
-  <si>
-    <t>kn Hasiya Bayero Paediatric Hospital</t>
-  </si>
-  <si>
-    <t>kn Mohammad Abdullahi Wase Specialist Hospital Nassarwa</t>
-  </si>
-  <si>
-    <t>kn Yelwa Primary Health centre</t>
-  </si>
-  <si>
-    <t>ko Ika Christian Hospital</t>
-  </si>
-  <si>
-    <t>ko Egume General Hospital</t>
-  </si>
-  <si>
-    <t>ko Iyara Comprehensive Health Center</t>
-  </si>
-  <si>
-    <t>ko St John's Hospital Kabba</t>
-  </si>
-  <si>
-    <t>ko Lokoja Federal Medical Center</t>
-  </si>
-  <si>
-    <t>ko Ugwolawo General Hospital</t>
-  </si>
-  <si>
-    <t>ko Okengwe General Hospital</t>
-  </si>
-  <si>
-    <t>ko Okpo General Hospital</t>
-  </si>
-  <si>
-    <t>kt Alheri Clinic</t>
-  </si>
-  <si>
-    <t>kw Civil Services Hospitals</t>
-  </si>
-  <si>
-    <t>la Sango Primary Health Center</t>
-  </si>
-  <si>
-    <t>la Alimosho General Hospital</t>
-  </si>
-  <si>
-    <t>la Iru Primary Health Center</t>
-  </si>
-  <si>
-    <t>la Ifako Ijaiye General Hospital</t>
-  </si>
-  <si>
-    <t>la Ojodu Primary Health Care</t>
-  </si>
-  <si>
-    <t>la Ijede Health Center</t>
-  </si>
-  <si>
-    <t>la Lagos General Hospital</t>
-  </si>
-  <si>
-    <t>la Lagos State Mainland Hospital</t>
-  </si>
-  <si>
-    <t>la Lagos University Teaching Hospital (LUTH)</t>
-  </si>
-  <si>
-    <t>la Pinecrest Hospital</t>
-  </si>
-  <si>
-    <t>na Gudi Primary Health Care Center</t>
-  </si>
-  <si>
-    <t>na Jatau Clinic</t>
-  </si>
-  <si>
-    <t>na Sabo Clinic</t>
-  </si>
-  <si>
-    <t>na Anointed Clinic</t>
-  </si>
-  <si>
-    <t>na Blessed Trinity Clinic</t>
-  </si>
-  <si>
-    <t>na Mak-Lin Clinic</t>
-  </si>
-  <si>
-    <t>na Agu Hospital</t>
-  </si>
-  <si>
-    <t>na Alpha Medical Center</t>
-  </si>
-  <si>
-    <t>na Omatdefu Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>na Ikon Allah Iroh Hospital</t>
-  </si>
-  <si>
-    <t>ni General Hospital Bida</t>
-  </si>
-  <si>
-    <t>ni IBB Specialist Hospital</t>
-  </si>
-  <si>
-    <t>og Sacred Heart Catholic Hospital - Abeokuta</t>
-  </si>
-  <si>
-    <t>og Specialist Hospital - Ilaro</t>
-  </si>
-  <si>
-    <t>og Ifo General Hospital</t>
-  </si>
-  <si>
-    <t>og Iperu-Remo General Hospital</t>
-  </si>
-  <si>
-    <t>og Ibiade General Hospital</t>
-  </si>
-  <si>
-    <t>og Olabisi Onabanjo University Teaching Hospital</t>
-  </si>
-  <si>
-    <t>on General Hospital Iwaro-Oka Akoko</t>
-  </si>
-  <si>
-    <t>on Isolo Health Centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on Basic Health Center Oke Aro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">on General Hospital Ile-Oluji </t>
-  </si>
-  <si>
-    <t xml:space="preserve">on Comprehensive Health Center Ode-Irele </t>
-  </si>
-  <si>
-    <t xml:space="preserve">on General Hospital Ore </t>
-  </si>
-  <si>
-    <t xml:space="preserve">on State Specialist Hospital Okitipupa </t>
-  </si>
-  <si>
-    <t>on Mother and Child Hospital Ondo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on Comprehensive Health Center Ifon </t>
-  </si>
-  <si>
-    <t>on Federal Medical Center Owo</t>
-  </si>
-  <si>
-    <t>os Seventh Day Adventist Hospital - Ile-Ife</t>
-  </si>
-  <si>
-    <t>os Our Lady of Fatima Catholic Hospital- Jaleyemi</t>
-  </si>
-  <si>
-    <t>oy University College Hospital Ibadan</t>
-  </si>
-  <si>
-    <t>oy Ring Road Hospital State Hospital</t>
-  </si>
-  <si>
-    <t>oy Our Lady's Catholic Hospital Iseyin</t>
-  </si>
-  <si>
-    <t>pl Seventh Day Adventist (SDA) Hospital - Jengre</t>
-  </si>
-  <si>
-    <t>pl Faith Alive Foundation</t>
-  </si>
-  <si>
-    <t>pl Evangelical Church of West Africa (ECWA) Comprehensive Hospital - Bukuru</t>
-  </si>
-  <si>
-    <t>pl Church of Christ in Nigeria (COCIN) Hospital and Rehabilitation Center</t>
-  </si>
-  <si>
-    <t>pl Pankshin General Hospital</t>
-  </si>
-  <si>
-    <t>pl St. Virgillus Catholic Rural Health Center</t>
-  </si>
-  <si>
-    <t>ri University of Portharcourt Teaching Hospital</t>
-  </si>
-  <si>
-    <t>ri Omoku General Hospital</t>
-  </si>
-  <si>
-    <t>so Women and Children Welfare Clinic</t>
-  </si>
-  <si>
-    <t>so Specialist Hospital Sokoto</t>
-  </si>
-  <si>
-    <t>so General Hospital Tambuwal</t>
-  </si>
-  <si>
-    <t>ta Sancta Maria Clinic Bali</t>
-  </si>
-  <si>
-    <t>ta Government House Clinic</t>
-  </si>
-  <si>
-    <t>ta GECHAAN Lifeline Center</t>
-  </si>
-  <si>
-    <t>ta UMCN RHP</t>
-  </si>
-  <si>
-    <t>za Yerima Bakura Specialist Hospital</t>
-  </si>
-  <si>
-    <t>zz 108 Nigerian Airforce Hospital Abuja</t>
-  </si>
-  <si>
-    <t>ab Semcon Friends Mission Hospital and Motherless Babies Home</t>
-  </si>
-  <si>
-    <t>ab Living Word Mission Hospital</t>
-  </si>
-  <si>
-    <t>ab Umuahia Federal Medical Centre</t>
-  </si>
-  <si>
-    <t>ak Ukpom Abak General Hospital</t>
-  </si>
-  <si>
-    <t>ak Mbioto 2 General Hospital</t>
-  </si>
-  <si>
-    <t>ak Use Abat St. Theresa's Hospital</t>
-  </si>
-  <si>
-    <t>ak Ikot Ekpene Primary Health Centre</t>
-  </si>
-  <si>
-    <t>ak Mbiaya Comprehensive Health Centre</t>
-  </si>
-  <si>
-    <t>ak Uyo Base Primary Health Centre</t>
-  </si>
-  <si>
-    <t>an Umuchu Visitation Hospital</t>
-  </si>
-  <si>
-    <t>an Neni Comprehensive Health Centre NAUTH</t>
-  </si>
-  <si>
-    <t>an Regina Caeli Hospital</t>
-  </si>
-  <si>
-    <t>an Nkpor Crown Hospital/Maternity</t>
-  </si>
-  <si>
-    <t>an Onitsha Pieta Hospital</t>
-  </si>
-  <si>
-    <t>ba Apple Clinic</t>
-  </si>
-  <si>
-    <t>be Heleen Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>be St. Vincents Hospital</t>
-  </si>
-  <si>
-    <t>be Nongu u Kristu ke Sudan hen Tiv (NKST) Hospital - Sai</t>
-  </si>
-  <si>
-    <t>be Icheen Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>be City Hospital</t>
-  </si>
-  <si>
-    <t>be Methodist Hospital - Ogoli Ugboju</t>
-  </si>
-  <si>
-    <t>be King of Kings Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>be Sev-Av Foundation - Vandeikya</t>
-  </si>
-  <si>
-    <t>by Twon-Brass General Hospital</t>
-  </si>
-  <si>
-    <t>by Tien-Biseni Cottage Hospital</t>
-  </si>
-  <si>
-    <t>cr Ikot Offiong Ambai Health Centre</t>
-  </si>
-  <si>
-    <t>cr Goldie Clinic</t>
-  </si>
-  <si>
-    <t>cr Faith Foundation Clinic</t>
-  </si>
-  <si>
-    <t>cr Holy Family Catholic Hospital</t>
-  </si>
-  <si>
-    <t>cr Odukpani Primary Health Centre</t>
-  </si>
-  <si>
-    <t>cr Ogoja Santa Maria Clinic</t>
-  </si>
-  <si>
-    <t>cr Yala Lutheran Hospital</t>
-  </si>
-  <si>
-    <t>de St. Francis Catholic Hospital - Okpara Inland</t>
-  </si>
-  <si>
-    <t>de St. Joseph's Hospital - Asaba</t>
-  </si>
-  <si>
-    <t>eb Federal Teaching Hospital (FETHA) - Abakaliki</t>
-  </si>
-  <si>
-    <t>eb Romec Hospital and Maternity</t>
-  </si>
-  <si>
-    <t>eb Sudan United Mission Hospital - Onuenyim</t>
-  </si>
-  <si>
-    <t>eb Little Seed Hospital</t>
-  </si>
-  <si>
-    <t>ed Ossiomio Specialist Hospital</t>
-  </si>
-  <si>
-    <t>ek Okesa Ekiti Comprehensive Health Center</t>
-  </si>
-  <si>
-    <t>ek Atiba Basic Health Center</t>
-  </si>
-  <si>
-    <t>en Iji Nike Cottage Hospital</t>
-  </si>
-  <si>
-    <t>en Mother of Christ Specialist Hospital</t>
-  </si>
-  <si>
-    <t>fc Amana Medical Center</t>
-  </si>
-  <si>
-    <t>fc Daughters of Charity (DOC) Hospital - Kubwa</t>
-  </si>
-  <si>
-    <t>fc Diamond Crest Hospital and Maternity</t>
-  </si>
-  <si>
-    <t>go Gombe State Specialist Hospital</t>
-  </si>
-  <si>
-    <t>kd Sabo Tsaha Primary Health Center</t>
-  </si>
-  <si>
-    <t>kd Kachia General Hospital</t>
-  </si>
-  <si>
-    <t>kd Kawo General Hospital</t>
-  </si>
-  <si>
-    <t>kd Harmony Hospital</t>
-  </si>
-  <si>
-    <t>kd National Tuberculosis And Leprosy Training Center - Zaria</t>
-  </si>
-  <si>
-    <t>kn Khadijat Memorial Hospital (FGE)</t>
-  </si>
-  <si>
-    <t>kn Murtala Mohammed Specialist Hospital</t>
-  </si>
-  <si>
-    <t>ko Grimmard Hospital - Anyingba</t>
-  </si>
-  <si>
-    <t>kt Federal Medical Center - Katsina</t>
-  </si>
-  <si>
-    <t>kw Sobi Specialist Hospital</t>
-  </si>
-  <si>
-    <t>la Sango Primary Health Centre</t>
-  </si>
-  <si>
-    <t>la Aregbesola Primary Health Center</t>
-  </si>
-  <si>
-    <t>la St. Kizito Clinic</t>
-  </si>
-  <si>
-    <t>la Ifako Primary Health Center</t>
-  </si>
-  <si>
-    <t>la Massey Street Children's Hospital</t>
-  </si>
-  <si>
-    <t>la Nigerian Institute of Medical Research (NIMR)</t>
-  </si>
-  <si>
-    <t>la Mushin General Hospital</t>
-  </si>
-  <si>
-    <t>la St. Catherine of Siena Medical Centre - Mafoluku</t>
-  </si>
-  <si>
-    <t>na Mochu Clinic</t>
-  </si>
-  <si>
-    <t>na Best Clinic</t>
-  </si>
-  <si>
-    <t>na Federal Medical Center - Keffi</t>
-  </si>
-  <si>
-    <t>na Minlap Clinic</t>
-  </si>
-  <si>
-    <t>na Angbas Clinic</t>
-  </si>
-  <si>
-    <t>na Dehi Hospital and Maternity</t>
-  </si>
-  <si>
-    <t>og St. Mary's Clinic - Ajilete</t>
-  </si>
-  <si>
-    <t>on St. Catherine's Hospital - Iwaro-Oka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on Comprehensive Health Center Isolo </t>
-  </si>
-  <si>
-    <t>on State Specialist Hospital Ondo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on General Hospital Ido-Ani </t>
-  </si>
-  <si>
-    <t xml:space="preserve">on General Hospital Owo </t>
-  </si>
-  <si>
-    <t>oy St. Anne's Anglican Hospital Molete Ibadan</t>
-  </si>
-  <si>
-    <t>pl Jos University Teaching Hospital</t>
-  </si>
-  <si>
-    <t>pl Vom Christian Hospital</t>
-  </si>
-  <si>
-    <t>pl Mangu General Hospital</t>
-  </si>
-  <si>
-    <t>ta Specialist Hospital Jalingo.</t>
-  </si>
-  <si>
-    <t>ta General Hospital Gembu</t>
-  </si>
-  <si>
-    <t>zz 2 Division Hospital Ibadan</t>
-  </si>
-  <si>
-    <t>ab Mendel Hospital and Diagnostic Centre Ltd</t>
-  </si>
-  <si>
-    <t>an Obosi St Martin's Hospital</t>
-  </si>
-  <si>
-    <t>an St Charles Borromeo Hospital</t>
-  </si>
-  <si>
-    <t>an Umunze Immaculate Heart Hospital</t>
-  </si>
-  <si>
-    <t>ba Bayara Infectious Diseases Hospital</t>
-  </si>
-  <si>
-    <t>be Kator Clinic</t>
-  </si>
-  <si>
-    <t>be Nongu u Kristu ke Sudan hen Tiv (NKST) Hospital - Jato Aka Adikpo</t>
-  </si>
-  <si>
-    <t>be Federal Medical Center - Makurdi</t>
-  </si>
-  <si>
-    <t>be Nazareth Hospital</t>
-  </si>
-  <si>
-    <t>be Kyado Primary Health Center</t>
-  </si>
-  <si>
-    <t>be St. Thomas Hospital - Ihugh</t>
-  </si>
-  <si>
-    <t>by Yenagoa Federal Medical Centre</t>
-  </si>
-  <si>
-    <t>cr Mount Zion Medical Centre</t>
-  </si>
-  <si>
-    <t>cr University of Calabar Medical Centre</t>
-  </si>
-  <si>
-    <t>cr Ukpem General Hospital</t>
-  </si>
-  <si>
-    <t>cr Danex Medical Centre</t>
-  </si>
-  <si>
-    <t>de Tuberculosis Referral Center - Eku</t>
-  </si>
-  <si>
-    <t>de St. Rebecca Clinic</t>
-  </si>
-  <si>
-    <t>eb Mercy Hospital and Maternity</t>
-  </si>
-  <si>
-    <t>eb St. Charles Clinic</t>
-  </si>
-  <si>
-    <t>ek Primary Health Centre Odo-Ado</t>
-  </si>
-  <si>
-    <t>en National Orthopaedic Hospital (NOHE) - Enugu</t>
-  </si>
-  <si>
-    <t>fc Asokoro District Hospital</t>
-  </si>
-  <si>
-    <t>fc Excellence and Friends Management Consult (EFederal Medical Center) Care Center (Modern Health Hospital)</t>
-  </si>
-  <si>
-    <t>fc Gwagwalada Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>go Miyetti Hospital</t>
-  </si>
-  <si>
-    <t>kd Sabon Tasha General Hospital</t>
-  </si>
-  <si>
-    <t>kd Muslim Specialist Hospital</t>
-  </si>
-  <si>
-    <t>kd Jowako Hospital</t>
-  </si>
-  <si>
-    <t>kn Nakowa Clinic</t>
-  </si>
-  <si>
-    <t>kn Nuhu Bamalli Maternity Hospital</t>
-  </si>
-  <si>
-    <t>ko Kogi Diagnosis Referral Hospital</t>
-  </si>
-  <si>
-    <t>kt Katsina General Hospital</t>
-  </si>
-  <si>
-    <t>la Bee-Hess Hospital</t>
-  </si>
-  <si>
-    <t>la Jefis Specialist Hospital</t>
-  </si>
-  <si>
-    <t>la Onikan Health Centre</t>
-  </si>
-  <si>
-    <t>na Orient Hospital</t>
-  </si>
-  <si>
-    <t>na City International</t>
-  </si>
-  <si>
-    <t>na Imani Clinic</t>
-  </si>
-  <si>
-    <t>na Tamaiko Clinic</t>
-  </si>
-  <si>
-    <t>na Dalhatu Araf Specialist Hospital</t>
-  </si>
-  <si>
-    <t>na Henad Medical Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on Comprehensive Health Center Oba-Ile </t>
-  </si>
-  <si>
-    <t>pl Our Lady of Apostle (OLA) Hospital - Jos</t>
-  </si>
-  <si>
-    <t>ta Ummah Clinic</t>
-  </si>
-  <si>
-    <t>ta Mambilla Baptist Hospital</t>
-  </si>
-  <si>
-    <t>zz 21 Brigade Medical Centre Maiduguri</t>
-  </si>
-  <si>
-    <t>ab St. Anthony Hospital Ltd</t>
-  </si>
-  <si>
-    <t>an Toronto Hospital Onitsha</t>
-  </si>
-  <si>
-    <t>ba City Clinic</t>
-  </si>
-  <si>
-    <t>be Lord Is Saviour Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>be St. Monica's Hospital -Adikpo</t>
-  </si>
-  <si>
-    <t>be Grace Cottage Hospital</t>
-  </si>
-  <si>
-    <t>be New Era Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>be Nongu u Kristu ke Sudan hen Tiv (NKST) Hospital- Zaki Biam</t>
-  </si>
-  <si>
-    <t>be Vandeikya General Hospital</t>
-  </si>
-  <si>
-    <t>cr University of Calabar Teaching Hospital</t>
-  </si>
-  <si>
-    <t>eb Our Lady's Clinic</t>
-  </si>
-  <si>
-    <t>ek University of Ado-Ekiti Teaching Hospital</t>
-  </si>
-  <si>
-    <t>fc Bismol Hospital and Maternity</t>
-  </si>
-  <si>
-    <t>fc Fill Medical Center</t>
-  </si>
-  <si>
-    <t>fc Gwagwalada Township Clinic</t>
-  </si>
-  <si>
-    <t>go Musaba Clinic</t>
-  </si>
-  <si>
-    <t>kd Police Medical Center</t>
-  </si>
-  <si>
-    <t>kd Maneks Hospital</t>
-  </si>
-  <si>
-    <t>kn Sheikh Mohammed Jidda General Hospital</t>
-  </si>
-  <si>
-    <t>kn Sabo Bakin Zuwo Maternity Hospital</t>
-  </si>
-  <si>
-    <t>ko Maria Goretti Hospital</t>
-  </si>
-  <si>
-    <t>kt Kofar Kaura Primary Health Care</t>
-  </si>
-  <si>
-    <t>la Crystal Specialist Hospital</t>
-  </si>
-  <si>
-    <t>na Our Lady of Apostles Hospital - Akwanga</t>
-  </si>
-  <si>
-    <t>na Emotan Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>na Jama'a Medical Center</t>
-  </si>
-  <si>
-    <t>na Kowa Hospital</t>
-  </si>
-  <si>
-    <t>na Nasara Clinic</t>
-  </si>
-  <si>
-    <t>on Mother And Child Hospital - Akure</t>
-  </si>
-  <si>
-    <t>pl Plateau State Specialist Hospital</t>
-  </si>
-  <si>
-    <t>ta Warwar General Hospital</t>
-  </si>
-  <si>
-    <t>zz 3 Division Hospital Jos</t>
-  </si>
-  <si>
-    <t>ba MRS 33 Shadawanka</t>
-  </si>
-  <si>
-    <t>be Myom Hospital - Gboko</t>
-  </si>
-  <si>
-    <t>be Hope Hospital</t>
-  </si>
-  <si>
-    <t>be New Life Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>be Sankera General Hospital</t>
-  </si>
-  <si>
-    <t>eb Police Clinic - Abakaliki</t>
-  </si>
-  <si>
-    <t>fc Cream Medics</t>
-  </si>
-  <si>
-    <t>fc Gabic Divine Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>fc Jerab Hospitals</t>
-  </si>
-  <si>
-    <t>kd Zakari Isah Memorial Clinic</t>
-  </si>
-  <si>
-    <t>kd St. Gerald's Hospital - Kaduna</t>
-  </si>
-  <si>
-    <t>na Rinze Primary Health Care Center</t>
-  </si>
-  <si>
-    <t>na Ettal Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>na Keffi General Hospital</t>
-  </si>
-  <si>
-    <t>na M&amp;D Hospital</t>
-  </si>
-  <si>
-    <t>na Nasarawa Medical Center</t>
-  </si>
-  <si>
-    <t>on State Specialist Hospital - Akure</t>
-  </si>
-  <si>
-    <t>pl Solat Women Hospital</t>
-  </si>
-  <si>
-    <t>zz 302 Artillery Regiment Medical Reception Station Onitsha</t>
-  </si>
-  <si>
-    <t>ba MRS School of Armor</t>
-  </si>
-  <si>
-    <t>be Nongu u Kristu ke Sudan hen Tiv (NKST) Hospital - Mkar</t>
-  </si>
-  <si>
-    <t>be Jolua Hospital</t>
-  </si>
-  <si>
-    <t>be Otia Hospital - Otukpo</t>
-  </si>
-  <si>
-    <t>be St. Anthony's Hospital -Zaki Biam</t>
-  </si>
-  <si>
-    <t>fc Custom Staff Clinic</t>
-  </si>
-  <si>
-    <t>fc Kubwa General Hospital</t>
-  </si>
-  <si>
-    <t>fc Joefag Alheri Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>kd Yusuf Dantsoho Memorial Hospital</t>
-  </si>
-  <si>
-    <t>na Royal Hospital - Akwanga</t>
-  </si>
-  <si>
-    <t>na Favour Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>na Nagari Allah Magani Hospital</t>
-  </si>
-  <si>
-    <t>na Namu Clinic</t>
-  </si>
-  <si>
-    <t>zz 34 Brigade Medical Centre Owerri</t>
-  </si>
-  <si>
-    <t>ba Ni'ima Consultant</t>
-  </si>
-  <si>
-    <t>be Royal Hospital</t>
-  </si>
-  <si>
-    <t>be King Cross Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>be Otukpo Comprehensive Health Center</t>
-  </si>
-  <si>
-    <t>be Woman Health Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>fc Diamond Medical Center</t>
-  </si>
-  <si>
-    <t>fc Lamina Hospital</t>
-  </si>
-  <si>
-    <t>fc Living Rock Hospital and Maternity</t>
-  </si>
-  <si>
-    <t>na Fountainhead Hospital</t>
-  </si>
-  <si>
-    <t>na Nasara Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>na Olivet Medical Center</t>
-  </si>
-  <si>
-    <t>zz 345 Aeromedical Hospital Kaduna</t>
-  </si>
-  <si>
-    <t>ba Pohlycon Clinic</t>
-  </si>
-  <si>
-    <t>be Seta Clinic</t>
-  </si>
-  <si>
-    <t>be Makurdi Family Support Program Clinic</t>
-  </si>
-  <si>
-    <t>be Oturkpo General Hospital</t>
-  </si>
-  <si>
-    <t>be Zaki-Biam City Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>fc Divine Clinic</t>
-  </si>
-  <si>
-    <t>fc Laura Hospital and Maternity</t>
-  </si>
-  <si>
-    <t>fc Minat Clinic</t>
-  </si>
-  <si>
-    <t>na Karu Primary Health Center</t>
-  </si>
-  <si>
-    <t>na Shukura Specialist Hospital</t>
-  </si>
-  <si>
-    <t>na Oshyegba Medical Center</t>
-  </si>
-  <si>
-    <t>zz 347 Nigerian Airforce Hospital Jos</t>
-  </si>
-  <si>
-    <t>ba Reemee Clinic</t>
-  </si>
-  <si>
-    <t>be Sev-Av Foundation - Gboko</t>
-  </si>
-  <si>
-    <t>be Multicare Hospital</t>
-  </si>
-  <si>
-    <t>be Salem Hospital</t>
-  </si>
-  <si>
-    <t>fc EFAB Medical Center</t>
-  </si>
-  <si>
-    <t>fc Lurcia Well Hospital Limited</t>
-  </si>
-  <si>
-    <t>fc University Of Abuja Teaching Hospital - Gwagwalda</t>
-  </si>
-  <si>
-    <t>na Kingscare Hospital</t>
-  </si>
-  <si>
-    <t>na Sadanji Medical Center</t>
-  </si>
-  <si>
-    <t>zz 44 Nigerian Army Reference Hospital Kaduna</t>
-  </si>
-  <si>
-    <t>ba Urban Maternity</t>
-  </si>
-  <si>
-    <t>be St. Luke's Hospital</t>
-  </si>
-  <si>
-    <t>be Northbank General Hospital</t>
-  </si>
-  <si>
-    <t>be Sev-Av Foundation - Otukpo</t>
-  </si>
-  <si>
-    <t>fc Evangelical Church of West Africa (ECWA) Medical Center</t>
-  </si>
-  <si>
-    <t>fc Omega Hospital</t>
-  </si>
-  <si>
-    <t>fc Viewpoint Hospital</t>
-  </si>
-  <si>
-    <t>na Kpamu Shammah Hospital</t>
-  </si>
-  <si>
-    <t>na Sauki Hospital</t>
-  </si>
-  <si>
-    <t>zz 445 Nigerian Airforce Hospital Ikeja</t>
-  </si>
-  <si>
-    <t>be Three Brothers Transport Hospital - Gboko</t>
-  </si>
-  <si>
-    <t>be Queens Clinic</t>
-  </si>
-  <si>
-    <t>be St. Charles' Hospital</t>
-  </si>
-  <si>
-    <t>fc Federal Staff Hospital - Gwarimpa</t>
-  </si>
-  <si>
-    <t>fc Our Lady of Fatima Hospital - Bwari</t>
-  </si>
-  <si>
-    <t>na Livia Shammah Hospitals Limited</t>
-  </si>
-  <si>
-    <t>na Shabu Model Comprehensive Center</t>
-  </si>
-  <si>
-    <t>zz 45 Nigerian Airforce Hospital Makurdi</t>
-  </si>
-  <si>
-    <t>be Sandra Hospital</t>
-  </si>
-  <si>
-    <t>be St. Daniel Hospital</t>
-  </si>
-  <si>
-    <t>fc Federal Staff Hospital - Jabi</t>
-  </si>
-  <si>
-    <t>fc Ronella Specialist Hospital</t>
-  </si>
-  <si>
-    <t>na Maraba Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>na Voice of Islam Hospital</t>
-  </si>
-  <si>
-    <t>zz 6 Battalion Medical Reception Station Abak</t>
-  </si>
-  <si>
-    <t>be Ushakaa Hospital</t>
-  </si>
-  <si>
-    <t>be St. Joseph's Hospital-Ogobia</t>
-  </si>
-  <si>
-    <t>fc Garki General Hospital</t>
-  </si>
-  <si>
-    <t>fc Sumit Hospital</t>
-  </si>
-  <si>
-    <t>na Mararaba Guruku Medical Center</t>
-  </si>
-  <si>
-    <t>zz 68 Nigerian Army Reference Hospital Yaba</t>
-  </si>
-  <si>
-    <t>be Yima Hospital</t>
-  </si>
-  <si>
-    <t>be Success Hospital</t>
-  </si>
-  <si>
-    <t>fc Gwarimpa General Hospital</t>
-  </si>
-  <si>
-    <t>fc Viva Hospital</t>
-  </si>
-  <si>
-    <t>na Masaka Specialist Hospital</t>
-  </si>
-  <si>
-    <t>zz 82 Division Hospital Enugu</t>
-  </si>
-  <si>
-    <t>fc Holy Trinity Hospital</t>
-  </si>
-  <si>
-    <t>na Mayday Specialist Hospital and Maternity</t>
-  </si>
-  <si>
-    <t>zz Armed Forces Specialist Hospital Kano</t>
-  </si>
-  <si>
-    <t>fc Karshi General Hospital</t>
-  </si>
-  <si>
-    <t>na Nakowa Clinic</t>
-  </si>
-  <si>
-    <t>zz Defense Headquarters Medical Centre Abuja</t>
-  </si>
-  <si>
-    <t>fc King's Care Hospital</t>
-  </si>
-  <si>
-    <t>na Nisi Hospital</t>
-  </si>
-  <si>
-    <t>zz Military Hospital Benin</t>
-  </si>
-  <si>
-    <t>fc Maitama General Hospital</t>
-  </si>
-  <si>
-    <t>na Ojone Favour</t>
-  </si>
-  <si>
-    <t>zz Military Hospital Lagos</t>
-  </si>
-  <si>
-    <t>fc Massan Clinic Limited</t>
-  </si>
-  <si>
-    <t>na Pijag Maternity Home</t>
-  </si>
-  <si>
-    <t>zz Military Hospital Portharcourt</t>
-  </si>
-  <si>
-    <t>fc National Hospital - Abuja</t>
-  </si>
-  <si>
-    <t>na Uke General Hospital</t>
-  </si>
-  <si>
-    <t>zz Naval Medical Centre Onne</t>
-  </si>
-  <si>
-    <t>fc National Institute For Pharmaceutical Research - Idu</t>
-  </si>
-  <si>
-    <t>zz Nigerian Navy Hospital Calabar</t>
-  </si>
-  <si>
-    <t>fc Nyanya General Hospital</t>
-  </si>
-  <si>
-    <t>zz Nigerian Navy Hospital Warri</t>
-  </si>
-  <si>
-    <t>fc Our Lady's Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>zz Nigerian Navy Reference Hospital Ojo</t>
-  </si>
-  <si>
-    <t>fc Pan-Raf Hospital</t>
-  </si>
-  <si>
-    <t>fc Pigba Medical Center</t>
-  </si>
-  <si>
-    <t>fc Precious Clinic and Maternity</t>
-  </si>
-  <si>
-    <t>fc Rapha Hospital</t>
-  </si>
-  <si>
-    <t>fc Rouz Hospital and Maternity</t>
-  </si>
-  <si>
-    <t>fc Ruz Medical &amp; Diagnostic Centre</t>
-  </si>
-  <si>
-    <t>fc Sisters of Nativity Hospital (SON) - Jikwoyi</t>
-  </si>
-  <si>
-    <t>fc The Crown Hospital</t>
-  </si>
-  <si>
-    <t>fc Tolbert Specialist Hospital</t>
-  </si>
-  <si>
-    <t>LGA</t>
+    <t>kd Federation of Muslim Women Association of Nigeria (FOMWAN) Hospital</t>
+  </si>
+  <si>
+    <t>kd Makera I Primary Health Center</t>
+  </si>
+  <si>
+    <t>kd Manchok Maternal and Child Health Clinic</t>
+  </si>
+  <si>
+    <t>kd Virtual Hospital</t>
+  </si>
+  <si>
+    <t>Faith Medical Center - Karimo</t>
+  </si>
+  <si>
+    <t>St. Andrews Anglican Hospital - Kubwa</t>
+  </si>
+  <si>
+    <t>St. Anthony's Hospital - Zaki Biam</t>
+  </si>
+  <si>
+    <t>be Ugba Comprehensive Health Center</t>
+  </si>
+  <si>
+    <t>kd Kafanchan Family Health Unit</t>
+  </si>
+  <si>
+    <t>PRRdNaG3twk</t>
+  </si>
+  <si>
+    <t>Kay Health</t>
+  </si>
+  <si>
+    <t>fg7rWUILcLg</t>
+  </si>
+  <si>
+    <t>Maranatha Hospital- Karu</t>
+  </si>
+  <si>
+    <t>ihhL2FzZvAr</t>
+  </si>
+  <si>
+    <t>Mission Hopsital</t>
+  </si>
+  <si>
+    <t>ZmxdYXeH5Cd</t>
+  </si>
+  <si>
+    <t>Raah Hospitals</t>
+  </si>
+  <si>
+    <t>jpJp7028wPe</t>
+  </si>
+  <si>
+    <t>Adogi Primary Health Care</t>
+  </si>
+  <si>
+    <t>yC86zV8BNHN</t>
+  </si>
+  <si>
+    <t>Gosha Clinic And Maternity</t>
+  </si>
+  <si>
+    <t>WSMZ2SYgAFZ</t>
+  </si>
+  <si>
+    <t>Immanuela Clinic</t>
+  </si>
+  <si>
+    <t>yV92ImlsrjD</t>
+  </si>
+  <si>
+    <t>Polytechnic Clinic</t>
+  </si>
+  <si>
+    <t>dV0bMslUZ3p</t>
+  </si>
+  <si>
+    <t>Alumbugu Memorial Clinic</t>
+  </si>
+  <si>
+    <t>zq2YHeCpp3A</t>
+  </si>
+  <si>
+    <t>Ara 2 Primary Health Center</t>
+  </si>
+  <si>
+    <t>SXB1EwVEKff</t>
+  </si>
+  <si>
+    <t>Nasara Clinic, Ara</t>
+  </si>
+  <si>
+    <t>x0fdu53uYLh</t>
+  </si>
+  <si>
+    <t>Mother and Child Welfare Clinic 1</t>
+  </si>
+  <si>
+    <t>KrNjWYgoaIe</t>
+  </si>
+  <si>
+    <t>Primary Health Center  Agyragu</t>
+  </si>
+  <si>
+    <t>kNVBrpSSarY</t>
+  </si>
+  <si>
+    <t>Heartland Alliance Foundation</t>
+  </si>
+  <si>
+    <t>PJLNiF4iUNG</t>
+  </si>
+  <si>
+    <t>Edabta Hospital</t>
+  </si>
+  <si>
+    <t>WwAqdosxvCi</t>
+  </si>
+  <si>
+    <t>Police Clinic - Abuja</t>
+  </si>
+  <si>
+    <t>MYIbzpMWd8N</t>
+  </si>
+  <si>
+    <t>Ondo</t>
+  </si>
+  <si>
+    <t>NPHC Iju-Odo</t>
+  </si>
+  <si>
+    <t>qD3yYpunSng</t>
   </si>
 </sst>
 </file>
@@ -13118,6 +14174,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="MainPage"/>
+      <sheetName val="StateLGA"/>
+      <sheetName val="SOP"/>
+      <sheetName val="Summary"/>
+      <sheetName val="2004"/>
+      <sheetName val="2005"/>
+      <sheetName val="2006"/>
+      <sheetName val="2007"/>
+      <sheetName val="2008"/>
+      <sheetName val="2009"/>
+      <sheetName val="2010"/>
+      <sheetName val="2011"/>
+      <sheetName val="2012"/>
+      <sheetName val="2013"/>
+      <sheetName val="2014"/>
+      <sheetName val="2015"/>
+      <sheetName val="2016"/>
+      <sheetName val="2017"/>
+      <sheetName val="2018"/>
+      <sheetName val="Historic"/>
+      <sheetName val="CCFN_CCFN_APR_2017_RADET_be Com"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="17">
+          <cell r="S17" t="str">
+            <v>be Logo Local Government Area</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29832,8 +30947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39A16B4-4B37-436E-B6C5-3E9C3081192A}">
   <dimension ref="A1:ACV34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="VX1" workbookViewId="0">
+      <selection activeCell="VZ1" sqref="VZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30116,7 +31231,7 @@
     <col min="279" max="279" width="93.5546875" bestFit="1" customWidth="1"/>
     <col min="280" max="280" width="45.21875" bestFit="1" customWidth="1"/>
     <col min="281" max="281" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="283" max="283" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="284" max="284" width="30" bestFit="1" customWidth="1"/>
     <col min="285" max="285" width="27.44140625" bestFit="1" customWidth="1"/>
@@ -30194,7 +31309,7 @@
     <col min="357" max="357" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="358" max="358" width="30" bestFit="1" customWidth="1"/>
     <col min="359" max="359" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="360" max="360" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="360" max="360" width="38" bestFit="1" customWidth="1"/>
     <col min="361" max="361" width="28" bestFit="1" customWidth="1"/>
     <col min="362" max="363" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="364" max="364" width="26.88671875" bestFit="1" customWidth="1"/>
@@ -30608,7 +31723,7 @@
   <sheetData>
     <row r="1" spans="1:776" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>4322</v>
+        <v>4318</v>
       </c>
       <c r="B1" t="s">
         <v>2558</v>
@@ -34387,7 +35502,7 @@
         <v>3812</v>
       </c>
     </row>
-    <row r="3" spans="1:776" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:776" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3813</v>
       </c>
@@ -34523,6 +35638,9 @@
       <c r="DZ3" t="s">
         <v>3856</v>
       </c>
+      <c r="EA3" t="s">
+        <v>4527</v>
+      </c>
       <c r="EB3" t="s">
         <v>3857</v>
       </c>
@@ -34721,1280 +35839,5053 @@
       <c r="JT3" t="s">
         <v>3921</v>
       </c>
+      <c r="JV3" t="s">
+        <v>4573</v>
+      </c>
       <c r="JW3" t="s">
+        <v>4624</v>
+      </c>
+      <c r="JX3" t="s">
+        <v>4623</v>
+      </c>
+      <c r="JY3" t="s">
+        <v>4625</v>
+      </c>
+      <c r="KA3" t="s">
+        <v>4626</v>
+      </c>
+      <c r="KB3" t="s">
         <v>3922</v>
       </c>
-      <c r="JX3" t="s">
+      <c r="KC3" t="s">
         <v>3923</v>
       </c>
-      <c r="JY3" t="s">
+      <c r="KF3" t="s">
         <v>3924</v>
       </c>
-      <c r="KA3" t="s">
+      <c r="KG3" t="s">
         <v>3925</v>
       </c>
-      <c r="KB3" t="s">
+      <c r="KH3" t="s">
         <v>3926</v>
       </c>
-      <c r="KC3" t="s">
+      <c r="KL3" t="s">
         <v>3927</v>
       </c>
-      <c r="KF3" t="s">
+      <c r="KR3" t="s">
         <v>3928</v>
       </c>
-      <c r="KG3" t="s">
+      <c r="LL3" t="s">
         <v>3929</v>
       </c>
-      <c r="KH3" t="s">
+      <c r="LN3" t="s">
         <v>3930</v>
       </c>
-      <c r="KL3" t="s">
+      <c r="MK3" t="s">
         <v>3931</v>
       </c>
-      <c r="KR3" t="s">
+      <c r="ML3" t="s">
         <v>3932</v>
       </c>
-      <c r="LL3" t="s">
+      <c r="MM3" t="s">
         <v>3933</v>
       </c>
-      <c r="LN3" t="s">
+      <c r="MP3" t="s">
+        <v>4635</v>
+      </c>
+      <c r="MQ3" t="s">
         <v>3934</v>
       </c>
-      <c r="MK3" t="s">
+      <c r="MR3" t="s">
         <v>3935</v>
       </c>
-      <c r="ML3" t="s">
+      <c r="MS3" t="s">
         <v>3936</v>
       </c>
-      <c r="MM3" t="s">
+      <c r="MV3" t="s">
         <v>3937</v>
       </c>
-      <c r="MQ3" t="s">
+      <c r="NE3" t="s">
         <v>3938</v>
       </c>
-      <c r="MR3" t="s">
+      <c r="NF3" t="s">
         <v>3939</v>
       </c>
-      <c r="MS3" t="s">
+      <c r="NL3" t="s">
         <v>3940</v>
       </c>
-      <c r="MV3" t="s">
+      <c r="OI3" t="s">
         <v>3941</v>
       </c>
-      <c r="NE3" t="s">
+      <c r="OJ3" t="s">
         <v>3942</v>
       </c>
-      <c r="NF3" t="s">
+      <c r="OM3" t="s">
         <v>3943</v>
       </c>
-      <c r="NL3" t="s">
+      <c r="OU3" t="s">
         <v>3944</v>
       </c>
-      <c r="OI3" t="s">
+      <c r="OV3" t="s">
         <v>3945</v>
       </c>
-      <c r="OJ3" t="s">
+      <c r="PF3" t="s">
         <v>3946</v>
       </c>
-      <c r="OM3" t="s">
+      <c r="PH3" t="s">
         <v>3947</v>
       </c>
-      <c r="OU3" t="s">
+      <c r="PV3" t="s">
         <v>3948</v>
       </c>
-      <c r="OV3" t="s">
+      <c r="PX3" t="s">
         <v>3949</v>
       </c>
-      <c r="PF3" t="s">
+      <c r="QB3" t="s">
         <v>3950</v>
       </c>
-      <c r="PH3" t="s">
+      <c r="QC3" t="s">
         <v>3951</v>
       </c>
-      <c r="PV3" t="s">
+      <c r="QE3" t="s">
         <v>3952</v>
       </c>
-      <c r="PX3" t="s">
+      <c r="QG3" t="s">
         <v>3953</v>
       </c>
-      <c r="QB3" t="s">
+      <c r="QJ3" t="s">
         <v>3954</v>
       </c>
-      <c r="QC3" t="s">
+      <c r="QK3" t="s">
         <v>3955</v>
       </c>
-      <c r="QE3" t="s">
+      <c r="RI3" t="s">
         <v>3956</v>
       </c>
-      <c r="QG3" t="s">
+      <c r="SC3" t="s">
         <v>3957</v>
       </c>
-      <c r="QJ3" t="s">
+      <c r="SM3" t="s">
         <v>3958</v>
       </c>
-      <c r="QK3" t="s">
+      <c r="SO3" t="s">
         <v>3959</v>
       </c>
-      <c r="RI3" t="s">
+      <c r="ST3" t="s">
         <v>3960</v>
       </c>
-      <c r="SC3" t="s">
+      <c r="SV3" t="s">
         <v>3961</v>
       </c>
-      <c r="SM3" t="s">
+      <c r="SW3" t="s">
         <v>3962</v>
       </c>
-      <c r="SO3" t="s">
+      <c r="SX3" t="s">
         <v>3963</v>
       </c>
-      <c r="ST3" t="s">
+      <c r="SZ3" t="s">
         <v>3964</v>
       </c>
-      <c r="SV3" t="s">
+      <c r="TA3" t="s">
         <v>3965</v>
       </c>
-      <c r="SW3" t="s">
+      <c r="TB3" t="s">
         <v>3966</v>
       </c>
-      <c r="SX3" t="s">
+      <c r="TD3" t="s">
         <v>3967</v>
       </c>
-      <c r="SZ3" t="s">
+      <c r="TG3" t="s">
         <v>3968</v>
       </c>
-      <c r="TA3" t="s">
+      <c r="TH3" t="s">
         <v>3969</v>
       </c>
-      <c r="TB3" t="s">
+      <c r="TI3" t="s">
         <v>3970</v>
       </c>
-      <c r="TD3" t="s">
+      <c r="TJ3" t="s">
         <v>3971</v>
       </c>
-      <c r="TG3" t="s">
+      <c r="TL3" t="s">
         <v>3972</v>
       </c>
-      <c r="TH3" t="s">
+      <c r="TM3" t="s">
         <v>3973</v>
       </c>
-      <c r="TI3" t="s">
+      <c r="TN3" t="s">
         <v>3974</v>
       </c>
-      <c r="TJ3" t="s">
+      <c r="TO3" t="s">
         <v>3975</v>
       </c>
-      <c r="TL3" t="s">
+      <c r="TP3" t="s">
         <v>3976</v>
       </c>
-      <c r="TM3" t="s">
+      <c r="TQ3" t="s">
         <v>3977</v>
       </c>
-      <c r="TN3" t="s">
+      <c r="TV3" t="s">
         <v>3978</v>
       </c>
-      <c r="TO3" t="s">
+      <c r="TY3" t="s">
         <v>3979</v>
       </c>
-      <c r="TP3" t="s">
+      <c r="UT3" t="s">
         <v>3980</v>
       </c>
-      <c r="TQ3" t="s">
+      <c r="UW3" t="s">
         <v>3981</v>
       </c>
-      <c r="TV3" t="s">
+      <c r="UY3" t="s">
         <v>3982</v>
       </c>
-      <c r="TY3" t="s">
+      <c r="VD3" t="s">
         <v>3983</v>
       </c>
-      <c r="UT3" t="s">
+      <c r="VJ3" t="s">
         <v>3984</v>
       </c>
-      <c r="UW3" t="s">
+      <c r="VL3" t="s">
         <v>3985</v>
       </c>
-      <c r="UY3" t="s">
+      <c r="VP3" t="s">
         <v>3986</v>
       </c>
-      <c r="VD3" t="s">
+      <c r="VQ3" t="s">
         <v>3987</v>
       </c>
-      <c r="VJ3" t="s">
+      <c r="VR3" t="s">
         <v>3988</v>
       </c>
-      <c r="VL3" t="s">
+      <c r="VW3" t="s">
         <v>3989</v>
       </c>
-      <c r="VP3" t="s">
+      <c r="VX3" t="s">
         <v>3990</v>
       </c>
-      <c r="VQ3" t="s">
+      <c r="VY3" t="s">
         <v>3991</v>
       </c>
-      <c r="VR3" t="s">
+      <c r="VZ3" t="s">
         <v>3992</v>
       </c>
-      <c r="VW3" t="s">
+      <c r="WB3" t="s">
         <v>3993</v>
       </c>
-      <c r="VX3" t="s">
+      <c r="WC3" t="s">
         <v>3994</v>
       </c>
-      <c r="VY3" t="s">
+      <c r="WD3" t="s">
         <v>3995</v>
       </c>
-      <c r="VZ3" t="s">
+      <c r="WO3" t="s">
         <v>3996</v>
       </c>
-      <c r="WB3" t="s">
+      <c r="XH3" t="s">
         <v>3997</v>
       </c>
-      <c r="WC3" t="s">
+      <c r="XO3" t="s">
         <v>3998</v>
       </c>
-      <c r="WD3" t="s">
+      <c r="XR3" t="s">
         <v>3999</v>
       </c>
-      <c r="WO3" t="s">
+      <c r="XX3" t="s">
         <v>4000</v>
       </c>
-      <c r="XH3" t="s">
+      <c r="YQ3" t="s">
         <v>4001</v>
       </c>
-      <c r="XO3" t="s">
+      <c r="YT3" t="s">
         <v>4002</v>
       </c>
-      <c r="XR3" t="s">
+      <c r="YU3" t="s">
         <v>4003</v>
       </c>
-      <c r="XX3" t="s">
+      <c r="YZ3" t="s">
         <v>4004</v>
       </c>
-      <c r="YQ3" t="s">
+      <c r="ZB3" t="s">
         <v>4005</v>
       </c>
-      <c r="YT3" t="s">
+      <c r="ZC3" t="s">
         <v>4006</v>
       </c>
-      <c r="YU3" t="s">
+      <c r="ZU3" t="s">
         <v>4007</v>
       </c>
-      <c r="YZ3" t="s">
+      <c r="ZV3" t="s">
         <v>4008</v>
       </c>
-      <c r="ZB3" t="s">
+      <c r="AAS3" t="s">
         <v>4009</v>
       </c>
-      <c r="ZC3" t="s">
+      <c r="AAT3" t="s">
         <v>4010</v>
       </c>
-      <c r="ZU3" t="s">
+      <c r="AAU3" t="s">
         <v>4011</v>
       </c>
-      <c r="ZV3" t="s">
+      <c r="ABB3" t="s">
         <v>4012</v>
       </c>
-      <c r="AAS3" t="s">
+      <c r="ABG3" t="s">
         <v>4013</v>
       </c>
-      <c r="AAT3" t="s">
+      <c r="ABK3" t="s">
         <v>4014</v>
       </c>
-      <c r="AAU3" t="s">
+      <c r="ABP3" t="s">
         <v>4015</v>
       </c>
-      <c r="ABB3" t="s">
+      <c r="ACN3" t="s">
         <v>4016</v>
       </c>
-      <c r="ABG3" t="s">
+      <c r="ACV3" t="s">
         <v>4017</v>
       </c>
-      <c r="ABK3" t="s">
-        <v>4018</v>
-      </c>
-      <c r="ABP3" t="s">
-        <v>4019</v>
-      </c>
-      <c r="ACN3" t="s">
-        <v>4020</v>
-      </c>
-      <c r="ACV3" t="s">
-        <v>4021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:776" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:776" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3813</v>
       </c>
       <c r="J4" t="s">
+        <v>4018</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4019</v>
+      </c>
+      <c r="P4" t="s">
+        <v>4020</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>4021</v>
+      </c>
+      <c r="AT4" t="s">
         <v>4022</v>
       </c>
-      <c r="L4" t="s">
+      <c r="AW4" t="s">
         <v>4023</v>
       </c>
-      <c r="P4" t="s">
+      <c r="BA4" t="s">
         <v>4024</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="BP4" t="s">
         <v>4025</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="BR4" t="s">
         <v>4026</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="BS4" t="s">
         <v>4027</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BV4" t="s">
         <v>4028</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BX4" t="s">
         <v>4029</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="CB4" t="s">
         <v>4030</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>4031</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>4032</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>4033</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>4034</v>
       </c>
       <c r="CI4" t="s">
         <v>3844</v>
       </c>
       <c r="CJ4" t="s">
+        <v>4031</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>4032</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>4528</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>4033</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>4034</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>4529</v>
+      </c>
+      <c r="DP4" t="s">
         <v>4035</v>
       </c>
-      <c r="CO4" t="s">
+      <c r="DR4" t="s">
         <v>4036</v>
       </c>
-      <c r="DL4" t="s">
+      <c r="DS4" t="s">
+        <v>4530</v>
+      </c>
+      <c r="DT4" t="s">
         <v>4037</v>
       </c>
-      <c r="DN4" t="s">
+      <c r="DZ4" t="s">
         <v>4038</v>
       </c>
-      <c r="DP4" t="s">
+      <c r="EA4" t="s">
+        <v>4531</v>
+      </c>
+      <c r="EB4" t="s">
         <v>4039</v>
       </c>
-      <c r="DR4" t="s">
+      <c r="ED4" t="s">
         <v>4040</v>
       </c>
-      <c r="DT4" t="s">
+      <c r="FF4" t="s">
         <v>4041</v>
       </c>
-      <c r="DZ4" t="s">
+      <c r="FM4" t="s">
         <v>4042</v>
       </c>
-      <c r="EB4" t="s">
+      <c r="FP4" t="s">
         <v>4043</v>
       </c>
-      <c r="ED4" t="s">
+      <c r="FU4" t="s">
         <v>4044</v>
       </c>
-      <c r="FF4" t="s">
+      <c r="FV4" t="s">
         <v>4045</v>
       </c>
-      <c r="FM4" t="s">
+      <c r="FX4" t="s">
         <v>4046</v>
       </c>
-      <c r="FP4" t="s">
+      <c r="GB4" t="s">
         <v>4047</v>
       </c>
-      <c r="FU4" t="s">
+      <c r="GC4" t="s">
         <v>4048</v>
       </c>
-      <c r="FV4" t="s">
+      <c r="GE4" t="s">
         <v>4049</v>
       </c>
-      <c r="FX4" t="s">
+      <c r="GJ4" t="s">
         <v>4050</v>
       </c>
-      <c r="GB4" t="s">
+      <c r="GT4" t="s">
         <v>4051</v>
       </c>
-      <c r="GC4" t="s">
+      <c r="HE4" t="s">
         <v>4052</v>
       </c>
-      <c r="GE4" t="s">
+      <c r="HF4" t="s">
         <v>4053</v>
       </c>
-      <c r="GJ4" t="s">
+      <c r="HN4" t="s">
         <v>4054</v>
       </c>
-      <c r="GT4" t="s">
+      <c r="HP4" t="s">
         <v>4055</v>
       </c>
-      <c r="HE4" t="s">
+      <c r="ID4" t="s">
         <v>4056</v>
       </c>
-      <c r="HF4" t="s">
+      <c r="IJ4" t="s">
         <v>4057</v>
       </c>
-      <c r="HN4" t="s">
+      <c r="IS4" t="s">
         <v>4058</v>
       </c>
-      <c r="HP4" t="s">
+      <c r="JB4" t="s">
         <v>4059</v>
       </c>
-      <c r="ID4" t="s">
+      <c r="JC4" t="s">
         <v>4060</v>
       </c>
-      <c r="IJ4" t="s">
+      <c r="JR4" t="s">
         <v>4061</v>
       </c>
-      <c r="IS4" t="s">
+      <c r="JS4" t="s">
         <v>4062</v>
       </c>
-      <c r="JB4" t="s">
+      <c r="JT4" t="s">
         <v>4063</v>
       </c>
-      <c r="JC4" t="s">
+      <c r="KB4" t="s">
         <v>4064</v>
       </c>
-      <c r="JR4" t="s">
+      <c r="MK4" t="s">
         <v>4065</v>
       </c>
-      <c r="JS4" t="s">
+      <c r="MQ4" t="s">
         <v>4066</v>
       </c>
-      <c r="JT4" t="s">
+      <c r="MR4" t="s">
         <v>4067</v>
       </c>
-      <c r="KB4" t="s">
+      <c r="MS4" t="s">
         <v>4068</v>
       </c>
-      <c r="MK4" t="s">
+      <c r="MV4" t="s">
+        <v>4629</v>
+      </c>
+      <c r="NF4" t="s">
         <v>4069</v>
       </c>
-      <c r="MQ4" t="s">
+      <c r="OM4" t="s">
         <v>4070</v>
       </c>
-      <c r="MR4" t="s">
+      <c r="OV4" t="s">
         <v>4071</v>
       </c>
-      <c r="MS4" t="s">
+      <c r="PX4" t="s">
         <v>4072</v>
       </c>
-      <c r="NF4" t="s">
+      <c r="RI4" t="s">
         <v>4073</v>
       </c>
-      <c r="OM4" t="s">
+      <c r="SC4" t="s">
         <v>4074</v>
       </c>
-      <c r="OV4" t="s">
+      <c r="SM4" t="s">
         <v>4075</v>
       </c>
-      <c r="PX4" t="s">
+      <c r="SO4" t="s">
         <v>4076</v>
       </c>
-      <c r="RI4" t="s">
+      <c r="ST4" t="s">
         <v>4077</v>
       </c>
-      <c r="SC4" t="s">
+      <c r="SV4" t="s">
         <v>4078</v>
       </c>
-      <c r="SM4" t="s">
+      <c r="SZ4" t="s">
         <v>4079</v>
       </c>
-      <c r="SO4" t="s">
+      <c r="TA4" t="s">
         <v>4080</v>
       </c>
-      <c r="ST4" t="s">
+      <c r="TB4" t="s">
         <v>4081</v>
       </c>
-      <c r="SV4" t="s">
+      <c r="TD4" t="s">
         <v>4082</v>
       </c>
-      <c r="SZ4" t="s">
+      <c r="TG4" t="s">
         <v>4083</v>
       </c>
-      <c r="TA4" t="s">
+      <c r="TJ4" t="s">
         <v>4084</v>
       </c>
-      <c r="TB4" t="s">
+      <c r="TL4" t="s">
         <v>4085</v>
       </c>
-      <c r="TD4" t="s">
+      <c r="TM4" t="s">
         <v>4086</v>
       </c>
-      <c r="TG4" t="s">
+      <c r="TN4" t="s">
         <v>4087</v>
       </c>
-      <c r="TJ4" t="s">
+      <c r="TO4" t="s">
         <v>4088</v>
       </c>
-      <c r="TL4" t="s">
+      <c r="UW4" t="s">
         <v>4089</v>
       </c>
-      <c r="TM4" t="s">
+      <c r="VP4" t="s">
         <v>4090</v>
       </c>
-      <c r="TN4" t="s">
+      <c r="VR4" t="s">
         <v>4091</v>
       </c>
-      <c r="TO4" t="s">
+      <c r="WB4" t="s">
         <v>4092</v>
       </c>
-      <c r="UW4" t="s">
+      <c r="WC4" t="s">
         <v>4093</v>
       </c>
-      <c r="VP4" t="s">
+      <c r="WD4" t="s">
         <v>4094</v>
       </c>
-      <c r="VR4" t="s">
+      <c r="XR4" t="s">
         <v>4095</v>
       </c>
-      <c r="WB4" t="s">
+      <c r="YT4" t="s">
         <v>4096</v>
       </c>
-      <c r="WC4" t="s">
+      <c r="YU4" t="s">
         <v>4097</v>
       </c>
-      <c r="WD4" t="s">
+      <c r="YZ4" t="s">
         <v>4098</v>
       </c>
-      <c r="XR4" t="s">
+      <c r="ABG4" t="s">
         <v>4099</v>
       </c>
-      <c r="YT4" t="s">
+      <c r="ABK4" t="s">
         <v>4100</v>
       </c>
-      <c r="YU4" t="s">
+      <c r="ACV4" t="s">
         <v>4101</v>
-      </c>
-      <c r="YZ4" t="s">
-        <v>4102</v>
-      </c>
-      <c r="ABG4" t="s">
-        <v>4103</v>
-      </c>
-      <c r="ABK4" t="s">
-        <v>4104</v>
-      </c>
-      <c r="ACV4" t="s">
-        <v>4105</v>
       </c>
     </row>
     <row r="5" spans="1:776" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
+        <v>4102</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>4103</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>4104</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>4105</v>
+      </c>
+      <c r="CO5" t="s">
         <v>4106</v>
       </c>
-      <c r="CB5" t="s">
+      <c r="DK5" t="s">
+        <v>4532</v>
+      </c>
+      <c r="DL5" t="s">
         <v>4107</v>
       </c>
-      <c r="CI5" t="s">
+      <c r="DO5" t="s">
+        <v>4533</v>
+      </c>
+      <c r="DR5" t="s">
         <v>4108</v>
       </c>
-      <c r="CJ5" t="s">
+      <c r="DS5" t="s">
+        <v>4534</v>
+      </c>
+      <c r="DT5" t="s">
         <v>4109</v>
       </c>
-      <c r="CO5" t="s">
+      <c r="DZ5" t="s">
         <v>4110</v>
       </c>
-      <c r="DL5" t="s">
+      <c r="EA5" t="s">
+        <v>4535</v>
+      </c>
+      <c r="EB5" t="s">
         <v>4111</v>
       </c>
-      <c r="DR5" t="s">
+      <c r="ED5" t="s">
         <v>4112</v>
       </c>
-      <c r="DT5" t="s">
+      <c r="FM5" t="s">
         <v>4113</v>
       </c>
-      <c r="DZ5" t="s">
+      <c r="FU5" t="s">
         <v>4114</v>
       </c>
-      <c r="EB5" t="s">
+      <c r="FV5" t="s">
         <v>4115</v>
       </c>
-      <c r="ED5" t="s">
+      <c r="GB5" t="s">
         <v>4116</v>
       </c>
-      <c r="FM5" t="s">
+      <c r="GC5" t="s">
         <v>4117</v>
       </c>
-      <c r="FU5" t="s">
+      <c r="GJ5" t="s">
         <v>4118</v>
       </c>
-      <c r="FV5" t="s">
+      <c r="GT5" t="s">
         <v>4119</v>
       </c>
-      <c r="GB5" t="s">
+      <c r="HE5" t="s">
         <v>4120</v>
       </c>
-      <c r="GC5" t="s">
+      <c r="HF5" t="s">
         <v>4121</v>
       </c>
-      <c r="GJ5" t="s">
+      <c r="IJ5" t="s">
         <v>4122</v>
       </c>
-      <c r="GT5" t="s">
+      <c r="JB5" t="s">
         <v>4123</v>
       </c>
-      <c r="HE5" t="s">
+      <c r="JR5" t="s">
         <v>4124</v>
       </c>
-      <c r="HF5" t="s">
+      <c r="JS5" t="s">
         <v>4125</v>
       </c>
-      <c r="IJ5" t="s">
+      <c r="JT5" t="s">
         <v>4126</v>
       </c>
-      <c r="JB5" t="s">
+      <c r="KB5" t="s">
         <v>4127</v>
       </c>
-      <c r="JR5" t="s">
+      <c r="MK5" t="s">
         <v>4128</v>
       </c>
-      <c r="JS5" t="s">
+      <c r="MR5" t="s">
         <v>4129</v>
       </c>
-      <c r="JT5" t="s">
+      <c r="MS5" t="s">
         <v>4130</v>
       </c>
-      <c r="KB5" t="s">
+      <c r="OM5" t="s">
         <v>4131</v>
       </c>
-      <c r="MK5" t="s">
+      <c r="OV5" t="s">
         <v>4132</v>
       </c>
-      <c r="MR5" t="s">
+      <c r="PX5" t="s">
         <v>4133</v>
       </c>
-      <c r="MS5" t="s">
+      <c r="RI5" t="s">
         <v>4134</v>
       </c>
-      <c r="OM5" t="s">
+      <c r="SO5" t="s">
         <v>4135</v>
       </c>
-      <c r="OV5" t="s">
+      <c r="SV5" t="s">
         <v>4136</v>
       </c>
-      <c r="PX5" t="s">
+      <c r="SZ5" t="s">
         <v>4137</v>
       </c>
-      <c r="RI5" t="s">
+      <c r="TG5" t="s">
         <v>4138</v>
       </c>
-      <c r="SO5" t="s">
+      <c r="TJ5" t="s">
         <v>4139</v>
       </c>
-      <c r="SV5" t="s">
+      <c r="TL5" t="s">
         <v>4140</v>
       </c>
-      <c r="SZ5" t="s">
+      <c r="TM5" t="s">
         <v>4141</v>
       </c>
-      <c r="TG5" t="s">
+      <c r="TN5" t="s">
         <v>4142</v>
       </c>
-      <c r="TJ5" t="s">
+      <c r="TO5" t="s">
         <v>4143</v>
       </c>
-      <c r="TL5" t="s">
+      <c r="VR5" t="s">
         <v>4144</v>
       </c>
-      <c r="TM5" t="s">
+      <c r="YT5" t="s">
         <v>4145</v>
       </c>
-      <c r="TN5" t="s">
+      <c r="ABG5" t="s">
         <v>4146</v>
       </c>
-      <c r="TO5" t="s">
+      <c r="ABK5" t="s">
         <v>4147</v>
       </c>
-      <c r="VR5" t="s">
+      <c r="ACV5" t="s">
         <v>4148</v>
-      </c>
-      <c r="YT5" t="s">
-        <v>4149</v>
-      </c>
-      <c r="ABG5" t="s">
-        <v>4150</v>
-      </c>
-      <c r="ABK5" t="s">
-        <v>4151</v>
-      </c>
-      <c r="ACV5" t="s">
-        <v>4152</v>
       </c>
     </row>
     <row r="6" spans="1:776" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
+        <v>4149</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>4150</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>4151</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>4536</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>4152</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>4537</v>
+      </c>
+      <c r="DR6" t="s">
         <v>4153</v>
       </c>
-      <c r="CI6" t="s">
+      <c r="DS6" t="s">
+        <v>4538</v>
+      </c>
+      <c r="DT6" t="s">
         <v>4154</v>
       </c>
-      <c r="CO6" t="s">
+      <c r="DZ6" t="s">
         <v>4155</v>
       </c>
-      <c r="DL6" t="s">
+      <c r="EA6" t="s">
+        <v>4539</v>
+      </c>
+      <c r="EB6" t="s">
         <v>4156</v>
       </c>
-      <c r="DR6" t="s">
+      <c r="ED6" t="s">
         <v>4157</v>
       </c>
-      <c r="DT6" t="s">
+      <c r="FV6" t="s">
         <v>4158</v>
       </c>
-      <c r="DZ6" t="s">
+      <c r="HE6" t="s">
         <v>4159</v>
       </c>
-      <c r="EB6" t="s">
+      <c r="IJ6" t="s">
         <v>4160</v>
       </c>
-      <c r="ED6" t="s">
+      <c r="JR6" t="s">
         <v>4161</v>
       </c>
-      <c r="FV6" t="s">
+      <c r="JS6" t="s">
         <v>4162</v>
       </c>
-      <c r="HE6" t="s">
+      <c r="JT6" t="s">
         <v>4163</v>
       </c>
-      <c r="IJ6" t="s">
+      <c r="KB6" t="s">
         <v>4164</v>
       </c>
-      <c r="JR6" t="s">
+      <c r="MR6" t="s">
         <v>4165</v>
       </c>
-      <c r="JS6" t="s">
+      <c r="MS6" t="s">
         <v>4166</v>
       </c>
-      <c r="JT6" t="s">
+      <c r="OM6" t="s">
         <v>4167</v>
       </c>
-      <c r="KB6" t="s">
+      <c r="OV6" t="s">
         <v>4168</v>
       </c>
-      <c r="MR6" t="s">
+      <c r="PX6" t="s">
         <v>4169</v>
       </c>
-      <c r="MS6" t="s">
+      <c r="RI6" t="s">
         <v>4170</v>
       </c>
-      <c r="OM6" t="s">
+      <c r="SO6" t="s">
         <v>4171</v>
       </c>
-      <c r="OV6" t="s">
+      <c r="TG6" t="s">
         <v>4172</v>
       </c>
-      <c r="PX6" t="s">
+      <c r="TJ6" t="s">
         <v>4173</v>
       </c>
-      <c r="RI6" t="s">
+      <c r="TL6" t="s">
         <v>4174</v>
       </c>
-      <c r="SO6" t="s">
+      <c r="TN6" t="s">
         <v>4175</v>
       </c>
-      <c r="TG6" t="s">
+      <c r="TO6" t="s">
         <v>4176</v>
       </c>
-      <c r="TJ6" t="s">
+      <c r="VR6" t="s">
         <v>4177</v>
       </c>
-      <c r="TL6" t="s">
+      <c r="YT6" t="s">
         <v>4178</v>
       </c>
-      <c r="TN6" t="s">
+      <c r="ABK6" t="s">
         <v>4179</v>
       </c>
-      <c r="TO6" t="s">
+      <c r="ACV6" t="s">
         <v>4180</v>
-      </c>
-      <c r="VR6" t="s">
-        <v>4181</v>
-      </c>
-      <c r="YT6" t="s">
-        <v>4182</v>
-      </c>
-      <c r="ABK6" t="s">
-        <v>4183</v>
-      </c>
-      <c r="ACV6" t="s">
-        <v>4184</v>
       </c>
     </row>
     <row r="7" spans="1:776" x14ac:dyDescent="0.3">
       <c r="CI7" t="s">
-        <v>4154</v>
+        <v>4150</v>
       </c>
       <c r="CO7" t="s">
+        <v>4181</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>4540</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>4182</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>4541</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>4622</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>4542</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>4183</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>4184</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>4543</v>
+      </c>
+      <c r="EB7" t="s">
         <v>4185</v>
       </c>
-      <c r="DL7" t="s">
+      <c r="HE7" t="s">
         <v>4186</v>
       </c>
-      <c r="DT7" t="s">
+      <c r="JR7" t="s">
         <v>4187</v>
       </c>
-      <c r="DZ7" t="s">
+      <c r="JS7" t="s">
         <v>4188</v>
       </c>
-      <c r="EB7" t="s">
+      <c r="JT7" t="s">
         <v>4189</v>
       </c>
-      <c r="HE7" t="s">
+      <c r="MR7" t="s">
         <v>4190</v>
       </c>
-      <c r="JR7" t="s">
+      <c r="MS7" t="s">
         <v>4191</v>
       </c>
-      <c r="JS7" t="s">
+      <c r="TG7" t="s">
         <v>4192</v>
       </c>
-      <c r="JT7" t="s">
+      <c r="TJ7" t="s">
         <v>4193</v>
       </c>
-      <c r="MR7" t="s">
+      <c r="TL7" t="s">
         <v>4194</v>
       </c>
-      <c r="MS7" t="s">
+      <c r="TN7" t="s">
         <v>4195</v>
       </c>
-      <c r="TG7" t="s">
+      <c r="TO7" t="s">
         <v>4196</v>
       </c>
-      <c r="TJ7" t="s">
+      <c r="VR7" t="s">
         <v>4197</v>
       </c>
-      <c r="TL7" t="s">
+      <c r="YT7" t="s">
         <v>4198</v>
       </c>
-      <c r="TN7" t="s">
+      <c r="ACV7" t="s">
         <v>4199</v>
-      </c>
-      <c r="TO7" t="s">
-        <v>4200</v>
-      </c>
-      <c r="VR7" t="s">
-        <v>4201</v>
-      </c>
-      <c r="YT7" t="s">
-        <v>4202</v>
-      </c>
-      <c r="ACV7" t="s">
-        <v>4203</v>
       </c>
     </row>
     <row r="8" spans="1:776" x14ac:dyDescent="0.3">
       <c r="CO8" t="s">
+        <v>4200</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>4544</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>4201</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>4545</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>4546</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>4202</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>4203</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>4547</v>
+      </c>
+      <c r="EB8" t="s">
         <v>4204</v>
       </c>
-      <c r="DL8" t="s">
+      <c r="JR8" t="s">
         <v>4205</v>
       </c>
-      <c r="DT8" t="s">
+      <c r="JS8" t="s">
         <v>4206</v>
       </c>
-      <c r="DZ8" t="s">
+      <c r="JT8" t="s">
         <v>4207</v>
       </c>
-      <c r="EB8" t="s">
+      <c r="MR8" t="s">
+        <v>4627</v>
+      </c>
+      <c r="MS8" t="s">
         <v>4208</v>
       </c>
-      <c r="JR8" t="s">
+      <c r="TG8" t="s">
         <v>4209</v>
       </c>
-      <c r="JS8" t="s">
+      <c r="TJ8" t="s">
         <v>4210</v>
       </c>
-      <c r="JT8" t="s">
+      <c r="TL8" t="s">
         <v>4211</v>
       </c>
-      <c r="MS8" t="s">
+      <c r="TN8" t="s">
         <v>4212</v>
       </c>
-      <c r="TG8" t="s">
+      <c r="ACV8" t="s">
         <v>4213</v>
-      </c>
-      <c r="TJ8" t="s">
-        <v>4214</v>
-      </c>
-      <c r="TL8" t="s">
-        <v>4215</v>
-      </c>
-      <c r="TN8" t="s">
-        <v>4216</v>
-      </c>
-      <c r="ACV8" t="s">
-        <v>4217</v>
       </c>
     </row>
     <row r="9" spans="1:776" x14ac:dyDescent="0.3">
       <c r="CO9" t="s">
+        <v>4214</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>4548</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>4215</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>4549</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>4550</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>4216</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>4217</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>4551</v>
+      </c>
+      <c r="EB9" t="s">
         <v>4218</v>
       </c>
-      <c r="DL9" t="s">
+      <c r="JR9" t="s">
         <v>4219</v>
       </c>
-      <c r="DT9" t="s">
+      <c r="JS9" t="s">
         <v>4220</v>
       </c>
-      <c r="DZ9" t="s">
+      <c r="JT9" t="s">
         <v>4221</v>
       </c>
-      <c r="EB9" t="s">
+      <c r="MS9" t="s">
+        <v>4628</v>
+      </c>
+      <c r="TJ9" t="s">
         <v>4222</v>
       </c>
-      <c r="JR9" t="s">
+      <c r="TL9" t="s">
         <v>4223</v>
       </c>
-      <c r="JS9" t="s">
+      <c r="TN9" t="s">
         <v>4224</v>
       </c>
-      <c r="JT9" t="s">
+      <c r="ACV9" t="s">
         <v>4225</v>
-      </c>
-      <c r="TJ9" t="s">
-        <v>4226</v>
-      </c>
-      <c r="TL9" t="s">
-        <v>4227</v>
-      </c>
-      <c r="TN9" t="s">
-        <v>4228</v>
-      </c>
-      <c r="ACV9" t="s">
-        <v>4229</v>
       </c>
     </row>
     <row r="10" spans="1:776" x14ac:dyDescent="0.3">
       <c r="CO10" t="s">
+        <v>4226</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>4552</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>4227</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>4553</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>4554</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>4228</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>4229</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>4555</v>
+      </c>
+      <c r="EB10" t="s">
         <v>4230</v>
       </c>
-      <c r="DL10" t="s">
+      <c r="JR10" t="s">
         <v>4231</v>
       </c>
-      <c r="DT10" t="s">
+      <c r="JS10" t="s">
         <v>4232</v>
       </c>
-      <c r="DZ10" t="s">
+      <c r="JT10" t="s">
         <v>4233</v>
       </c>
-      <c r="EB10" t="s">
+      <c r="MS10" t="s">
+        <v>4166</v>
+      </c>
+      <c r="TJ10" t="s">
         <v>4234</v>
       </c>
-      <c r="JR10" t="s">
+      <c r="TL10" t="s">
         <v>4235</v>
       </c>
-      <c r="JS10" t="s">
+      <c r="TN10" t="s">
         <v>4236</v>
       </c>
-      <c r="JT10" t="s">
+      <c r="ACV10" t="s">
         <v>4237</v>
-      </c>
-      <c r="TJ10" t="s">
-        <v>4238</v>
-      </c>
-      <c r="TL10" t="s">
-        <v>4239</v>
-      </c>
-      <c r="TN10" t="s">
-        <v>4240</v>
-      </c>
-      <c r="ACV10" t="s">
-        <v>4241</v>
       </c>
     </row>
     <row r="11" spans="1:776" x14ac:dyDescent="0.3">
       <c r="CO11" t="s">
+        <v>4238</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>4556</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>4239</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>4557</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>4558</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>4240</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>4241</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>4559</v>
+      </c>
+      <c r="JR11" t="s">
         <v>4242</v>
       </c>
-      <c r="DL11" t="s">
+      <c r="JS11" t="s">
         <v>4243</v>
       </c>
-      <c r="DT11" t="s">
+      <c r="JT11" t="s">
         <v>4244</v>
       </c>
-      <c r="DZ11" t="s">
+      <c r="MS11" t="s">
+        <v>4630</v>
+      </c>
+      <c r="TJ11" t="s">
         <v>4245</v>
       </c>
-      <c r="JR11" t="s">
+      <c r="TN11" t="s">
         <v>4246</v>
       </c>
-      <c r="JS11" t="s">
+      <c r="ACV11" t="s">
         <v>4247</v>
-      </c>
-      <c r="JT11" t="s">
-        <v>4248</v>
-      </c>
-      <c r="TJ11" t="s">
-        <v>4249</v>
-      </c>
-      <c r="TN11" t="s">
-        <v>4250</v>
-      </c>
-      <c r="ACV11" t="s">
-        <v>4251</v>
       </c>
     </row>
     <row r="12" spans="1:776" x14ac:dyDescent="0.3">
       <c r="CO12" t="s">
+        <v>4248</v>
+      </c>
+      <c r="DK12" t="s">
+        <v>4560</v>
+      </c>
+      <c r="DL12" t="s">
+        <v>4249</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>4561</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>4562</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>4250</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>4251</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>4527</v>
+      </c>
+      <c r="JR12" t="s">
         <v>4252</v>
       </c>
-      <c r="DL12" t="s">
+      <c r="JS12" t="s">
         <v>4253</v>
       </c>
-      <c r="DT12" t="s">
+      <c r="JT12" t="s">
         <v>4254</v>
       </c>
-      <c r="DZ12" t="s">
+      <c r="MS12" t="s">
+        <v>4130</v>
+      </c>
+      <c r="TJ12" t="s">
         <v>4255</v>
       </c>
-      <c r="JR12" t="s">
+      <c r="TN12" t="s">
         <v>4256</v>
       </c>
-      <c r="JS12" t="s">
+      <c r="ACV12" t="s">
         <v>4257</v>
       </c>
-      <c r="JT12" t="s">
+    </row>
+    <row r="13" spans="1:776" x14ac:dyDescent="0.3">
+      <c r="DK13" t="s">
+        <v>4563</v>
+      </c>
+      <c r="DL13" t="s">
         <v>4258</v>
       </c>
-      <c r="TJ12" t="s">
+      <c r="DO13" t="s">
+        <v>4564</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>4565</v>
+      </c>
+      <c r="DT13" t="s">
         <v>4259</v>
       </c>
-      <c r="TN12" t="s">
+      <c r="DZ13" t="s">
         <v>4260</v>
       </c>
-      <c r="ACV12" t="s">
+      <c r="EA13" t="s">
+        <v>4543</v>
+      </c>
+      <c r="JR13" t="s">
         <v>4261</v>
       </c>
-    </row>
-    <row r="13" spans="1:776" x14ac:dyDescent="0.3">
-      <c r="DL13" t="s">
+      <c r="JS13" t="s">
         <v>4262</v>
       </c>
-      <c r="DT13" t="s">
+      <c r="TJ13" t="s">
         <v>4263</v>
       </c>
-      <c r="DZ13" t="s">
+      <c r="TN13" t="s">
         <v>4264</v>
       </c>
-      <c r="JR13" t="s">
+      <c r="ACV13" t="s">
         <v>4265</v>
       </c>
-      <c r="JS13" t="s">
+    </row>
+    <row r="14" spans="1:776" x14ac:dyDescent="0.3">
+      <c r="DK14" t="s">
+        <v>4566</v>
+      </c>
+      <c r="DO14" t="s">
+        <v>4567</v>
+      </c>
+      <c r="DT14" t="s">
         <v>4266</v>
       </c>
-      <c r="TJ13" t="s">
+      <c r="DZ14" t="s">
         <v>4267</v>
       </c>
-      <c r="TN13" t="s">
+      <c r="JR14" t="s">
         <v>4268</v>
       </c>
-      <c r="ACV13" t="s">
+      <c r="JS14" t="s">
         <v>4269</v>
       </c>
-    </row>
-    <row r="14" spans="1:776" x14ac:dyDescent="0.3">
-      <c r="DT14" t="s">
+      <c r="TJ14" t="s">
         <v>4270</v>
       </c>
-      <c r="DZ14" t="s">
+      <c r="TN14" t="s">
         <v>4271</v>
       </c>
-      <c r="JR14" t="s">
+      <c r="ACV14" t="s">
         <v>4272</v>
       </c>
-      <c r="JS14" t="s">
+    </row>
+    <row r="15" spans="1:776" x14ac:dyDescent="0.3">
+      <c r="DK15" t="s">
+        <v>4568</v>
+      </c>
+      <c r="DO15" t="s">
+        <v>4569</v>
+      </c>
+      <c r="DT15" t="s">
         <v>4273</v>
       </c>
-      <c r="TJ14" t="s">
+      <c r="DZ15" t="s">
         <v>4274</v>
       </c>
-      <c r="TN14" t="s">
+      <c r="JR15" t="s">
         <v>4275</v>
       </c>
-      <c r="ACV14" t="s">
+      <c r="JS15" t="s">
         <v>4276</v>
       </c>
-    </row>
-    <row r="15" spans="1:776" x14ac:dyDescent="0.3">
-      <c r="DT15" t="s">
+      <c r="TJ15" t="s">
         <v>4277</v>
       </c>
-      <c r="DZ15" t="s">
+      <c r="ACV15" t="s">
         <v>4278</v>
-      </c>
-      <c r="JR15" t="s">
-        <v>4279</v>
-      </c>
-      <c r="JS15" t="s">
-        <v>4280</v>
-      </c>
-      <c r="TJ15" t="s">
-        <v>4281</v>
-      </c>
-      <c r="ACV15" t="s">
-        <v>4282</v>
       </c>
     </row>
     <row r="16" spans="1:776" x14ac:dyDescent="0.3">
       <c r="DT16" t="s">
+        <v>4279</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>4280</v>
+      </c>
+      <c r="JR16" t="s">
+        <v>4281</v>
+      </c>
+      <c r="JS16" t="s">
+        <v>4282</v>
+      </c>
+      <c r="TJ16" t="s">
         <v>4283</v>
       </c>
-      <c r="DZ16" t="s">
+      <c r="ACV16" t="s">
         <v>4284</v>
       </c>
-      <c r="JR16" t="s">
+    </row>
+    <row r="17" spans="124:776" x14ac:dyDescent="0.3">
+      <c r="DT17" t="s">
+        <v>4570</v>
+      </c>
+      <c r="JR17" t="s">
         <v>4285</v>
       </c>
-      <c r="JS16" t="s">
+      <c r="TJ17" t="s">
         <v>4286</v>
       </c>
-      <c r="TJ16" t="s">
+      <c r="ACV17" t="s">
         <v>4287</v>
       </c>
-      <c r="ACV16" t="s">
+    </row>
+    <row r="18" spans="124:776" x14ac:dyDescent="0.3">
+      <c r="DT18" t="s">
+        <v>4571</v>
+      </c>
+      <c r="JR18" t="s">
         <v>4288</v>
       </c>
-    </row>
-    <row r="17" spans="278:776" x14ac:dyDescent="0.3">
-      <c r="JR17" t="s">
+      <c r="TJ18" t="s">
         <v>4289</v>
       </c>
-      <c r="TJ17" t="s">
+      <c r="ACV18" t="s">
         <v>4290</v>
       </c>
-      <c r="ACV17" t="s">
+    </row>
+    <row r="19" spans="124:776" x14ac:dyDescent="0.3">
+      <c r="DT19" t="s">
+        <v>4572</v>
+      </c>
+      <c r="JR19" t="s">
         <v>4291</v>
       </c>
-    </row>
-    <row r="18" spans="278:776" x14ac:dyDescent="0.3">
-      <c r="JR18" t="s">
+      <c r="TJ19" t="s">
         <v>4292</v>
       </c>
-      <c r="TJ18" t="s">
+      <c r="ACV19" t="s">
         <v>4293</v>
       </c>
-      <c r="ACV18" t="s">
+    </row>
+    <row r="20" spans="124:776" x14ac:dyDescent="0.3">
+      <c r="JR20" t="s">
         <v>4294</v>
       </c>
-    </row>
-    <row r="19" spans="278:776" x14ac:dyDescent="0.3">
-      <c r="JR19" t="s">
+      <c r="TJ20" t="s">
         <v>4295</v>
       </c>
-      <c r="TJ19" t="s">
+      <c r="ACV20" t="s">
         <v>4296</v>
       </c>
-      <c r="ACV19" t="s">
+    </row>
+    <row r="21" spans="124:776" x14ac:dyDescent="0.3">
+      <c r="JR21" t="s">
         <v>4297</v>
       </c>
-    </row>
-    <row r="20" spans="278:776" x14ac:dyDescent="0.3">
-      <c r="JR20" t="s">
+      <c r="TJ21" t="s">
         <v>4298</v>
       </c>
-      <c r="TJ20" t="s">
+      <c r="ACV21" t="s">
         <v>4299</v>
       </c>
-      <c r="ACV20" t="s">
+    </row>
+    <row r="22" spans="124:776" x14ac:dyDescent="0.3">
+      <c r="JR22" t="s">
         <v>4300</v>
       </c>
-    </row>
-    <row r="21" spans="278:776" x14ac:dyDescent="0.3">
-      <c r="JR21" t="s">
+      <c r="TJ22" t="s">
         <v>4301</v>
       </c>
-      <c r="TJ21" t="s">
+      <c r="ACV22" t="s">
         <v>4302</v>
       </c>
-      <c r="ACV21" t="s">
+    </row>
+    <row r="23" spans="124:776" x14ac:dyDescent="0.3">
+      <c r="JR23" t="s">
         <v>4303</v>
       </c>
-    </row>
-    <row r="22" spans="278:776" x14ac:dyDescent="0.3">
-      <c r="JR22" t="s">
+      <c r="ACV23" t="s">
         <v>4304</v>
       </c>
-      <c r="TJ22" t="s">
+    </row>
+    <row r="24" spans="124:776" x14ac:dyDescent="0.3">
+      <c r="JR24" t="s">
         <v>4305</v>
       </c>
-      <c r="ACV22" t="s">
+      <c r="ACV24" t="s">
         <v>4306</v>
       </c>
     </row>
-    <row r="23" spans="278:776" x14ac:dyDescent="0.3">
-      <c r="JR23" t="s">
+    <row r="25" spans="124:776" x14ac:dyDescent="0.3">
+      <c r="JR25" t="s">
         <v>4307</v>
       </c>
-      <c r="ACV23" t="s">
+      <c r="ACV25" t="s">
         <v>4308</v>
       </c>
     </row>
-    <row r="24" spans="278:776" x14ac:dyDescent="0.3">
-      <c r="JR24" t="s">
+    <row r="26" spans="124:776" x14ac:dyDescent="0.3">
+      <c r="JR26" t="s">
         <v>4309</v>
       </c>
-      <c r="ACV24" t="s">
+    </row>
+    <row r="27" spans="124:776" x14ac:dyDescent="0.3">
+      <c r="JR27" t="s">
         <v>4310</v>
       </c>
     </row>
-    <row r="25" spans="278:776" x14ac:dyDescent="0.3">
-      <c r="JR25" t="s">
+    <row r="28" spans="124:776" x14ac:dyDescent="0.3">
+      <c r="JR28" t="s">
         <v>4311</v>
       </c>
-      <c r="ACV25" t="s">
+    </row>
+    <row r="29" spans="124:776" x14ac:dyDescent="0.3">
+      <c r="JR29" t="s">
         <v>4312</v>
       </c>
     </row>
-    <row r="26" spans="278:776" x14ac:dyDescent="0.3">
-      <c r="JR26" t="s">
+    <row r="30" spans="124:776" x14ac:dyDescent="0.3">
+      <c r="JR30" t="s">
         <v>4313</v>
       </c>
     </row>
-    <row r="27" spans="278:776" x14ac:dyDescent="0.3">
-      <c r="JR27" t="s">
+    <row r="31" spans="124:776" x14ac:dyDescent="0.3">
+      <c r="JR31" t="s">
         <v>4314</v>
       </c>
     </row>
-    <row r="28" spans="278:776" x14ac:dyDescent="0.3">
-      <c r="JR28" t="s">
+    <row r="32" spans="124:776" x14ac:dyDescent="0.3">
+      <c r="JR32" t="s">
         <v>4315</v>
-      </c>
-    </row>
-    <row r="29" spans="278:776" x14ac:dyDescent="0.3">
-      <c r="JR29" t="s">
-        <v>4316</v>
-      </c>
-    </row>
-    <row r="30" spans="278:776" x14ac:dyDescent="0.3">
-      <c r="JR30" t="s">
-        <v>4317</v>
-      </c>
-    </row>
-    <row r="31" spans="278:776" x14ac:dyDescent="0.3">
-      <c r="JR31" t="s">
-        <v>4318</v>
-      </c>
-    </row>
-    <row r="32" spans="278:776" x14ac:dyDescent="0.3">
-      <c r="JR32" t="s">
-        <v>4319</v>
       </c>
     </row>
     <row r="33" spans="278:278" x14ac:dyDescent="0.3">
       <c r="JR33" t="s">
-        <v>4320</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="34" spans="278:278" x14ac:dyDescent="0.3">
       <c r="JR34" t="s">
-        <v>4321</v>
+        <v>4317</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0692C3-4A54-4C10-B541-0CACD5C4D033}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4605</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4610</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4600</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4603</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4609</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4607</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4577</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4582</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4586</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4590</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4598</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4575</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>4577</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>4620</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4580</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4592</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4596</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4602</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4616</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4612</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4618</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4584</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4594</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4588</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4614</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4617</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4006</v>
+      </c>
+      <c r="D29" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>4575</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>4631</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>4632</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>4633</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4634</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D29">
+    <sortCondition ref="A2:A29"/>
+    <sortCondition ref="B2:B29"/>
+    <sortCondition ref="C2:C29"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AEF6B7-BE50-4814-9488-4B72A3ECAB7B}">
+  <dimension ref="A1:D218"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4525</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4321</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4323</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4326</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4328</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4330</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4332</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4334</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4336</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4338</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4340</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4342</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4344</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4346</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4349</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4351</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4353</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4355</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4357</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4359</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4361</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4363</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4365</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4367</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4369</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4371</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4373</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4375</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4377</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4379</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4380</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4379</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4379</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4379</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4379</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4385</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4387</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4389</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C62" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4391</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4393</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4395</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4397</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4399</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4401</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4403</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4405</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4407</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4409</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4411</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4413</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4416</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4417</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4419</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4421</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4423</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4424</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4425</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4426</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4427</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4429</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4430</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4432</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4434</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4436</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4438</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4439</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4440</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4441</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4442</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4443</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4444</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4445</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4446</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4447</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4448</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4450</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4452</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4454</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4455</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4457</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4459</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4461</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4462</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4463</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4466</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4468</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4469</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4470</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4472</v>
+      </c>
+      <c r="D151" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4473</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4474</v>
+      </c>
+      <c r="D153" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4477</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4479</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4481</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4483</v>
+      </c>
+      <c r="D158" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4485</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4486</v>
+      </c>
+      <c r="D160" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4488</v>
+      </c>
+      <c r="D161" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4489</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4490</v>
+      </c>
+      <c r="D163" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4492</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4493</v>
+      </c>
+      <c r="D165" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4495</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4497</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C169" t="s">
+        <v>4498</v>
+      </c>
+      <c r="D169" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4499</v>
+      </c>
+      <c r="D170" t="s">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4501</v>
+      </c>
+      <c r="D171" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4503</v>
+      </c>
+      <c r="D172" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4505</v>
+      </c>
+      <c r="D173" t="s">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C174" t="s">
+        <v>4507</v>
+      </c>
+      <c r="D174" t="s">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C175" t="s">
+        <v>4509</v>
+      </c>
+      <c r="D175" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4511</v>
+      </c>
+      <c r="D176" t="s">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C177" t="s">
+        <v>4513</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C178" t="s">
+        <v>4514</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4515</v>
+      </c>
+      <c r="D179" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C180" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D180" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C181" t="s">
+        <v>4517</v>
+      </c>
+      <c r="D181" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4519</v>
+      </c>
+      <c r="D182" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C183" t="s">
+        <v>4520</v>
+      </c>
+      <c r="D183" t="s">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C184" t="s">
+        <v>4522</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4523</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4524</v>
+      </c>
+      <c r="D186" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D187" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D188" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C189" t="s">
+        <v>282</v>
+      </c>
+      <c r="D189" t="s">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D190" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D191" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D192" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D193" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D194" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D195" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C196" t="s">
+        <v>4637</v>
+      </c>
+      <c r="D196" t="s">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C197" t="s">
+        <v>4639</v>
+      </c>
+      <c r="D197" t="s">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D198" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C199" t="s">
+        <v>4641</v>
+      </c>
+      <c r="D199" t="s">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C200" t="s">
+        <v>4643</v>
+      </c>
+      <c r="D200" t="s">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="6" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>4645</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C203" t="s">
+        <v>4647</v>
+      </c>
+      <c r="D203" t="s">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C204" t="s">
+        <v>4649</v>
+      </c>
+      <c r="D204" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C205" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D205" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C206" t="s">
+        <v>4651</v>
+      </c>
+      <c r="D206" t="s">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D207" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B208" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C208" t="s">
+        <v>4653</v>
+      </c>
+      <c r="D208" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B209" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C209" t="s">
+        <v>4655</v>
+      </c>
+      <c r="D209" t="s">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C210" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D210" t="s">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C211" t="s">
+        <v>322</v>
+      </c>
+      <c r="D211" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C212" t="s">
+        <v>325</v>
+      </c>
+      <c r="D212" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C213" t="s">
+        <v>4659</v>
+      </c>
+      <c r="D213" t="s">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B214" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C214" t="s">
+        <v>4661</v>
+      </c>
+      <c r="D214" t="s">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C215" t="s">
+        <v>4663</v>
+      </c>
+      <c r="D215" t="s">
+        <v>4664</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B216" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4665</v>
+      </c>
+      <c r="D216" t="s">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B217" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C217" t="s">
+        <v>4667</v>
+      </c>
+      <c r="D217" t="s">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>4669</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3154</v>
+      </c>
+      <c r="C218" t="s">
+        <v>4670</v>
+      </c>
+      <c r="D218" t="s">
+        <v>4671</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D216" xr:uid="{B156F4CB-D299-40AA-B147-25498F9CFCA2}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DMP/Report/Template/ART sites.xlsx
+++ b/DMP/Report/Template/ART sites.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7935" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">IHVN_Extra!$A$1:$D$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">IHVN_Extra!$A$1:$D$162</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$2:$E$984</definedName>
     <definedName name="Faclist">INDEX([1]!LGAFac[#Data],,MATCH(LGA,LGAFac_list,0))</definedName>
     <definedName name="LGA">[1]MainPage!$S$17</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10487" uniqueCount="5699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10615" uniqueCount="5744">
   <si>
     <t>Facility</t>
   </si>
@@ -13401,9 +13401,6 @@
     <t>Heartland Alliance Hospital</t>
   </si>
   <si>
-    <t>EGR2uDTGAxp</t>
-  </si>
-  <si>
     <t>Wumba Clinic (Formerly Apex Clinic)</t>
   </si>
   <si>
@@ -14022,9 +14019,6 @@
     <t>kNVBrpSSarY</t>
   </si>
   <si>
-    <t>Heartland Alliance Foundation</t>
-  </si>
-  <si>
     <t>PJLNiF4iUNG</t>
   </si>
   <si>
@@ -17137,13 +17131,154 @@
   </si>
   <si>
     <t>Medical Mission of Mary Lugbe</t>
+  </si>
+  <si>
+    <t>CAiLunIa3Xd</t>
+  </si>
+  <si>
+    <t>Bogije Primary Health Center</t>
+  </si>
+  <si>
+    <t>Mq45WIHMbhI</t>
+  </si>
+  <si>
+    <t>Akonwonjo Primary Health Center</t>
+  </si>
+  <si>
+    <t>Mary the Queen Hospital - Akowonjo</t>
+  </si>
+  <si>
+    <t>AfLGN7kmKaK</t>
+  </si>
+  <si>
+    <t>Ajah Primary Health Center</t>
+  </si>
+  <si>
+    <t>NCrwoKufAu9</t>
+  </si>
+  <si>
+    <t>Badore Primary Health Center</t>
+  </si>
+  <si>
+    <t>caURkzVpu1s</t>
+  </si>
+  <si>
+    <t>Ibeju Primary Health Center</t>
+  </si>
+  <si>
+    <t>rB2YmkEyVMe</t>
+  </si>
+  <si>
+    <t>Lakowe Primary Health Center</t>
+  </si>
+  <si>
+    <t>CgLv30Bvesq</t>
+  </si>
+  <si>
+    <t>Orimedu Primary Health Center</t>
+  </si>
+  <si>
+    <t>bo5LL25UZr1</t>
+  </si>
+  <si>
+    <t>Adefemi Hospital</t>
+  </si>
+  <si>
+    <t>FmYJEmrM0XN</t>
+  </si>
+  <si>
+    <t>Adeniyi Jones Millennium Development Goal (MDG) Primary Health Center</t>
+  </si>
+  <si>
+    <t>JOF4KxxChPl</t>
+  </si>
+  <si>
+    <t>Aguda Primary Health Center</t>
+  </si>
+  <si>
+    <t>oDyfWsya2j6</t>
+  </si>
+  <si>
+    <t>Ikeja Primary Health Center</t>
+  </si>
+  <si>
+    <t>GTMoXWeaOEp</t>
+  </si>
+  <si>
+    <t>Ita-Osu Primary Health Center</t>
+  </si>
+  <si>
+    <t>Uv709zNDrrz</t>
+  </si>
+  <si>
+    <t>Ijari Model Health Clinic</t>
+  </si>
+  <si>
+    <t>FblS4x3J5ye</t>
+  </si>
+  <si>
+    <t>Ogere Primary Health Center - Ikenne</t>
+  </si>
+  <si>
+    <t>jrlSMIy4Udi</t>
+  </si>
+  <si>
+    <t>Sango Ota Primary Health Center</t>
+  </si>
+  <si>
+    <t>Ikoyi-Ile Primary Health Center</t>
+  </si>
+  <si>
+    <t>la Ibeju-Lekki</t>
+  </si>
+  <si>
+    <t>la Alimosho</t>
+  </si>
+  <si>
+    <t>og Ikenne</t>
+  </si>
+  <si>
+    <t>la Eti-Osa</t>
+  </si>
+  <si>
+    <t>og Ijebu North East</t>
+  </si>
+  <si>
+    <t>na Butus Medical Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na Rinze Primary Health Centre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">na Royal Hospital Akwanga </t>
+  </si>
+  <si>
+    <t>na Imami Clinic</t>
+  </si>
+  <si>
+    <t>na Obi</t>
+  </si>
+  <si>
+    <t>na Doma</t>
+  </si>
+  <si>
+    <t>na Lafia</t>
+  </si>
+  <si>
+    <t>na Hawawu Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>na Kadarki National Primary Health Centre</t>
+  </si>
+  <si>
+    <t>na Primary Health Center Pada Maintown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17189,6 +17324,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -17207,10 +17354,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -17223,9 +17371,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 8 2" xfId="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -34059,8 +34209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACT98"/>
   <sheetViews>
-    <sheetView topLeftCell="JN1" workbookViewId="0">
-      <selection activeCell="JR1" sqref="JR1"/>
+    <sheetView topLeftCell="JQ20" workbookViewId="0">
+      <selection activeCell="JQ57" sqref="JQ57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37199,7 +37349,7 @@
         <v>3350</v>
       </c>
       <c r="U2" t="s">
-        <v>4671</v>
+        <v>4669</v>
       </c>
       <c r="V2" t="s">
         <v>3351</v>
@@ -37211,7 +37361,7 @@
         <v>3353</v>
       </c>
       <c r="Y2" t="s">
-        <v>4672</v>
+        <v>4670</v>
       </c>
       <c r="AC2" t="s">
         <v>3354</v>
@@ -37223,7 +37373,7 @@
         <v>3356</v>
       </c>
       <c r="AH2" t="s">
-        <v>4673</v>
+        <v>4671</v>
       </c>
       <c r="AI2" t="s">
         <v>3357</v>
@@ -37283,7 +37433,7 @@
         <v>3374</v>
       </c>
       <c r="BB2" t="s">
-        <v>4674</v>
+        <v>4672</v>
       </c>
       <c r="BC2" t="s">
         <v>3375</v>
@@ -37316,7 +37466,7 @@
         <v>3383</v>
       </c>
       <c r="BM2" t="s">
-        <v>4675</v>
+        <v>4673</v>
       </c>
       <c r="BN2" t="s">
         <v>3384</v>
@@ -37337,7 +37487,7 @@
         <v>3389</v>
       </c>
       <c r="BT2" t="s">
-        <v>4676</v>
+        <v>4674</v>
       </c>
       <c r="BU2" t="s">
         <v>3390</v>
@@ -37382,7 +37532,7 @@
         <v>3403</v>
       </c>
       <c r="CJ2" t="s">
-        <v>4677</v>
+        <v>4675</v>
       </c>
       <c r="CK2" t="s">
         <v>4105</v>
@@ -37397,16 +37547,16 @@
         <v>3406</v>
       </c>
       <c r="CO2" t="s">
-        <v>4678</v>
+        <v>4676</v>
       </c>
       <c r="CR2" t="s">
         <v>3407</v>
       </c>
       <c r="CT2" t="s">
-        <v>4679</v>
+        <v>4677</v>
       </c>
       <c r="CU2" t="s">
-        <v>4680</v>
+        <v>4678</v>
       </c>
       <c r="CW2" t="s">
         <v>3408</v>
@@ -37418,10 +37568,10 @@
         <v>3410</v>
       </c>
       <c r="DA2" t="s">
-        <v>4681</v>
+        <v>4679</v>
       </c>
       <c r="DB2" t="s">
-        <v>4682</v>
+        <v>4680</v>
       </c>
       <c r="DC2" t="s">
         <v>3411</v>
@@ -37430,10 +37580,10 @@
         <v>3412</v>
       </c>
       <c r="DE2" t="s">
-        <v>4683</v>
+        <v>4681</v>
       </c>
       <c r="DF2" t="s">
-        <v>4684</v>
+        <v>4682</v>
       </c>
       <c r="DG2" t="s">
         <v>3413</v>
@@ -37445,31 +37595,31 @@
         <v>3415</v>
       </c>
       <c r="DJ2" t="s">
-        <v>4525</v>
+        <v>4524</v>
       </c>
       <c r="DK2" t="s">
         <v>3417</v>
       </c>
       <c r="DL2" t="s">
-        <v>4685</v>
+        <v>4683</v>
       </c>
       <c r="DM2" t="s">
         <v>3418</v>
       </c>
       <c r="DN2" t="s">
-        <v>4526</v>
+        <v>4525</v>
       </c>
       <c r="DO2" t="s">
-        <v>4686</v>
+        <v>4684</v>
       </c>
       <c r="DP2" t="s">
-        <v>4687</v>
+        <v>4685</v>
       </c>
       <c r="DQ2" t="s">
         <v>3422</v>
       </c>
       <c r="DR2" t="s">
-        <v>4527</v>
+        <v>4526</v>
       </c>
       <c r="DS2" t="s">
         <v>4037</v>
@@ -37493,13 +37643,13 @@
         <v>3430</v>
       </c>
       <c r="DZ2" t="s">
-        <v>4524</v>
+        <v>4523</v>
       </c>
       <c r="EA2" t="s">
         <v>4204</v>
       </c>
       <c r="EB2" t="s">
-        <v>4688</v>
+        <v>4686</v>
       </c>
       <c r="EC2" t="s">
         <v>3434</v>
@@ -37724,7 +37874,7 @@
         <v>3507</v>
       </c>
       <c r="HV2" t="s">
-        <v>4689</v>
+        <v>4687</v>
       </c>
       <c r="HX2" t="s">
         <v>3508</v>
@@ -37748,10 +37898,10 @@
         <v>3514</v>
       </c>
       <c r="IG2" t="s">
-        <v>4690</v>
+        <v>4688</v>
       </c>
       <c r="IH2" t="s">
-        <v>4691</v>
+        <v>4689</v>
       </c>
       <c r="II2" t="s">
         <v>3515</v>
@@ -37928,10 +38078,10 @@
         <v>3572</v>
       </c>
       <c r="LR2" t="s">
-        <v>4692</v>
+        <v>4690</v>
       </c>
       <c r="LS2" t="s">
-        <v>4693</v>
+        <v>4691</v>
       </c>
       <c r="LT2" t="s">
         <v>3573</v>
@@ -37949,7 +38099,7 @@
         <v>3577</v>
       </c>
       <c r="MG2" t="s">
-        <v>4694</v>
+        <v>4692</v>
       </c>
       <c r="MI2" t="s">
         <v>3578</v>
@@ -38018,34 +38168,34 @@
         <v>3599</v>
       </c>
       <c r="NF2" t="s">
-        <v>4695</v>
+        <v>4693</v>
       </c>
       <c r="NH2" t="s">
         <v>3600</v>
       </c>
       <c r="NJ2" t="s">
-        <v>4696</v>
+        <v>4694</v>
       </c>
       <c r="NK2" t="s">
         <v>3601</v>
       </c>
       <c r="NL2" t="s">
-        <v>4697</v>
+        <v>4695</v>
       </c>
       <c r="NP2" t="s">
         <v>3602</v>
       </c>
       <c r="NR2" t="s">
-        <v>4698</v>
+        <v>4696</v>
       </c>
       <c r="NT2" t="s">
-        <v>4699</v>
+        <v>4697</v>
       </c>
       <c r="NY2" t="s">
         <v>3604</v>
       </c>
       <c r="NZ2" t="s">
-        <v>4700</v>
+        <v>4698</v>
       </c>
       <c r="OA2" t="s">
         <v>3605</v>
@@ -38060,7 +38210,7 @@
         <v>3608</v>
       </c>
       <c r="OG2" t="s">
-        <v>4701</v>
+        <v>4699</v>
       </c>
       <c r="OH2" t="s">
         <v>3609</v>
@@ -38102,7 +38252,7 @@
         <v>3621</v>
       </c>
       <c r="OX2" t="s">
-        <v>4702</v>
+        <v>4700</v>
       </c>
       <c r="OY2" t="s">
         <v>3622</v>
@@ -38255,7 +38405,7 @@
         <v>3671</v>
       </c>
       <c r="SK2" t="s">
-        <v>4703</v>
+        <v>4701</v>
       </c>
       <c r="SL2" t="s">
         <v>3672</v>
@@ -38309,7 +38459,7 @@
         <v>3688</v>
       </c>
       <c r="TD2" t="s">
-        <v>4704</v>
+        <v>4702</v>
       </c>
       <c r="TE2" t="s">
         <v>3689</v>
@@ -38348,13 +38498,13 @@
         <v>3700</v>
       </c>
       <c r="TQ2" t="s">
-        <v>4705</v>
+        <v>4703</v>
       </c>
       <c r="TR2" t="s">
         <v>3701</v>
       </c>
       <c r="TT2" t="s">
-        <v>4706</v>
+        <v>4704</v>
       </c>
       <c r="TU2" t="s">
         <v>3702</v>
@@ -38363,13 +38513,13 @@
         <v>3703</v>
       </c>
       <c r="TW2" t="s">
-        <v>4707</v>
+        <v>4705</v>
       </c>
       <c r="TX2" t="s">
         <v>3704</v>
       </c>
       <c r="TZ2" t="s">
-        <v>4708</v>
+        <v>4706</v>
       </c>
       <c r="UA2" t="s">
         <v>3705</v>
@@ -38384,16 +38534,16 @@
         <v>3708</v>
       </c>
       <c r="UG2" t="s">
-        <v>4709</v>
+        <v>4707</v>
       </c>
       <c r="UH2" t="s">
-        <v>4710</v>
+        <v>4708</v>
       </c>
       <c r="UI2" t="s">
         <v>3709</v>
       </c>
       <c r="UJ2" t="s">
-        <v>4711</v>
+        <v>4709</v>
       </c>
       <c r="UL2" t="s">
         <v>3710</v>
@@ -38414,7 +38564,7 @@
         <v>3715</v>
       </c>
       <c r="UR2" t="s">
-        <v>4712</v>
+        <v>4710</v>
       </c>
       <c r="US2" t="s">
         <v>3716</v>
@@ -38492,13 +38642,13 @@
         <v>3740</v>
       </c>
       <c r="WA2" t="s">
-        <v>4713</v>
+        <v>4711</v>
       </c>
       <c r="WB2" t="s">
         <v>3742</v>
       </c>
       <c r="WC2" t="s">
-        <v>4714</v>
+        <v>4712</v>
       </c>
       <c r="WK2" t="s">
         <v>3744</v>
@@ -38510,7 +38660,7 @@
         <v>3746</v>
       </c>
       <c r="WU2" t="s">
-        <v>4715</v>
+        <v>4713</v>
       </c>
       <c r="WX2" t="s">
         <v>3747</v>
@@ -38522,13 +38672,13 @@
         <v>3749</v>
       </c>
       <c r="XH2" t="s">
-        <v>4716</v>
+        <v>4714</v>
       </c>
       <c r="XI2" t="s">
         <v>3750</v>
       </c>
       <c r="XM2" t="s">
-        <v>4717</v>
+        <v>4715</v>
       </c>
       <c r="XN2" t="s">
         <v>3751</v>
@@ -38537,16 +38687,16 @@
         <v>3752</v>
       </c>
       <c r="XP2" t="s">
-        <v>4718</v>
+        <v>4716</v>
       </c>
       <c r="XQ2" t="s">
         <v>3754</v>
       </c>
       <c r="XR2" t="s">
-        <v>4719</v>
+        <v>4717</v>
       </c>
       <c r="XU2" t="s">
-        <v>4720</v>
+        <v>4718</v>
       </c>
       <c r="XV2" t="s">
         <v>3755</v>
@@ -38555,13 +38705,13 @@
         <v>3756</v>
       </c>
       <c r="XX2" t="s">
-        <v>4721</v>
+        <v>4719</v>
       </c>
       <c r="XZ2" t="s">
         <v>3757</v>
       </c>
       <c r="YA2" t="s">
-        <v>4722</v>
+        <v>4720</v>
       </c>
       <c r="YB2" t="s">
         <v>3758</v>
@@ -38573,22 +38723,22 @@
         <v>3760</v>
       </c>
       <c r="YF2" t="s">
+        <v>4721</v>
+      </c>
+      <c r="YG2" t="s">
+        <v>4722</v>
+      </c>
+      <c r="YJ2" t="s">
         <v>4723</v>
       </c>
-      <c r="YG2" t="s">
+      <c r="YK2" t="s">
         <v>4724</v>
-      </c>
-      <c r="YJ2" t="s">
-        <v>4725</v>
-      </c>
-      <c r="YK2" t="s">
-        <v>4726</v>
       </c>
       <c r="YM2" t="s">
         <v>3761</v>
       </c>
       <c r="YN2" t="s">
-        <v>4727</v>
+        <v>4725</v>
       </c>
       <c r="YO2" t="s">
         <v>3762</v>
@@ -38636,16 +38786,16 @@
         <v>3776</v>
       </c>
       <c r="ZH2" t="s">
-        <v>4728</v>
+        <v>4726</v>
       </c>
       <c r="ZI2" t="s">
-        <v>4729</v>
+        <v>4727</v>
       </c>
       <c r="ZJ2" t="s">
         <v>3777</v>
       </c>
       <c r="ZK2" t="s">
-        <v>4730</v>
+        <v>4728</v>
       </c>
       <c r="ZL2" t="s">
         <v>3778</v>
@@ -38654,7 +38804,7 @@
         <v>3779</v>
       </c>
       <c r="ZN2" t="s">
-        <v>4731</v>
+        <v>4729</v>
       </c>
       <c r="ZO2" t="s">
         <v>3780</v>
@@ -38681,19 +38831,19 @@
         <v>3787</v>
       </c>
       <c r="ZW2" t="s">
-        <v>4732</v>
+        <v>4730</v>
       </c>
       <c r="ZZ2" t="s">
-        <v>4733</v>
+        <v>4731</v>
       </c>
       <c r="AAA2" t="s">
         <v>3788</v>
       </c>
       <c r="AAB2" t="s">
-        <v>4734</v>
+        <v>4732</v>
       </c>
       <c r="AAE2" t="s">
-        <v>4735</v>
+        <v>4733</v>
       </c>
       <c r="AAR2" t="s">
         <v>3789</v>
@@ -38705,13 +38855,13 @@
         <v>3791</v>
       </c>
       <c r="AAV2" t="s">
-        <v>4736</v>
+        <v>4734</v>
       </c>
       <c r="AAW2" t="s">
         <v>3792</v>
       </c>
       <c r="AAY2" t="s">
-        <v>4737</v>
+        <v>4735</v>
       </c>
       <c r="AAZ2" t="s">
         <v>3793</v>
@@ -38756,7 +38906,7 @@
         <v>3806</v>
       </c>
       <c r="ABS2" t="s">
-        <v>4738</v>
+        <v>4736</v>
       </c>
       <c r="ACB2" t="s">
         <v>3807</v>
@@ -38771,16 +38921,16 @@
         <v>3810</v>
       </c>
       <c r="ACO2" t="s">
-        <v>4739</v>
+        <v>4737</v>
       </c>
       <c r="ACQ2" t="s">
         <v>3811</v>
       </c>
       <c r="ACS2" t="s">
-        <v>4740</v>
+        <v>4738</v>
       </c>
       <c r="ACT2" t="s">
-        <v>4741</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="3" spans="1:774" x14ac:dyDescent="0.25">
@@ -38806,28 +38956,28 @@
         <v>3819</v>
       </c>
       <c r="S3" t="s">
-        <v>4742</v>
+        <v>4740</v>
       </c>
       <c r="AC3" t="s">
-        <v>4743</v>
+        <v>4741</v>
       </c>
       <c r="AK3" t="s">
         <v>3820</v>
       </c>
       <c r="AL3" t="s">
-        <v>4744</v>
+        <v>4742</v>
       </c>
       <c r="AM3" t="s">
         <v>3821</v>
       </c>
       <c r="AN3" t="s">
+        <v>4743</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>4744</v>
+      </c>
+      <c r="AP3" t="s">
         <v>4745</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>4746</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>4747</v>
       </c>
       <c r="AQ3" t="s">
         <v>3822</v>
@@ -38848,37 +38998,37 @@
         <v>3827</v>
       </c>
       <c r="AW3" t="s">
+        <v>4746</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>4747</v>
+      </c>
+      <c r="AY3" t="s">
         <v>4748</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>4749</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>4750</v>
       </c>
       <c r="AZ3" t="s">
         <v>3828</v>
       </c>
       <c r="BB3" t="s">
+        <v>4749</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>4750</v>
+      </c>
+      <c r="BD3" t="s">
         <v>4751</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>4752</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>4753</v>
       </c>
       <c r="BE3" t="s">
         <v>3829</v>
       </c>
       <c r="BF3" t="s">
+        <v>4752</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>4753</v>
+      </c>
+      <c r="BH3" t="s">
         <v>4754</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>4755</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>4756</v>
       </c>
       <c r="BI3" t="s">
         <v>3830</v>
@@ -38890,19 +39040,19 @@
         <v>3832</v>
       </c>
       <c r="BL3" t="s">
+        <v>4755</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>4756</v>
+      </c>
+      <c r="BN3" t="s">
         <v>4757</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>4758</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>4759</v>
       </c>
       <c r="BO3" t="s">
         <v>3833</v>
       </c>
       <c r="BP3" t="s">
-        <v>4760</v>
+        <v>4758</v>
       </c>
       <c r="BQ3" t="s">
         <v>3834</v>
@@ -38920,7 +39070,7 @@
         <v>3838</v>
       </c>
       <c r="BZ3" t="s">
-        <v>4761</v>
+        <v>4759</v>
       </c>
       <c r="CA3" t="s">
         <v>3839</v>
@@ -38938,7 +39088,7 @@
         <v>3843</v>
       </c>
       <c r="CG3" t="s">
-        <v>4762</v>
+        <v>4760</v>
       </c>
       <c r="CH3" t="s">
         <v>3844</v>
@@ -38947,22 +39097,22 @@
         <v>3402</v>
       </c>
       <c r="CL3" t="s">
-        <v>4763</v>
+        <v>4761</v>
       </c>
       <c r="CN3" t="s">
         <v>3845</v>
       </c>
       <c r="CO3" t="s">
-        <v>4764</v>
+        <v>4762</v>
       </c>
       <c r="CU3" t="s">
-        <v>4765</v>
+        <v>4763</v>
       </c>
       <c r="CX3" t="s">
         <v>3846</v>
       </c>
       <c r="DJ3" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="DK3" t="s">
         <v>3848</v>
@@ -38971,28 +39121,28 @@
         <v>3849</v>
       </c>
       <c r="DN3" t="s">
-        <v>4530</v>
+        <v>4529</v>
       </c>
       <c r="DO3" t="s">
-        <v>4766</v>
+        <v>4764</v>
       </c>
       <c r="DP3" t="s">
-        <v>4767</v>
+        <v>4765</v>
       </c>
       <c r="DQ3" t="s">
         <v>3852</v>
       </c>
       <c r="DR3" t="s">
-        <v>4531</v>
+        <v>4530</v>
       </c>
       <c r="DS3" t="s">
         <v>4183</v>
       </c>
       <c r="DT3" t="s">
-        <v>4768</v>
+        <v>4766</v>
       </c>
       <c r="DW3" t="s">
-        <v>4769</v>
+        <v>4767</v>
       </c>
       <c r="DX3" t="s">
         <v>3855</v>
@@ -39001,13 +39151,13 @@
         <v>3856</v>
       </c>
       <c r="DZ3" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="EA3" t="s">
         <v>4218</v>
       </c>
       <c r="EB3" t="s">
-        <v>4770</v>
+        <v>4768</v>
       </c>
       <c r="EC3" t="s">
         <v>3858</v>
@@ -39040,13 +39190,13 @@
         <v>3867</v>
       </c>
       <c r="FN3" t="s">
-        <v>4771</v>
+        <v>4769</v>
       </c>
       <c r="FO3" t="s">
         <v>3868</v>
       </c>
       <c r="FP3" t="s">
-        <v>4772</v>
+        <v>4770</v>
       </c>
       <c r="FR3" t="s">
         <v>3869</v>
@@ -39067,7 +39217,7 @@
         <v>3874</v>
       </c>
       <c r="FY3" t="s">
-        <v>4773</v>
+        <v>4771</v>
       </c>
       <c r="FZ3" t="s">
         <v>3875</v>
@@ -39079,7 +39229,7 @@
         <v>3877</v>
       </c>
       <c r="GC3" t="s">
-        <v>4774</v>
+        <v>4772</v>
       </c>
       <c r="GD3" t="s">
         <v>3878</v>
@@ -39127,7 +39277,7 @@
         <v>3892</v>
       </c>
       <c r="HA3" t="s">
-        <v>4775</v>
+        <v>4773</v>
       </c>
       <c r="HB3" t="s">
         <v>3893</v>
@@ -39154,7 +39304,7 @@
         <v>3900</v>
       </c>
       <c r="HR3" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="HS3" t="s">
         <v>3506</v>
@@ -39163,16 +39313,16 @@
         <v>3901</v>
       </c>
       <c r="HV3" t="s">
-        <v>4777</v>
+        <v>4775</v>
       </c>
       <c r="HX3" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="HY3" t="s">
         <v>3902</v>
       </c>
       <c r="HZ3" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="IB3" t="s">
         <v>3903</v>
@@ -39181,7 +39331,7 @@
         <v>3904</v>
       </c>
       <c r="IE3" t="s">
-        <v>4780</v>
+        <v>4778</v>
       </c>
       <c r="II3" t="s">
         <v>3905</v>
@@ -39226,7 +39376,7 @@
         <v>3918</v>
       </c>
       <c r="JP3" t="s">
-        <v>4574</v>
+        <v>4573</v>
       </c>
       <c r="JQ3" t="s">
         <v>3919</v>
@@ -39238,22 +39388,22 @@
         <v>3921</v>
       </c>
       <c r="JT3" t="s">
-        <v>4781</v>
+        <v>4779</v>
       </c>
       <c r="JU3" t="s">
-        <v>4570</v>
+        <v>4569</v>
       </c>
       <c r="JV3" t="s">
+        <v>4620</v>
+      </c>
+      <c r="JW3" t="s">
+        <v>4619</v>
+      </c>
+      <c r="JX3" t="s">
         <v>4621</v>
       </c>
-      <c r="JW3" t="s">
-        <v>4620</v>
-      </c>
-      <c r="JX3" t="s">
+      <c r="JZ3" t="s">
         <v>4622</v>
-      </c>
-      <c r="JZ3" t="s">
-        <v>4623</v>
       </c>
       <c r="KA3" t="s">
         <v>3922</v>
@@ -39283,7 +39433,7 @@
         <v>3930</v>
       </c>
       <c r="LT3" t="s">
-        <v>4782</v>
+        <v>4780</v>
       </c>
       <c r="MJ3" t="s">
         <v>3931</v>
@@ -39340,7 +39490,7 @@
         <v>3620</v>
       </c>
       <c r="PP3" t="s">
-        <v>4783</v>
+        <v>4781</v>
       </c>
       <c r="PU3" t="s">
         <v>3948</v>
@@ -39370,31 +39520,31 @@
         <v>3956</v>
       </c>
       <c r="SA3" t="s">
-        <v>4784</v>
+        <v>4782</v>
       </c>
       <c r="SB3" t="s">
         <v>3957</v>
       </c>
       <c r="SC3" t="s">
-        <v>4785</v>
+        <v>4783</v>
       </c>
       <c r="SL3" t="s">
         <v>3958</v>
       </c>
       <c r="SM3" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="SN3" t="s">
         <v>3959</v>
       </c>
       <c r="SO3" t="s">
+        <v>4785</v>
+      </c>
+      <c r="SP3" t="s">
+        <v>4786</v>
+      </c>
+      <c r="SQ3" t="s">
         <v>4787</v>
-      </c>
-      <c r="SP3" t="s">
-        <v>4788</v>
-      </c>
-      <c r="SQ3" t="s">
-        <v>4789</v>
       </c>
       <c r="SS3" t="s">
         <v>3960</v>
@@ -39409,7 +39559,7 @@
         <v>3963</v>
       </c>
       <c r="SX3" t="s">
-        <v>4790</v>
+        <v>4788</v>
       </c>
       <c r="SY3" t="s">
         <v>3964</v>
@@ -39421,16 +39571,16 @@
         <v>3966</v>
       </c>
       <c r="TB3" t="s">
-        <v>4791</v>
+        <v>4789</v>
       </c>
       <c r="TC3" t="s">
         <v>3967</v>
       </c>
       <c r="TD3" t="s">
-        <v>4792</v>
+        <v>4790</v>
       </c>
       <c r="TE3" t="s">
-        <v>4793</v>
+        <v>4791</v>
       </c>
       <c r="TF3" t="s">
         <v>3968</v>
@@ -39445,7 +39595,7 @@
         <v>3971</v>
       </c>
       <c r="TJ3" t="s">
-        <v>4794</v>
+        <v>4792</v>
       </c>
       <c r="TK3" t="s">
         <v>3972</v>
@@ -39466,49 +39616,49 @@
         <v>3977</v>
       </c>
       <c r="TR3" t="s">
-        <v>4795</v>
+        <v>4793</v>
       </c>
       <c r="TU3" t="s">
         <v>3978</v>
       </c>
       <c r="TV3" t="s">
-        <v>4796</v>
+        <v>4794</v>
       </c>
       <c r="TW3" t="s">
-        <v>4797</v>
+        <v>4795</v>
       </c>
       <c r="TX3" t="s">
         <v>3979</v>
       </c>
       <c r="UD3" t="s">
+        <v>4796</v>
+      </c>
+      <c r="UF3" t="s">
+        <v>4797</v>
+      </c>
+      <c r="UI3" t="s">
         <v>4798</v>
       </c>
-      <c r="UF3" t="s">
+      <c r="UJ3" t="s">
         <v>4799</v>
       </c>
-      <c r="UI3" t="s">
+      <c r="UL3" t="s">
         <v>4800</v>
       </c>
-      <c r="UJ3" t="s">
+      <c r="UM3" t="s">
         <v>4801</v>
       </c>
-      <c r="UL3" t="s">
+      <c r="UN3" t="s">
         <v>4802</v>
       </c>
-      <c r="UM3" t="s">
+      <c r="UO3" t="s">
         <v>4803</v>
       </c>
-      <c r="UN3" t="s">
+      <c r="UP3" t="s">
         <v>4804</v>
       </c>
-      <c r="UO3" t="s">
+      <c r="UQ3" t="s">
         <v>4805</v>
-      </c>
-      <c r="UP3" t="s">
-        <v>4806</v>
-      </c>
-      <c r="UQ3" t="s">
-        <v>4807</v>
       </c>
       <c r="US3" t="s">
         <v>3980</v>
@@ -39520,7 +39670,7 @@
         <v>3982</v>
       </c>
       <c r="VB3" t="s">
-        <v>4808</v>
+        <v>4806</v>
       </c>
       <c r="VC3" t="s">
         <v>3983</v>
@@ -39529,7 +39679,7 @@
         <v>3984</v>
       </c>
       <c r="VJ3" t="s">
-        <v>4809</v>
+        <v>4807</v>
       </c>
       <c r="VK3" t="s">
         <v>3985</v>
@@ -39562,55 +39712,55 @@
         <v>3994</v>
       </c>
       <c r="WC3" t="s">
-        <v>4810</v>
+        <v>4808</v>
       </c>
       <c r="WN3" t="s">
         <v>3996</v>
       </c>
       <c r="WT3" t="s">
-        <v>4811</v>
+        <v>4809</v>
       </c>
       <c r="WX3" t="s">
-        <v>4812</v>
+        <v>4810</v>
       </c>
       <c r="XG3" t="s">
         <v>3997</v>
       </c>
       <c r="XM3" t="s">
-        <v>4813</v>
+        <v>4811</v>
       </c>
       <c r="XN3" t="s">
         <v>3998</v>
       </c>
       <c r="XO3" t="s">
+        <v>4812</v>
+      </c>
+      <c r="XP3" t="s">
+        <v>4813</v>
+      </c>
+      <c r="XQ3" t="s">
         <v>4814</v>
-      </c>
-      <c r="XP3" t="s">
-        <v>4815</v>
-      </c>
-      <c r="XQ3" t="s">
-        <v>4816</v>
       </c>
       <c r="XW3" t="s">
         <v>4000</v>
       </c>
       <c r="XX3" t="s">
+        <v>4815</v>
+      </c>
+      <c r="YA3" t="s">
+        <v>4816</v>
+      </c>
+      <c r="YB3" t="s">
         <v>4817</v>
       </c>
-      <c r="YA3" t="s">
+      <c r="YG3" t="s">
         <v>4818</v>
-      </c>
-      <c r="YB3" t="s">
-        <v>4819</v>
-      </c>
-      <c r="YG3" t="s">
-        <v>4820</v>
       </c>
       <c r="YP3" t="s">
         <v>4001</v>
       </c>
       <c r="YR3" t="s">
-        <v>4821</v>
+        <v>4819</v>
       </c>
       <c r="YS3" t="s">
         <v>4002</v>
@@ -39628,40 +39778,40 @@
         <v>4006</v>
       </c>
       <c r="ZD3" t="s">
+        <v>4820</v>
+      </c>
+      <c r="ZG3" t="s">
+        <v>4821</v>
+      </c>
+      <c r="ZH3" t="s">
         <v>4822</v>
       </c>
-      <c r="ZG3" t="s">
+      <c r="ZK3" t="s">
         <v>4823</v>
       </c>
-      <c r="ZH3" t="s">
+      <c r="ZL3" t="s">
         <v>4824</v>
       </c>
-      <c r="ZK3" t="s">
+      <c r="ZM3" t="s">
         <v>4825</v>
       </c>
-      <c r="ZL3" t="s">
+      <c r="ZN3" t="s">
         <v>4826</v>
       </c>
-      <c r="ZM3" t="s">
+      <c r="ZO3" t="s">
         <v>4827</v>
       </c>
-      <c r="ZN3" t="s">
+      <c r="ZP3" t="s">
         <v>4828</v>
       </c>
-      <c r="ZO3" t="s">
+      <c r="ZQ3" t="s">
         <v>4829</v>
       </c>
-      <c r="ZP3" t="s">
+      <c r="ZR3" t="s">
         <v>4830</v>
       </c>
-      <c r="ZQ3" t="s">
+      <c r="ZS3" t="s">
         <v>4831</v>
-      </c>
-      <c r="ZR3" t="s">
-        <v>4832</v>
-      </c>
-      <c r="ZS3" t="s">
-        <v>4833</v>
       </c>
       <c r="ZT3" t="s">
         <v>4007</v>
@@ -39670,19 +39820,19 @@
         <v>4008</v>
       </c>
       <c r="ZV3" t="s">
+        <v>4832</v>
+      </c>
+      <c r="ZW3" t="s">
+        <v>4833</v>
+      </c>
+      <c r="ZZ3" t="s">
         <v>4834</v>
       </c>
-      <c r="ZW3" t="s">
+      <c r="AAA3" t="s">
         <v>4835</v>
       </c>
-      <c r="ZZ3" t="s">
+      <c r="AAB3" t="s">
         <v>4836</v>
-      </c>
-      <c r="AAA3" t="s">
-        <v>4837</v>
-      </c>
-      <c r="AAB3" t="s">
-        <v>4838</v>
       </c>
       <c r="AAR3" t="s">
         <v>4009</v>
@@ -39723,79 +39873,79 @@
         <v>4020</v>
       </c>
       <c r="AK4" t="s">
-        <v>4839</v>
+        <v>4837</v>
       </c>
       <c r="AL4" t="s">
-        <v>4840</v>
+        <v>4838</v>
       </c>
       <c r="AM4" t="s">
         <v>4021</v>
       </c>
       <c r="AO4" t="s">
+        <v>4839</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>4840</v>
+      </c>
+      <c r="AR4" t="s">
         <v>4841</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>4842</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>4843</v>
       </c>
       <c r="AS4" t="s">
         <v>4022</v>
       </c>
       <c r="AT4" t="s">
-        <v>4844</v>
+        <v>4842</v>
       </c>
       <c r="AV4" t="s">
         <v>4023</v>
       </c>
       <c r="AW4" t="s">
+        <v>4843</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>4844</v>
+      </c>
+      <c r="AY4" t="s">
         <v>4845</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>4846</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>4847</v>
       </c>
       <c r="AZ4" t="s">
         <v>4024</v>
       </c>
       <c r="BB4" t="s">
+        <v>4846</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>4847</v>
+      </c>
+      <c r="BE4" t="s">
         <v>4848</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BF4" t="s">
         <v>4849</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BG4" t="s">
         <v>4850</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BH4" t="s">
         <v>4851</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BI4" t="s">
         <v>4852</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BJ4" t="s">
         <v>4853</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BK4" t="s">
         <v>4854</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BL4" t="s">
         <v>4855</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>4856</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>4857</v>
       </c>
       <c r="BO4" t="s">
         <v>4025</v>
       </c>
       <c r="BP4" t="s">
-        <v>4858</v>
+        <v>4856</v>
       </c>
       <c r="BQ4" t="s">
         <v>4026</v>
@@ -39813,16 +39963,16 @@
         <v>4030</v>
       </c>
       <c r="CB4" t="s">
+        <v>4857</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>4858</v>
+      </c>
+      <c r="CE4" t="s">
         <v>4859</v>
       </c>
-      <c r="CC4" t="s">
+      <c r="CG4" t="s">
         <v>4860</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>4861</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>4862</v>
       </c>
       <c r="CH4" t="s">
         <v>4104</v>
@@ -39834,7 +39984,7 @@
         <v>4032</v>
       </c>
       <c r="DJ4" t="s">
-        <v>4533</v>
+        <v>4532</v>
       </c>
       <c r="DK4" t="s">
         <v>4033</v>
@@ -39843,37 +39993,37 @@
         <v>4034</v>
       </c>
       <c r="DN4" t="s">
-        <v>4534</v>
+        <v>4533</v>
       </c>
       <c r="DO4" t="s">
-        <v>4863</v>
+        <v>4861</v>
       </c>
       <c r="DP4" t="s">
-        <v>4864</v>
+        <v>4862</v>
       </c>
       <c r="DQ4" t="s">
         <v>4036</v>
       </c>
       <c r="DR4" t="s">
-        <v>4535</v>
+        <v>4534</v>
       </c>
       <c r="DS4" t="s">
         <v>4202</v>
       </c>
       <c r="DW4" t="s">
-        <v>4865</v>
+        <v>4863</v>
       </c>
       <c r="DY4" t="s">
         <v>4038</v>
       </c>
       <c r="DZ4" t="s">
-        <v>4532</v>
+        <v>4531</v>
       </c>
       <c r="EA4" t="s">
         <v>3432</v>
       </c>
       <c r="EB4" t="s">
-        <v>4866</v>
+        <v>4864</v>
       </c>
       <c r="EC4" t="s">
         <v>4040</v>
@@ -39885,16 +40035,16 @@
         <v>4042</v>
       </c>
       <c r="FN4" t="s">
-        <v>4867</v>
+        <v>4865</v>
       </c>
       <c r="FO4" t="s">
         <v>4043</v>
       </c>
       <c r="FP4" t="s">
-        <v>4868</v>
+        <v>4866</v>
       </c>
       <c r="FR4" t="s">
-        <v>4869</v>
+        <v>4867</v>
       </c>
       <c r="FT4" t="s">
         <v>4044</v>
@@ -39903,16 +40053,16 @@
         <v>4045</v>
       </c>
       <c r="FV4" t="s">
-        <v>4870</v>
+        <v>4868</v>
       </c>
       <c r="FW4" t="s">
         <v>4046</v>
       </c>
       <c r="FY4" t="s">
-        <v>4871</v>
+        <v>4869</v>
       </c>
       <c r="FZ4" t="s">
-        <v>4872</v>
+        <v>4870</v>
       </c>
       <c r="GA4" t="s">
         <v>4047</v>
@@ -39921,7 +40071,7 @@
         <v>4048</v>
       </c>
       <c r="GC4" t="s">
-        <v>4873</v>
+        <v>4871</v>
       </c>
       <c r="GD4" t="s">
         <v>4049</v>
@@ -39930,7 +40080,7 @@
         <v>4050</v>
       </c>
       <c r="GR4" t="s">
-        <v>4669</v>
+        <v>4667</v>
       </c>
       <c r="GS4" t="s">
         <v>4051</v>
@@ -39948,16 +40098,16 @@
         <v>4055</v>
       </c>
       <c r="HY4" t="s">
-        <v>4874</v>
+        <v>4872</v>
       </c>
       <c r="IB4" t="s">
-        <v>4875</v>
+        <v>4873</v>
       </c>
       <c r="IC4" t="s">
         <v>4056</v>
       </c>
       <c r="IE4" t="s">
-        <v>4876</v>
+        <v>4874</v>
       </c>
       <c r="II4" t="s">
         <v>4057</v>
@@ -39972,7 +40122,7 @@
         <v>4060</v>
       </c>
       <c r="JP4" t="s">
-        <v>4877</v>
+        <v>4875</v>
       </c>
       <c r="JQ4" t="s">
         <v>4061</v>
@@ -39984,22 +40134,22 @@
         <v>4063</v>
       </c>
       <c r="JT4" t="s">
-        <v>4878</v>
+        <v>4876</v>
       </c>
       <c r="JU4" t="s">
-        <v>4879</v>
+        <v>4877</v>
       </c>
       <c r="KA4" t="s">
         <v>4064</v>
       </c>
       <c r="KG4" t="s">
-        <v>4670</v>
+        <v>4668</v>
       </c>
       <c r="LK4" t="s">
-        <v>4880</v>
+        <v>4878</v>
       </c>
       <c r="LT4" t="s">
-        <v>4881</v>
+        <v>4879</v>
       </c>
       <c r="MJ4" t="s">
         <v>4065</v>
@@ -40014,13 +40164,13 @@
         <v>4068</v>
       </c>
       <c r="MU4" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
       <c r="NE4" t="s">
         <v>4069</v>
       </c>
       <c r="NK4" t="s">
-        <v>4882</v>
+        <v>4880</v>
       </c>
       <c r="OL4" t="s">
         <v>4070</v>
@@ -40029,7 +40179,7 @@
         <v>4071</v>
       </c>
       <c r="PE4" t="s">
-        <v>4883</v>
+        <v>4881</v>
       </c>
       <c r="PW4" t="s">
         <v>4072</v>
@@ -40038,28 +40188,28 @@
         <v>4073</v>
       </c>
       <c r="SA4" t="s">
-        <v>4884</v>
+        <v>4882</v>
       </c>
       <c r="SB4" t="s">
         <v>4074</v>
       </c>
       <c r="SC4" t="s">
-        <v>4885</v>
+        <v>4883</v>
       </c>
       <c r="SL4" t="s">
         <v>4075</v>
       </c>
       <c r="SM4" t="s">
-        <v>4886</v>
+        <v>4884</v>
       </c>
       <c r="SN4" t="s">
         <v>4076</v>
       </c>
       <c r="SP4" t="s">
-        <v>4887</v>
+        <v>4885</v>
       </c>
       <c r="SQ4" t="s">
-        <v>4888</v>
+        <v>4886</v>
       </c>
       <c r="SS4" t="s">
         <v>4077</v>
@@ -40068,10 +40218,10 @@
         <v>4078</v>
       </c>
       <c r="SV4" t="s">
-        <v>4889</v>
+        <v>4887</v>
       </c>
       <c r="SX4" t="s">
-        <v>4890</v>
+        <v>4888</v>
       </c>
       <c r="SY4" t="s">
         <v>4079</v>
@@ -40083,25 +40233,25 @@
         <v>4081</v>
       </c>
       <c r="TB4" t="s">
-        <v>4891</v>
+        <v>4889</v>
       </c>
       <c r="TC4" t="s">
         <v>4082</v>
       </c>
       <c r="TD4" t="s">
-        <v>4892</v>
+        <v>4890</v>
       </c>
       <c r="TE4" t="s">
-        <v>4893</v>
+        <v>4891</v>
       </c>
       <c r="TF4" t="s">
         <v>4083</v>
       </c>
       <c r="TG4" t="s">
-        <v>4894</v>
+        <v>4892</v>
       </c>
       <c r="TH4" t="s">
-        <v>4895</v>
+        <v>4893</v>
       </c>
       <c r="TI4" t="s">
         <v>4084</v>
@@ -40119,40 +40269,40 @@
         <v>4088</v>
       </c>
       <c r="TO4" t="s">
+        <v>4894</v>
+      </c>
+      <c r="TP4" t="s">
+        <v>4895</v>
+      </c>
+      <c r="TU4" t="s">
         <v>4896</v>
       </c>
-      <c r="TP4" t="s">
+      <c r="TV4" t="s">
         <v>4897</v>
       </c>
-      <c r="TU4" t="s">
+      <c r="TX4" t="s">
         <v>4898</v>
       </c>
-      <c r="TV4" t="s">
+      <c r="UD4" t="s">
         <v>4899</v>
       </c>
-      <c r="TX4" t="s">
+      <c r="UL4" t="s">
         <v>4900</v>
       </c>
-      <c r="UD4" t="s">
+      <c r="UO4" t="s">
         <v>4901</v>
       </c>
-      <c r="UL4" t="s">
+      <c r="UQ4" t="s">
         <v>4902</v>
-      </c>
-      <c r="UO4" t="s">
-        <v>4903</v>
-      </c>
-      <c r="UQ4" t="s">
-        <v>4904</v>
       </c>
       <c r="UV4" t="s">
         <v>4089</v>
       </c>
       <c r="UX4" t="s">
-        <v>4905</v>
+        <v>4903</v>
       </c>
       <c r="VK4" t="s">
-        <v>4906</v>
+        <v>4904</v>
       </c>
       <c r="VO4" t="s">
         <v>4090</v>
@@ -40167,25 +40317,25 @@
         <v>4093</v>
       </c>
       <c r="WC4" t="s">
+        <v>4905</v>
+      </c>
+      <c r="XM4" t="s">
+        <v>4906</v>
+      </c>
+      <c r="XN4" t="s">
         <v>4907</v>
       </c>
-      <c r="XM4" t="s">
+      <c r="XO4" t="s">
         <v>4908</v>
       </c>
-      <c r="XN4" t="s">
+      <c r="XP4" t="s">
         <v>4909</v>
       </c>
-      <c r="XO4" t="s">
+      <c r="XQ4" t="s">
         <v>4910</v>
       </c>
-      <c r="XP4" t="s">
+      <c r="YB4" t="s">
         <v>4911</v>
-      </c>
-      <c r="XQ4" t="s">
-        <v>4912</v>
-      </c>
-      <c r="YB4" t="s">
-        <v>4913</v>
       </c>
       <c r="YS4" t="s">
         <v>4096</v>
@@ -40197,49 +40347,49 @@
         <v>4098</v>
       </c>
       <c r="ZA4" t="s">
+        <v>4912</v>
+      </c>
+      <c r="ZG4" t="s">
+        <v>4913</v>
+      </c>
+      <c r="ZL4" t="s">
         <v>4914</v>
       </c>
-      <c r="ZG4" t="s">
+      <c r="ZN4" t="s">
         <v>4915</v>
       </c>
-      <c r="ZL4" t="s">
+      <c r="ZO4" t="s">
         <v>4916</v>
       </c>
-      <c r="ZN4" t="s">
+      <c r="ZQ4" t="s">
         <v>4917</v>
       </c>
-      <c r="ZO4" t="s">
+      <c r="ZR4" t="s">
         <v>4918</v>
       </c>
-      <c r="ZQ4" t="s">
+      <c r="ZS4" t="s">
         <v>4919</v>
       </c>
-      <c r="ZR4" t="s">
+      <c r="ZT4" t="s">
         <v>4920</v>
       </c>
-      <c r="ZS4" t="s">
+      <c r="ZU4" t="s">
         <v>4921</v>
       </c>
-      <c r="ZT4" t="s">
+      <c r="ZV4" t="s">
         <v>4922</v>
       </c>
-      <c r="ZU4" t="s">
+      <c r="ZW4" t="s">
         <v>4923</v>
       </c>
-      <c r="ZV4" t="s">
+      <c r="ZZ4" t="s">
         <v>4924</v>
       </c>
-      <c r="ZW4" t="s">
+      <c r="AAA4" t="s">
         <v>4925</v>
       </c>
-      <c r="ZZ4" t="s">
+      <c r="AAB4" t="s">
         <v>4926</v>
-      </c>
-      <c r="AAA4" t="s">
-        <v>4927</v>
-      </c>
-      <c r="AAB4" t="s">
-        <v>4928</v>
       </c>
       <c r="ABF4" t="s">
         <v>4099</v>
@@ -40248,7 +40398,7 @@
         <v>4100</v>
       </c>
       <c r="ACM4" t="s">
-        <v>4929</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="5" spans="1:774" x14ac:dyDescent="0.25">
@@ -40256,91 +40406,91 @@
         <v>4102</v>
       </c>
       <c r="AM5" t="s">
+        <v>4928</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>4929</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>4930</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AR5" t="s">
         <v>4931</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AS5" t="s">
         <v>4932</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AT5" t="s">
         <v>4933</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AV5" t="s">
         <v>4934</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AW5" t="s">
         <v>4935</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AX5" t="s">
         <v>4936</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AZ5" t="s">
         <v>4937</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="BB5" t="s">
         <v>4938</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BC5" t="s">
         <v>4939</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BE5" t="s">
         <v>4940</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BF5" t="s">
         <v>4941</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BH5" t="s">
         <v>4942</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BI5" t="s">
         <v>4943</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BJ5" t="s">
         <v>4944</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BK5" t="s">
         <v>4945</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BL5" t="s">
         <v>4946</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BO5" t="s">
         <v>4947</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BP5" t="s">
         <v>4948</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BQ5" t="s">
         <v>4949</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BR5" t="s">
         <v>4950</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BW5" t="s">
         <v>4951</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>4952</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>4953</v>
       </c>
       <c r="CA5" t="s">
         <v>4103</v>
       </c>
       <c r="CB5" t="s">
+        <v>4952</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>4953</v>
+      </c>
+      <c r="CE5" t="s">
         <v>4954</v>
       </c>
-      <c r="CC5" t="s">
+      <c r="CG5" t="s">
         <v>4955</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>4956</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>4957</v>
       </c>
       <c r="CH5" t="s">
         <v>4150</v>
@@ -40352,46 +40502,46 @@
         <v>4106</v>
       </c>
       <c r="DJ5" t="s">
-        <v>4537</v>
+        <v>4536</v>
       </c>
       <c r="DK5" t="s">
         <v>4107</v>
       </c>
       <c r="DM5" t="s">
+        <v>4956</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>4537</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>4957</v>
+      </c>
+      <c r="DP5" t="s">
         <v>4958</v>
-      </c>
-      <c r="DN5" t="s">
-        <v>4538</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>4959</v>
-      </c>
-      <c r="DP5" t="s">
-        <v>4960</v>
       </c>
       <c r="DQ5" t="s">
         <v>4108</v>
       </c>
       <c r="DR5" t="s">
-        <v>4539</v>
+        <v>4538</v>
       </c>
       <c r="DS5" t="s">
         <v>4250</v>
       </c>
       <c r="DW5" t="s">
-        <v>4961</v>
+        <v>4959</v>
       </c>
       <c r="DY5" t="s">
         <v>4110</v>
       </c>
       <c r="DZ5" t="s">
-        <v>4536</v>
+        <v>4535</v>
       </c>
       <c r="EA5" t="s">
         <v>3857</v>
       </c>
       <c r="EB5" t="s">
-        <v>4962</v>
+        <v>4960</v>
       </c>
       <c r="EC5" t="s">
         <v>4112</v>
@@ -40400,13 +40550,13 @@
         <v>4113</v>
       </c>
       <c r="FN5" t="s">
+        <v>4961</v>
+      </c>
+      <c r="FO5" t="s">
+        <v>4962</v>
+      </c>
+      <c r="FR5" t="s">
         <v>4963</v>
-      </c>
-      <c r="FO5" t="s">
-        <v>4964</v>
-      </c>
-      <c r="FR5" t="s">
-        <v>4965</v>
       </c>
       <c r="FT5" t="s">
         <v>4114</v>
@@ -40415,10 +40565,10 @@
         <v>4115</v>
       </c>
       <c r="FW5" t="s">
-        <v>4966</v>
+        <v>4964</v>
       </c>
       <c r="FY5" t="s">
-        <v>4967</v>
+        <v>4965</v>
       </c>
       <c r="GA5" t="s">
         <v>4116</v>
@@ -40427,10 +40577,10 @@
         <v>4117</v>
       </c>
       <c r="GC5" t="s">
-        <v>4968</v>
+        <v>4966</v>
       </c>
       <c r="GD5" t="s">
-        <v>4969</v>
+        <v>4967</v>
       </c>
       <c r="GI5" t="s">
         <v>4118</v>
@@ -40460,7 +40610,7 @@
         <v>4126</v>
       </c>
       <c r="JT5" t="s">
-        <v>4970</v>
+        <v>4968</v>
       </c>
       <c r="KA5" t="s">
         <v>4127</v>
@@ -40487,19 +40637,19 @@
         <v>4134</v>
       </c>
       <c r="SA5" t="s">
+        <v>4969</v>
+      </c>
+      <c r="SB5" t="s">
+        <v>4970</v>
+      </c>
+      <c r="SC5" t="s">
         <v>4971</v>
       </c>
-      <c r="SB5" t="s">
+      <c r="SL5" t="s">
         <v>4972</v>
       </c>
-      <c r="SC5" t="s">
+      <c r="SM5" t="s">
         <v>4973</v>
-      </c>
-      <c r="SL5" t="s">
-        <v>4974</v>
-      </c>
-      <c r="SM5" t="s">
-        <v>4975</v>
       </c>
       <c r="SN5" t="s">
         <v>4135</v>
@@ -40508,37 +40658,37 @@
         <v>3676</v>
       </c>
       <c r="SQ5" t="s">
-        <v>4976</v>
+        <v>4974</v>
       </c>
       <c r="SS5" t="s">
-        <v>4977</v>
+        <v>4975</v>
       </c>
       <c r="SU5" t="s">
         <v>4136</v>
       </c>
       <c r="SV5" t="s">
-        <v>4978</v>
+        <v>4976</v>
       </c>
       <c r="SX5" t="s">
-        <v>4979</v>
+        <v>4977</v>
       </c>
       <c r="SY5" t="s">
         <v>4137</v>
       </c>
       <c r="SZ5" t="s">
+        <v>4978</v>
+      </c>
+      <c r="TA5" t="s">
+        <v>4979</v>
+      </c>
+      <c r="TB5" t="s">
         <v>4980</v>
       </c>
-      <c r="TA5" t="s">
+      <c r="TD5" t="s">
         <v>4981</v>
       </c>
-      <c r="TB5" t="s">
+      <c r="TE5" t="s">
         <v>4982</v>
-      </c>
-      <c r="TD5" t="s">
-        <v>4983</v>
-      </c>
-      <c r="TE5" t="s">
-        <v>4984</v>
       </c>
       <c r="TF5" t="s">
         <v>4138</v>
@@ -40559,67 +40709,67 @@
         <v>4143</v>
       </c>
       <c r="TU5" t="s">
+        <v>4983</v>
+      </c>
+      <c r="TX5" t="s">
+        <v>4984</v>
+      </c>
+      <c r="UO5" t="s">
         <v>4985</v>
-      </c>
-      <c r="TX5" t="s">
-        <v>4986</v>
-      </c>
-      <c r="UO5" t="s">
-        <v>4987</v>
       </c>
       <c r="VQ5" t="s">
         <v>4177</v>
       </c>
       <c r="XN5" t="s">
+        <v>4986</v>
+      </c>
+      <c r="XP5" t="s">
+        <v>4987</v>
+      </c>
+      <c r="XQ5" t="s">
         <v>4988</v>
-      </c>
-      <c r="XP5" t="s">
-        <v>4989</v>
-      </c>
-      <c r="XQ5" t="s">
-        <v>4990</v>
       </c>
       <c r="YS5" t="s">
         <v>4145</v>
       </c>
       <c r="YT5" t="s">
+        <v>4989</v>
+      </c>
+      <c r="ZG5" t="s">
+        <v>4990</v>
+      </c>
+      <c r="ZL5" t="s">
         <v>4991</v>
       </c>
-      <c r="ZG5" t="s">
+      <c r="ZN5" t="s">
         <v>4992</v>
       </c>
-      <c r="ZL5" t="s">
+      <c r="ZO5" t="s">
         <v>4993</v>
       </c>
-      <c r="ZN5" t="s">
+      <c r="ZR5" t="s">
         <v>4994</v>
       </c>
-      <c r="ZO5" t="s">
+      <c r="ZS5" t="s">
         <v>4995</v>
       </c>
-      <c r="ZR5" t="s">
+      <c r="ZT5" t="s">
         <v>4996</v>
       </c>
-      <c r="ZS5" t="s">
+      <c r="ZU5" t="s">
         <v>4997</v>
       </c>
-      <c r="ZT5" t="s">
+      <c r="ZW5" t="s">
         <v>4998</v>
       </c>
-      <c r="ZU5" t="s">
+      <c r="ZZ5" t="s">
         <v>4999</v>
       </c>
-      <c r="ZW5" t="s">
+      <c r="AAA5" t="s">
         <v>5000</v>
       </c>
-      <c r="ZZ5" t="s">
+      <c r="AAB5" t="s">
         <v>5001</v>
-      </c>
-      <c r="AAA5" t="s">
-        <v>5002</v>
-      </c>
-      <c r="AAB5" t="s">
-        <v>5003</v>
       </c>
       <c r="ABF5" t="s">
         <v>4146</v>
@@ -40628,7 +40778,7 @@
         <v>4147</v>
       </c>
       <c r="ACM5" t="s">
-        <v>5004</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="6" spans="1:774" x14ac:dyDescent="0.25">
@@ -40636,82 +40786,82 @@
         <v>4149</v>
       </c>
       <c r="AM6" t="s">
+        <v>5003</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>5004</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>5005</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AS6" t="s">
         <v>5006</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AT6" t="s">
         <v>5007</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AV6" t="s">
         <v>5008</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AW6" t="s">
         <v>5009</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AX6" t="s">
         <v>5010</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AZ6" t="s">
         <v>5011</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="BC6" t="s">
         <v>5012</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BF6" t="s">
         <v>5013</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BH6" t="s">
         <v>5014</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BI6" t="s">
         <v>5015</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BJ6" t="s">
         <v>5016</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BK6" t="s">
         <v>5017</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BL6" t="s">
         <v>5018</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BO6" t="s">
         <v>5019</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BP6" t="s">
         <v>5020</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="BQ6" t="s">
         <v>5021</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BR6" t="s">
         <v>5022</v>
       </c>
-      <c r="BQ6" t="s">
+      <c r="BW6" t="s">
         <v>5023</v>
       </c>
-      <c r="BR6" t="s">
+      <c r="CA6" t="s">
         <v>5024</v>
       </c>
-      <c r="BW6" t="s">
+      <c r="CB6" t="s">
         <v>5025</v>
       </c>
-      <c r="CA6" t="s">
+      <c r="CE6" t="s">
         <v>5026</v>
       </c>
-      <c r="CB6" t="s">
+      <c r="CG6" t="s">
         <v>5027</v>
       </c>
-      <c r="CE6" t="s">
+      <c r="CI6" t="s">
         <v>5028</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>5029</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>5030</v>
       </c>
       <c r="CN6" t="s">
         <v>4151</v>
@@ -40726,16 +40876,16 @@
         <v>3419</v>
       </c>
       <c r="DO6" t="s">
-        <v>5031</v>
+        <v>5029</v>
       </c>
       <c r="DP6" t="s">
-        <v>5032</v>
+        <v>5030</v>
       </c>
       <c r="DQ6" t="s">
         <v>4153</v>
       </c>
       <c r="DR6" t="s">
-        <v>4543</v>
+        <v>4542</v>
       </c>
       <c r="DS6" t="s">
         <v>4273</v>
@@ -40744,43 +40894,43 @@
         <v>4155</v>
       </c>
       <c r="DZ6" t="s">
-        <v>4540</v>
+        <v>4539</v>
       </c>
       <c r="EA6" t="s">
         <v>4039</v>
       </c>
       <c r="EB6" t="s">
-        <v>5033</v>
+        <v>5031</v>
       </c>
       <c r="EC6" t="s">
         <v>4157</v>
       </c>
       <c r="FL6" t="s">
+        <v>5032</v>
+      </c>
+      <c r="FN6" t="s">
+        <v>5033</v>
+      </c>
+      <c r="FO6" t="s">
         <v>5034</v>
       </c>
-      <c r="FN6" t="s">
+      <c r="FT6" t="s">
         <v>5035</v>
-      </c>
-      <c r="FO6" t="s">
-        <v>5036</v>
-      </c>
-      <c r="FT6" t="s">
-        <v>5037</v>
       </c>
       <c r="FU6" t="s">
         <v>4158</v>
       </c>
       <c r="FW6" t="s">
+        <v>5036</v>
+      </c>
+      <c r="FY6" t="s">
+        <v>5037</v>
+      </c>
+      <c r="GA6" t="s">
         <v>5038</v>
       </c>
-      <c r="FY6" t="s">
+      <c r="GB6" t="s">
         <v>5039</v>
-      </c>
-      <c r="GA6" t="s">
-        <v>5040</v>
-      </c>
-      <c r="GB6" t="s">
-        <v>5041</v>
       </c>
       <c r="HD6" t="s">
         <v>4159</v>
@@ -40819,49 +40969,49 @@
         <v>4170</v>
       </c>
       <c r="SB6" t="s">
+        <v>5040</v>
+      </c>
+      <c r="SC6" t="s">
+        <v>5041</v>
+      </c>
+      <c r="SL6" t="s">
         <v>5042</v>
       </c>
-      <c r="SC6" t="s">
+      <c r="SM6" t="s">
         <v>5043</v>
-      </c>
-      <c r="SL6" t="s">
-        <v>5044</v>
-      </c>
-      <c r="SM6" t="s">
-        <v>5045</v>
       </c>
       <c r="SN6" t="s">
         <v>4171</v>
       </c>
       <c r="SP6" t="s">
+        <v>5044</v>
+      </c>
+      <c r="SQ6" t="s">
+        <v>5045</v>
+      </c>
+      <c r="SU6" t="s">
         <v>5046</v>
       </c>
-      <c r="SQ6" t="s">
+      <c r="SV6" t="s">
         <v>5047</v>
       </c>
-      <c r="SU6" t="s">
+      <c r="SY6" t="s">
         <v>5048</v>
       </c>
-      <c r="SV6" t="s">
+      <c r="SZ6" t="s">
         <v>5049</v>
       </c>
-      <c r="SY6" t="s">
+      <c r="TA6" t="s">
         <v>5050</v>
       </c>
-      <c r="SZ6" t="s">
+      <c r="TB6" t="s">
         <v>5051</v>
       </c>
-      <c r="TA6" t="s">
+      <c r="TD6" t="s">
         <v>5052</v>
       </c>
-      <c r="TB6" t="s">
+      <c r="TE6" t="s">
         <v>5053</v>
-      </c>
-      <c r="TD6" t="s">
-        <v>5054</v>
-      </c>
-      <c r="TE6" t="s">
-        <v>5055</v>
       </c>
       <c r="TF6" t="s">
         <v>4172</v>
@@ -40873,7 +41023,7 @@
         <v>4174</v>
       </c>
       <c r="TL6" t="s">
-        <v>4795</v>
+        <v>4793</v>
       </c>
       <c r="TM6" t="s">
         <v>4175</v>
@@ -40882,132 +41032,132 @@
         <v>4176</v>
       </c>
       <c r="TU6" t="s">
+        <v>5054</v>
+      </c>
+      <c r="TX6" t="s">
+        <v>5055</v>
+      </c>
+      <c r="UO6" t="s">
         <v>5056</v>
-      </c>
-      <c r="TX6" t="s">
-        <v>5057</v>
-      </c>
-      <c r="UO6" t="s">
-        <v>5058</v>
       </c>
       <c r="VQ6" t="s">
         <v>4197</v>
       </c>
       <c r="XN6" t="s">
-        <v>5059</v>
+        <v>5057</v>
       </c>
       <c r="XP6" t="s">
-        <v>5060</v>
+        <v>5058</v>
       </c>
       <c r="YS6" t="s">
         <v>4178</v>
       </c>
       <c r="YT6" t="s">
+        <v>5059</v>
+      </c>
+      <c r="ZG6" t="s">
+        <v>5060</v>
+      </c>
+      <c r="ZL6" t="s">
         <v>5061</v>
       </c>
-      <c r="ZG6" t="s">
+      <c r="ZN6" t="s">
         <v>5062</v>
       </c>
-      <c r="ZL6" t="s">
+      <c r="ZR6" t="s">
         <v>5063</v>
       </c>
-      <c r="ZN6" t="s">
+      <c r="ZS6" t="s">
         <v>5064</v>
       </c>
-      <c r="ZR6" t="s">
+      <c r="ZT6" t="s">
         <v>5065</v>
       </c>
-      <c r="ZS6" t="s">
+      <c r="ZU6" t="s">
         <v>5066</v>
       </c>
-      <c r="ZT6" t="s">
+      <c r="ZW6" t="s">
         <v>5067</v>
       </c>
-      <c r="ZU6" t="s">
+      <c r="ZZ6" t="s">
         <v>5068</v>
       </c>
-      <c r="ZW6" t="s">
+      <c r="AAA6" t="s">
         <v>5069</v>
-      </c>
-      <c r="ZZ6" t="s">
-        <v>5070</v>
-      </c>
-      <c r="AAA6" t="s">
-        <v>5071</v>
       </c>
       <c r="ABJ6" t="s">
         <v>4179</v>
       </c>
       <c r="ACM6" t="s">
-        <v>5072</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="7" spans="1:774" x14ac:dyDescent="0.25">
       <c r="AM7" t="s">
+        <v>5071</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>5072</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>5073</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AS7" t="s">
         <v>5074</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AT7" t="s">
         <v>5075</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AV7" t="s">
         <v>5076</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AX7" t="s">
         <v>5077</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AZ7" t="s">
         <v>5078</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="BF7" t="s">
         <v>5079</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BI7" t="s">
         <v>5080</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BJ7" t="s">
         <v>5081</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BK7" t="s">
         <v>5082</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BL7" t="s">
         <v>5083</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="BO7" t="s">
         <v>5084</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BP7" t="s">
         <v>5085</v>
       </c>
-      <c r="BO7" t="s">
+      <c r="BQ7" t="s">
         <v>5086</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BR7" t="s">
         <v>5087</v>
       </c>
-      <c r="BQ7" t="s">
+      <c r="CA7" t="s">
         <v>5088</v>
       </c>
-      <c r="BR7" t="s">
+      <c r="CB7" t="s">
         <v>5089</v>
       </c>
-      <c r="CA7" t="s">
+      <c r="CE7" t="s">
         <v>5090</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>5091</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>5092</v>
       </c>
       <c r="CN7" t="s">
         <v>4181</v>
       </c>
       <c r="DJ7" t="s">
-        <v>4541</v>
+        <v>4540</v>
       </c>
       <c r="DK7" t="s">
         <v>4182</v>
@@ -41019,58 +41169,58 @@
         <v>3420</v>
       </c>
       <c r="DP7" t="s">
+        <v>5091</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>5092</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>4546</v>
+      </c>
+      <c r="DS7" t="s">
         <v>5093</v>
-      </c>
-      <c r="DQ7" t="s">
-        <v>5094</v>
-      </c>
-      <c r="DR7" t="s">
-        <v>4547</v>
-      </c>
-      <c r="DS7" t="s">
-        <v>5095</v>
       </c>
       <c r="DY7" t="s">
         <v>4184</v>
       </c>
       <c r="DZ7" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
       <c r="EA7" t="s">
         <v>4111</v>
       </c>
       <c r="EB7" t="s">
+        <v>5094</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>5095</v>
+      </c>
+      <c r="FL7" t="s">
         <v>5096</v>
       </c>
-      <c r="EC7" t="s">
+      <c r="FN7" t="s">
         <v>5097</v>
       </c>
-      <c r="FL7" t="s">
+      <c r="FT7" t="s">
         <v>5098</v>
       </c>
-      <c r="FN7" t="s">
+      <c r="FU7" t="s">
         <v>5099</v>
       </c>
-      <c r="FT7" t="s">
+      <c r="FW7" t="s">
         <v>5100</v>
       </c>
-      <c r="FU7" t="s">
+      <c r="GA7" t="s">
         <v>5101</v>
       </c>
-      <c r="FW7" t="s">
+      <c r="GB7" t="s">
         <v>5102</v>
-      </c>
-      <c r="GA7" t="s">
-        <v>5103</v>
-      </c>
-      <c r="GB7" t="s">
-        <v>5104</v>
       </c>
       <c r="HD7" t="s">
         <v>4186</v>
       </c>
       <c r="II7" t="s">
-        <v>5105</v>
+        <v>5103</v>
       </c>
       <c r="JQ7" t="s">
         <v>4187</v>
@@ -41088,49 +41238,49 @@
         <v>4191</v>
       </c>
       <c r="OL7" t="s">
+        <v>5104</v>
+      </c>
+      <c r="SB7" t="s">
+        <v>5105</v>
+      </c>
+      <c r="SL7" t="s">
         <v>5106</v>
       </c>
-      <c r="SB7" t="s">
+      <c r="SM7" t="s">
         <v>5107</v>
       </c>
-      <c r="SL7" t="s">
+      <c r="SN7" t="s">
         <v>5108</v>
       </c>
-      <c r="SM7" t="s">
+      <c r="SP7" t="s">
         <v>5109</v>
       </c>
-      <c r="SN7" t="s">
+      <c r="SQ7" t="s">
         <v>5110</v>
       </c>
-      <c r="SP7" t="s">
+      <c r="SU7" t="s">
         <v>5111</v>
       </c>
-      <c r="SQ7" t="s">
+      <c r="SV7" t="s">
         <v>5112</v>
       </c>
-      <c r="SU7" t="s">
+      <c r="SY7" t="s">
         <v>5113</v>
       </c>
-      <c r="SV7" t="s">
+      <c r="SZ7" t="s">
         <v>5114</v>
       </c>
-      <c r="SY7" t="s">
+      <c r="TA7" t="s">
         <v>5115</v>
       </c>
-      <c r="SZ7" t="s">
+      <c r="TB7" t="s">
         <v>5116</v>
       </c>
-      <c r="TA7" t="s">
+      <c r="TD7" t="s">
         <v>5117</v>
       </c>
-      <c r="TB7" t="s">
+      <c r="TE7" t="s">
         <v>5118</v>
-      </c>
-      <c r="TD7" t="s">
-        <v>5119</v>
-      </c>
-      <c r="TE7" t="s">
-        <v>5120</v>
       </c>
       <c r="TF7" t="s">
         <v>4192</v>
@@ -41148,153 +41298,153 @@
         <v>4196</v>
       </c>
       <c r="TX7" t="s">
+        <v>5119</v>
+      </c>
+      <c r="UO7" t="s">
+        <v>5120</v>
+      </c>
+      <c r="VQ7" t="s">
         <v>5121</v>
       </c>
-      <c r="UO7" t="s">
+      <c r="XN7" t="s">
         <v>5122</v>
       </c>
-      <c r="VQ7" t="s">
+      <c r="XP7" t="s">
         <v>5123</v>
-      </c>
-      <c r="XN7" t="s">
-        <v>5124</v>
-      </c>
-      <c r="XP7" t="s">
-        <v>5125</v>
       </c>
       <c r="YS7" t="s">
         <v>4198</v>
       </c>
       <c r="YT7" t="s">
+        <v>5124</v>
+      </c>
+      <c r="ZN7" t="s">
+        <v>5125</v>
+      </c>
+      <c r="ZS7" t="s">
         <v>5126</v>
       </c>
-      <c r="ZN7" t="s">
+      <c r="ZT7" t="s">
         <v>5127</v>
       </c>
-      <c r="ZS7" t="s">
+      <c r="ZU7" t="s">
         <v>5128</v>
       </c>
-      <c r="ZT7" t="s">
+      <c r="ZW7" t="s">
         <v>5129</v>
       </c>
-      <c r="ZU7" t="s">
+      <c r="AAA7" t="s">
         <v>5130</v>
       </c>
-      <c r="ZW7" t="s">
+      <c r="ACM7" t="s">
         <v>5131</v>
-      </c>
-      <c r="AAA7" t="s">
-        <v>5132</v>
-      </c>
-      <c r="ACM7" t="s">
-        <v>5133</v>
       </c>
     </row>
     <row r="8" spans="1:774" x14ac:dyDescent="0.25">
       <c r="AM8" t="s">
+        <v>5132</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>5133</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>5134</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AS8" t="s">
         <v>5135</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AV8" t="s">
         <v>5136</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AZ8" t="s">
         <v>5137</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="BF8" t="s">
         <v>5138</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BI8" t="s">
         <v>5139</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BJ8" t="s">
         <v>5140</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BK8" t="s">
         <v>5141</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BL8" t="s">
         <v>5142</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BO8" t="s">
         <v>5143</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BP8" t="s">
         <v>5144</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="BQ8" t="s">
         <v>5145</v>
       </c>
-      <c r="BP8" t="s">
+      <c r="BR8" t="s">
         <v>5146</v>
       </c>
-      <c r="BQ8" t="s">
+      <c r="CE8" t="s">
         <v>5147</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>5148</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>5149</v>
       </c>
       <c r="CN8" t="s">
         <v>4200</v>
       </c>
       <c r="DJ8" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
       <c r="DK8" t="s">
         <v>4201</v>
       </c>
       <c r="DN8" t="s">
-        <v>4542</v>
+        <v>4541</v>
       </c>
       <c r="DO8" t="s">
-        <v>5150</v>
+        <v>5148</v>
       </c>
       <c r="DP8" t="s">
-        <v>5151</v>
+        <v>5149</v>
       </c>
       <c r="DR8" t="s">
-        <v>4551</v>
+        <v>4550</v>
       </c>
       <c r="DS8" t="s">
-        <v>4567</v>
+        <v>4566</v>
       </c>
       <c r="DY8" t="s">
         <v>4203</v>
       </c>
       <c r="DZ8" t="s">
-        <v>4606</v>
+        <v>4605</v>
       </c>
       <c r="EA8" t="s">
         <v>4156</v>
       </c>
       <c r="EB8" t="s">
+        <v>5150</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>5151</v>
+      </c>
+      <c r="FL8" t="s">
         <v>5152</v>
       </c>
-      <c r="EC8" t="s">
+      <c r="FN8" t="s">
         <v>5153</v>
       </c>
-      <c r="FL8" t="s">
+      <c r="FT8" t="s">
         <v>5154</v>
       </c>
-      <c r="FN8" t="s">
+      <c r="FU8" t="s">
         <v>5155</v>
       </c>
-      <c r="FT8" t="s">
+      <c r="FW8" t="s">
         <v>5156</v>
       </c>
-      <c r="FU8" t="s">
+      <c r="GA8" t="s">
         <v>5157</v>
-      </c>
-      <c r="FW8" t="s">
-        <v>5158</v>
-      </c>
-      <c r="GA8" t="s">
-        <v>5159</v>
       </c>
       <c r="JQ8" t="s">
         <v>4205</v>
@@ -41306,49 +41456,49 @@
         <v>4207</v>
       </c>
       <c r="MQ8" t="s">
-        <v>4624</v>
+        <v>4623</v>
       </c>
       <c r="MR8" t="s">
         <v>4208</v>
       </c>
       <c r="SB8" t="s">
+        <v>5158</v>
+      </c>
+      <c r="SL8" t="s">
+        <v>5159</v>
+      </c>
+      <c r="SM8" t="s">
         <v>5160</v>
       </c>
-      <c r="SL8" t="s">
+      <c r="SN8" t="s">
         <v>5161</v>
       </c>
-      <c r="SM8" t="s">
+      <c r="SP8" t="s">
         <v>5162</v>
       </c>
-      <c r="SN8" t="s">
+      <c r="SQ8" t="s">
         <v>5163</v>
       </c>
-      <c r="SP8" t="s">
+      <c r="SU8" t="s">
         <v>5164</v>
       </c>
-      <c r="SQ8" t="s">
+      <c r="SV8" t="s">
         <v>5165</v>
       </c>
-      <c r="SU8" t="s">
+      <c r="SY8" t="s">
         <v>5166</v>
       </c>
-      <c r="SV8" t="s">
+      <c r="SZ8" t="s">
         <v>5167</v>
       </c>
-      <c r="SY8" t="s">
+      <c r="TA8" t="s">
         <v>5168</v>
       </c>
-      <c r="SZ8" t="s">
+      <c r="TD8" t="s">
         <v>5169</v>
       </c>
-      <c r="TA8" t="s">
+      <c r="TE8" t="s">
         <v>5170</v>
-      </c>
-      <c r="TD8" t="s">
-        <v>5171</v>
-      </c>
-      <c r="TE8" t="s">
-        <v>5172</v>
       </c>
       <c r="TF8" t="s">
         <v>4209</v>
@@ -41363,66 +41513,66 @@
         <v>4212</v>
       </c>
       <c r="TN8" t="s">
+        <v>5171</v>
+      </c>
+      <c r="TX8" t="s">
+        <v>5172</v>
+      </c>
+      <c r="UO8" t="s">
         <v>5173</v>
       </c>
-      <c r="TX8" t="s">
+      <c r="VQ8" t="s">
         <v>5174</v>
-      </c>
-      <c r="UO8" t="s">
-        <v>5175</v>
-      </c>
-      <c r="VQ8" t="s">
-        <v>5176</v>
       </c>
       <c r="XP8" t="s">
         <v>3753</v>
       </c>
       <c r="ZN8" t="s">
+        <v>5175</v>
+      </c>
+      <c r="ZT8" t="s">
+        <v>5176</v>
+      </c>
+      <c r="ZU8" t="s">
         <v>5177</v>
       </c>
-      <c r="ZT8" t="s">
+      <c r="AAA8" t="s">
         <v>5178</v>
       </c>
-      <c r="ZU8" t="s">
+      <c r="ACM8" t="s">
         <v>5179</v>
-      </c>
-      <c r="AAA8" t="s">
-        <v>5180</v>
-      </c>
-      <c r="ACM8" t="s">
-        <v>5181</v>
       </c>
     </row>
     <row r="9" spans="1:774" x14ac:dyDescent="0.25">
       <c r="AM9" t="s">
+        <v>5180</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>5181</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>5182</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AV9" t="s">
         <v>5183</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AZ9" t="s">
         <v>5184</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="BI9" t="s">
         <v>5185</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BK9" t="s">
         <v>5186</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BO9" t="s">
         <v>5187</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BP9" t="s">
         <v>5188</v>
       </c>
-      <c r="BO9" t="s">
+      <c r="BQ9" t="s">
         <v>5189</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>5190</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>5191</v>
       </c>
       <c r="CN9" t="s">
         <v>4214</v>
@@ -41434,43 +41584,43 @@
         <v>4215</v>
       </c>
       <c r="DN9" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
       <c r="DO9" t="s">
+        <v>5190</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>5191</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>4554</v>
+      </c>
+      <c r="DS9" t="s">
         <v>5192</v>
-      </c>
-      <c r="DP9" t="s">
-        <v>5193</v>
-      </c>
-      <c r="DR9" t="s">
-        <v>4555</v>
-      </c>
-      <c r="DS9" t="s">
-        <v>5194</v>
       </c>
       <c r="DY9" t="s">
         <v>4217</v>
       </c>
       <c r="DZ9" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
       <c r="EA9" t="s">
         <v>4185</v>
       </c>
       <c r="EB9" t="s">
+        <v>5193</v>
+      </c>
+      <c r="FL9" t="s">
+        <v>5194</v>
+      </c>
+      <c r="FT9" t="s">
         <v>5195</v>
       </c>
-      <c r="FL9" t="s">
+      <c r="FU9" t="s">
         <v>5196</v>
       </c>
-      <c r="FT9" t="s">
+      <c r="FW9" t="s">
         <v>5197</v>
-      </c>
-      <c r="FU9" t="s">
-        <v>5198</v>
-      </c>
-      <c r="FW9" t="s">
-        <v>5199</v>
       </c>
       <c r="JQ9" t="s">
         <v>4219</v>
@@ -41482,46 +41632,46 @@
         <v>4221</v>
       </c>
       <c r="MR9" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="SB9" t="s">
+        <v>5198</v>
+      </c>
+      <c r="SL9" t="s">
+        <v>5199</v>
+      </c>
+      <c r="SM9" t="s">
         <v>5200</v>
       </c>
-      <c r="SL9" t="s">
+      <c r="SN9" t="s">
         <v>5201</v>
       </c>
-      <c r="SM9" t="s">
+      <c r="SP9" t="s">
         <v>5202</v>
       </c>
-      <c r="SN9" t="s">
+      <c r="SQ9" t="s">
         <v>5203</v>
       </c>
-      <c r="SP9" t="s">
+      <c r="SV9" t="s">
         <v>5204</v>
       </c>
-      <c r="SQ9" t="s">
+      <c r="SY9" t="s">
         <v>5205</v>
       </c>
-      <c r="SV9" t="s">
+      <c r="SZ9" t="s">
         <v>5206</v>
       </c>
-      <c r="SY9" t="s">
+      <c r="TA9" t="s">
         <v>5207</v>
       </c>
-      <c r="SZ9" t="s">
+      <c r="TD9" t="s">
         <v>5208</v>
       </c>
-      <c r="TA9" t="s">
+      <c r="TE9" t="s">
         <v>5209</v>
       </c>
-      <c r="TD9" t="s">
+      <c r="TF9" t="s">
         <v>5210</v>
-      </c>
-      <c r="TE9" t="s">
-        <v>5211</v>
-      </c>
-      <c r="TF9" t="s">
-        <v>5212</v>
       </c>
       <c r="TI9" t="s">
         <v>4222</v>
@@ -41533,69 +41683,69 @@
         <v>4224</v>
       </c>
       <c r="TX9" t="s">
+        <v>5211</v>
+      </c>
+      <c r="UO9" t="s">
+        <v>5212</v>
+      </c>
+      <c r="VQ9" t="s">
         <v>5213</v>
       </c>
-      <c r="UO9" t="s">
+      <c r="ZN9" t="s">
         <v>5214</v>
       </c>
-      <c r="VQ9" t="s">
+      <c r="ZT9" t="s">
         <v>5215</v>
       </c>
-      <c r="ZN9" t="s">
+      <c r="ZU9" t="s">
         <v>5216</v>
       </c>
-      <c r="ZT9" t="s">
+      <c r="AAA9" t="s">
         <v>5217</v>
       </c>
-      <c r="ZU9" t="s">
+      <c r="ACM9" t="s">
         <v>5218</v>
-      </c>
-      <c r="AAA9" t="s">
-        <v>5219</v>
-      </c>
-      <c r="ACM9" t="s">
-        <v>5220</v>
       </c>
     </row>
     <row r="10" spans="1:774" x14ac:dyDescent="0.25">
       <c r="AM10" t="s">
+        <v>5219</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>5220</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>5221</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AZ10" t="s">
         <v>5222</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="BK10" t="s">
         <v>5223</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BO10" t="s">
         <v>5224</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BQ10" t="s">
         <v>5225</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>5226</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>5227</v>
       </c>
       <c r="CN10" t="s">
         <v>4226</v>
       </c>
       <c r="DJ10" t="s">
-        <v>4602</v>
+        <v>4601</v>
       </c>
       <c r="DK10" t="s">
         <v>4227</v>
       </c>
       <c r="DN10" t="s">
-        <v>4550</v>
+        <v>4549</v>
       </c>
       <c r="DO10" t="s">
-        <v>5228</v>
+        <v>5226</v>
       </c>
       <c r="DP10" t="s">
-        <v>5229</v>
+        <v>5227</v>
       </c>
       <c r="DR10" t="s">
         <v>3423</v>
@@ -41607,19 +41757,19 @@
         <v>4229</v>
       </c>
       <c r="DZ10" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
       <c r="EA10" t="s">
+        <v>5228</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>5229</v>
+      </c>
+      <c r="FT10" t="s">
         <v>5230</v>
       </c>
-      <c r="EB10" t="s">
+      <c r="FU10" t="s">
         <v>5231</v>
-      </c>
-      <c r="FT10" t="s">
-        <v>5232</v>
-      </c>
-      <c r="FU10" t="s">
-        <v>5233</v>
       </c>
       <c r="JQ10" t="s">
         <v>4231</v>
@@ -41631,37 +41781,37 @@
         <v>4233</v>
       </c>
       <c r="MR10" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="SB10" t="s">
+        <v>5232</v>
+      </c>
+      <c r="SL10" t="s">
+        <v>5233</v>
+      </c>
+      <c r="SM10" t="s">
         <v>5234</v>
       </c>
-      <c r="SL10" t="s">
+      <c r="SN10" t="s">
         <v>5235</v>
       </c>
-      <c r="SM10" t="s">
+      <c r="SP10" t="s">
         <v>5236</v>
       </c>
-      <c r="SN10" t="s">
+      <c r="SQ10" t="s">
         <v>5237</v>
       </c>
-      <c r="SP10" t="s">
+      <c r="SV10" t="s">
         <v>5238</v>
       </c>
-      <c r="SQ10" t="s">
+      <c r="SZ10" t="s">
         <v>5239</v>
       </c>
-      <c r="SV10" t="s">
+      <c r="TA10" t="s">
         <v>5240</v>
       </c>
-      <c r="SZ10" t="s">
+      <c r="TE10" t="s">
         <v>5241</v>
-      </c>
-      <c r="TA10" t="s">
-        <v>5242</v>
-      </c>
-      <c r="TE10" t="s">
-        <v>5243</v>
       </c>
       <c r="TI10" t="s">
         <v>4234</v>
@@ -41673,87 +41823,87 @@
         <v>4236</v>
       </c>
       <c r="TX10" t="s">
+        <v>5242</v>
+      </c>
+      <c r="UO10" t="s">
+        <v>5243</v>
+      </c>
+      <c r="ZN10" t="s">
         <v>5244</v>
       </c>
-      <c r="UO10" t="s">
+      <c r="ZT10" t="s">
         <v>5245</v>
       </c>
-      <c r="ZN10" t="s">
+      <c r="ZU10" t="s">
         <v>5246</v>
       </c>
-      <c r="ZT10" t="s">
+      <c r="AAA10" t="s">
         <v>5247</v>
       </c>
-      <c r="ZU10" t="s">
+      <c r="ACM10" t="s">
         <v>5248</v>
-      </c>
-      <c r="AAA10" t="s">
-        <v>5249</v>
-      </c>
-      <c r="ACM10" t="s">
-        <v>5250</v>
       </c>
     </row>
     <row r="11" spans="1:774" x14ac:dyDescent="0.25">
       <c r="AM11" t="s">
+        <v>5249</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>5250</v>
+      </c>
+      <c r="AZ11" t="s">
         <v>5251</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="BK11" t="s">
         <v>5252</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BO11" t="s">
         <v>5253</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="BQ11" t="s">
         <v>5254</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>5255</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>5256</v>
       </c>
       <c r="CN11" t="s">
         <v>4238</v>
       </c>
       <c r="DJ11" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
       <c r="DK11" t="s">
         <v>4239</v>
       </c>
       <c r="DN11" t="s">
-        <v>4554</v>
+        <v>4553</v>
       </c>
       <c r="DO11" t="s">
+        <v>5255</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>5256</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>4630</v>
+      </c>
+      <c r="DS11" t="s">
         <v>5257</v>
-      </c>
-      <c r="DP11" t="s">
-        <v>5258</v>
-      </c>
-      <c r="DR11" t="s">
-        <v>4631</v>
-      </c>
-      <c r="DS11" t="s">
-        <v>5259</v>
       </c>
       <c r="DY11" t="s">
         <v>4241</v>
       </c>
       <c r="DZ11" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="EA11" t="s">
         <v>4230</v>
       </c>
       <c r="EB11" t="s">
+        <v>5258</v>
+      </c>
+      <c r="FT11" t="s">
+        <v>5259</v>
+      </c>
+      <c r="FU11" t="s">
         <v>5260</v>
-      </c>
-      <c r="FT11" t="s">
-        <v>5261</v>
-      </c>
-      <c r="FU11" t="s">
-        <v>5262</v>
       </c>
       <c r="JQ11" t="s">
         <v>4242</v>
@@ -41765,90 +41915,90 @@
         <v>4244</v>
       </c>
       <c r="SB11" t="s">
+        <v>5261</v>
+      </c>
+      <c r="SL11" t="s">
+        <v>5262</v>
+      </c>
+      <c r="SM11" t="s">
         <v>5263</v>
       </c>
-      <c r="SL11" t="s">
+      <c r="SN11" t="s">
         <v>5264</v>
       </c>
-      <c r="SM11" t="s">
+      <c r="SP11" t="s">
         <v>5265</v>
       </c>
-      <c r="SN11" t="s">
+      <c r="SQ11" t="s">
         <v>5266</v>
       </c>
-      <c r="SP11" t="s">
+      <c r="SV11" t="s">
         <v>5267</v>
       </c>
-      <c r="SQ11" t="s">
+      <c r="SZ11" t="s">
         <v>5268</v>
       </c>
-      <c r="SV11" t="s">
+      <c r="TA11" t="s">
         <v>5269</v>
       </c>
-      <c r="SZ11" t="s">
+      <c r="TE11" t="s">
         <v>5270</v>
-      </c>
-      <c r="TA11" t="s">
-        <v>5271</v>
-      </c>
-      <c r="TE11" t="s">
-        <v>5272</v>
       </c>
       <c r="TI11" t="s">
         <v>4245</v>
       </c>
       <c r="TK11" t="s">
-        <v>5273</v>
+        <v>5271</v>
       </c>
       <c r="TM11" t="s">
         <v>4246</v>
       </c>
       <c r="TX11" t="s">
+        <v>5272</v>
+      </c>
+      <c r="UO11" t="s">
+        <v>5273</v>
+      </c>
+      <c r="ZN11" t="s">
         <v>5274</v>
       </c>
-      <c r="UO11" t="s">
+      <c r="ZT11" t="s">
         <v>5275</v>
       </c>
-      <c r="ZN11" t="s">
+      <c r="AAA11" t="s">
         <v>5276</v>
       </c>
-      <c r="ZT11" t="s">
+      <c r="ACM11" t="s">
         <v>5277</v>
-      </c>
-      <c r="AAA11" t="s">
-        <v>5278</v>
-      </c>
-      <c r="ACM11" t="s">
-        <v>5279</v>
       </c>
     </row>
     <row r="12" spans="1:774" x14ac:dyDescent="0.25">
       <c r="AZ12" t="s">
+        <v>5278</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>5279</v>
+      </c>
+      <c r="BQ12" t="s">
         <v>5280</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>5281</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>5282</v>
       </c>
       <c r="CN12" t="s">
         <v>4248</v>
       </c>
       <c r="DJ12" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
       <c r="DK12" t="s">
         <v>4249</v>
       </c>
       <c r="DN12" t="s">
-        <v>4558</v>
+        <v>4557</v>
       </c>
       <c r="DO12" t="s">
-        <v>5283</v>
+        <v>5281</v>
       </c>
       <c r="DP12" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
       <c r="DR12" t="s">
         <v>3853</v>
@@ -41863,16 +42013,16 @@
         <v>3431</v>
       </c>
       <c r="EA12" t="s">
+        <v>5283</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>5284</v>
+      </c>
+      <c r="FT12" t="s">
         <v>5285</v>
       </c>
-      <c r="EB12" t="s">
+      <c r="FU12" t="s">
         <v>5286</v>
-      </c>
-      <c r="FT12" t="s">
-        <v>5287</v>
-      </c>
-      <c r="FU12" t="s">
-        <v>5288</v>
       </c>
       <c r="JQ12" t="s">
         <v>4252</v>
@@ -41884,25 +42034,25 @@
         <v>4254</v>
       </c>
       <c r="SL12" t="s">
+        <v>5287</v>
+      </c>
+      <c r="SM12" t="s">
+        <v>5288</v>
+      </c>
+      <c r="SN12" t="s">
+        <v>4576</v>
+      </c>
+      <c r="SP12" t="s">
         <v>5289</v>
       </c>
-      <c r="SM12" t="s">
+      <c r="SQ12" t="s">
         <v>5290</v>
       </c>
-      <c r="SN12" t="s">
-        <v>4577</v>
-      </c>
-      <c r="SP12" t="s">
+      <c r="SV12" t="s">
         <v>5291</v>
       </c>
-      <c r="SQ12" t="s">
+      <c r="TE12" t="s">
         <v>5292</v>
-      </c>
-      <c r="SV12" t="s">
-        <v>5293</v>
-      </c>
-      <c r="TE12" t="s">
-        <v>5294</v>
       </c>
       <c r="TI12" t="s">
         <v>4255</v>
@@ -41911,45 +42061,45 @@
         <v>4256</v>
       </c>
       <c r="UO12" t="s">
+        <v>5293</v>
+      </c>
+      <c r="ZN12" t="s">
+        <v>5294</v>
+      </c>
+      <c r="ZT12" t="s">
         <v>5295</v>
       </c>
-      <c r="ZN12" t="s">
+      <c r="AAA12" t="s">
         <v>5296</v>
-      </c>
-      <c r="ZT12" t="s">
-        <v>5297</v>
-      </c>
-      <c r="AAA12" t="s">
-        <v>5298</v>
       </c>
     </row>
     <row r="13" spans="1:774" x14ac:dyDescent="0.25">
       <c r="AZ13" t="s">
+        <v>5297</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>5298</v>
+      </c>
+      <c r="CN13" t="s">
         <v>5299</v>
       </c>
-      <c r="BQ13" t="s">
-        <v>5300</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>5301</v>
-      </c>
       <c r="DJ13" t="s">
-        <v>4557</v>
+        <v>4556</v>
       </c>
       <c r="DK13" t="s">
         <v>4258</v>
       </c>
       <c r="DN13" t="s">
-        <v>4561</v>
+        <v>4560</v>
       </c>
       <c r="DO13" t="s">
-        <v>5302</v>
+        <v>5300</v>
       </c>
       <c r="DP13" t="s">
-        <v>5303</v>
+        <v>5301</v>
       </c>
       <c r="DR13" t="s">
-        <v>4559</v>
+        <v>4558</v>
       </c>
       <c r="DS13" t="s">
         <v>4109</v>
@@ -41958,16 +42108,16 @@
         <v>4260</v>
       </c>
       <c r="DZ13" t="s">
+        <v>5302</v>
+      </c>
+      <c r="EB13" t="s">
+        <v>5303</v>
+      </c>
+      <c r="FT13" t="s">
         <v>5304</v>
       </c>
-      <c r="EB13" t="s">
+      <c r="FU13" t="s">
         <v>5305</v>
-      </c>
-      <c r="FT13" t="s">
-        <v>5306</v>
-      </c>
-      <c r="FU13" t="s">
-        <v>5307</v>
       </c>
       <c r="JQ13" t="s">
         <v>4261</v>
@@ -41976,25 +42126,25 @@
         <v>4262</v>
       </c>
       <c r="JS13" t="s">
+        <v>5306</v>
+      </c>
+      <c r="SL13" t="s">
+        <v>5307</v>
+      </c>
+      <c r="SM13" t="s">
         <v>5308</v>
       </c>
-      <c r="SL13" t="s">
+      <c r="SN13" t="s">
+        <v>4588</v>
+      </c>
+      <c r="SP13" t="s">
         <v>5309</v>
       </c>
-      <c r="SM13" t="s">
+      <c r="SV13" t="s">
+        <v>4612</v>
+      </c>
+      <c r="TE13" t="s">
         <v>5310</v>
-      </c>
-      <c r="SN13" t="s">
-        <v>4589</v>
-      </c>
-      <c r="SP13" t="s">
-        <v>5311</v>
-      </c>
-      <c r="SV13" t="s">
-        <v>4613</v>
-      </c>
-      <c r="TE13" t="s">
-        <v>5312</v>
       </c>
       <c r="TI13" t="s">
         <v>4263</v>
@@ -42003,60 +42153,60 @@
         <v>4264</v>
       </c>
       <c r="UO13" t="s">
+        <v>5311</v>
+      </c>
+      <c r="ZN13" t="s">
+        <v>5312</v>
+      </c>
+      <c r="ZT13" t="s">
         <v>5313</v>
       </c>
-      <c r="ZN13" t="s">
+      <c r="AAA13" t="s">
         <v>5314</v>
-      </c>
-      <c r="ZT13" t="s">
-        <v>5315</v>
-      </c>
-      <c r="AAA13" t="s">
-        <v>5316</v>
       </c>
     </row>
     <row r="14" spans="1:774" x14ac:dyDescent="0.25">
       <c r="AZ14" t="s">
+        <v>5315</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>5316</v>
+      </c>
+      <c r="CN14" t="s">
         <v>5317</v>
       </c>
-      <c r="BQ14" t="s">
+      <c r="DJ14" t="s">
+        <v>4559</v>
+      </c>
+      <c r="DK14" t="s">
         <v>5318</v>
       </c>
-      <c r="CN14" t="s">
+      <c r="DN14" t="s">
+        <v>4563</v>
+      </c>
+      <c r="DO14" t="s">
         <v>5319</v>
       </c>
-      <c r="DJ14" t="s">
-        <v>4560</v>
-      </c>
-      <c r="DK14" t="s">
+      <c r="DP14" t="s">
         <v>5320</v>
       </c>
-      <c r="DN14" t="s">
-        <v>4564</v>
-      </c>
-      <c r="DO14" t="s">
+      <c r="DR14" t="s">
         <v>5321</v>
       </c>
-      <c r="DP14" t="s">
+      <c r="DS14" t="s">
         <v>5322</v>
-      </c>
-      <c r="DR14" t="s">
-        <v>5323</v>
-      </c>
-      <c r="DS14" t="s">
-        <v>5324</v>
       </c>
       <c r="DY14" t="s">
         <v>4267</v>
       </c>
       <c r="EB14" t="s">
+        <v>5323</v>
+      </c>
+      <c r="FT14" t="s">
+        <v>5324</v>
+      </c>
+      <c r="FU14" t="s">
         <v>5325</v>
-      </c>
-      <c r="FT14" t="s">
-        <v>5326</v>
-      </c>
-      <c r="FU14" t="s">
-        <v>5327</v>
       </c>
       <c r="JQ14" t="s">
         <v>4268</v>
@@ -42065,25 +42215,25 @@
         <v>4269</v>
       </c>
       <c r="JS14" t="s">
+        <v>5326</v>
+      </c>
+      <c r="SL14" t="s">
+        <v>5327</v>
+      </c>
+      <c r="SM14" t="s">
         <v>5328</v>
       </c>
-      <c r="SL14" t="s">
+      <c r="SN14" t="s">
         <v>5329</v>
       </c>
-      <c r="SM14" t="s">
+      <c r="SP14" t="s">
         <v>5330</v>
       </c>
-      <c r="SN14" t="s">
+      <c r="SV14" t="s">
         <v>5331</v>
       </c>
-      <c r="SP14" t="s">
+      <c r="TE14" t="s">
         <v>5332</v>
-      </c>
-      <c r="SV14" t="s">
-        <v>5333</v>
-      </c>
-      <c r="TE14" t="s">
-        <v>5334</v>
       </c>
       <c r="TI14" t="s">
         <v>4270</v>
@@ -42092,39 +42242,39 @@
         <v>4271</v>
       </c>
       <c r="UO14" t="s">
+        <v>5333</v>
+      </c>
+      <c r="ZN14" t="s">
+        <v>5334</v>
+      </c>
+      <c r="ZT14" t="s">
         <v>5335</v>
       </c>
-      <c r="ZN14" t="s">
+      <c r="AAA14" t="s">
         <v>5336</v>
-      </c>
-      <c r="ZT14" t="s">
-        <v>5337</v>
-      </c>
-      <c r="AAA14" t="s">
-        <v>5338</v>
       </c>
     </row>
     <row r="15" spans="1:774" x14ac:dyDescent="0.25">
       <c r="AZ15" t="s">
+        <v>5337</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>5338</v>
+      </c>
+      <c r="CN15" t="s">
         <v>5339</v>
       </c>
-      <c r="BQ15" t="s">
+      <c r="DJ15" t="s">
+        <v>4562</v>
+      </c>
+      <c r="DN15" t="s">
+        <v>4611</v>
+      </c>
+      <c r="DO15" t="s">
         <v>5340</v>
       </c>
-      <c r="CN15" t="s">
+      <c r="DP15" t="s">
         <v>5341</v>
-      </c>
-      <c r="DJ15" t="s">
-        <v>4563</v>
-      </c>
-      <c r="DN15" t="s">
-        <v>4612</v>
-      </c>
-      <c r="DO15" t="s">
-        <v>5342</v>
-      </c>
-      <c r="DP15" t="s">
-        <v>5343</v>
       </c>
       <c r="DS15" t="s">
         <v>4154</v>
@@ -42133,13 +42283,13 @@
         <v>4274</v>
       </c>
       <c r="EB15" t="s">
-        <v>4604</v>
+        <v>4603</v>
       </c>
       <c r="FT15" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="FU15" t="s">
-        <v>5345</v>
+        <v>5343</v>
       </c>
       <c r="JQ15" t="s">
         <v>4275</v>
@@ -42148,63 +42298,63 @@
         <v>4276</v>
       </c>
       <c r="JS15" t="s">
+        <v>5344</v>
+      </c>
+      <c r="SL15" t="s">
+        <v>5345</v>
+      </c>
+      <c r="SM15" t="s">
         <v>5346</v>
       </c>
-      <c r="SL15" t="s">
+      <c r="SN15" t="s">
         <v>5347</v>
       </c>
-      <c r="SM15" t="s">
+      <c r="TE15" t="s">
         <v>5348</v>
-      </c>
-      <c r="SN15" t="s">
-        <v>5349</v>
-      </c>
-      <c r="TE15" t="s">
-        <v>5350</v>
       </c>
       <c r="TI15" t="s">
         <v>4277</v>
       </c>
       <c r="TM15" t="s">
+        <v>5349</v>
+      </c>
+      <c r="UO15" t="s">
+        <v>5350</v>
+      </c>
+      <c r="ZN15" t="s">
         <v>5351</v>
       </c>
-      <c r="UO15" t="s">
+      <c r="ZT15" t="s">
         <v>5352</v>
       </c>
-      <c r="ZN15" t="s">
+      <c r="AAA15" t="s">
         <v>5353</v>
-      </c>
-      <c r="ZT15" t="s">
-        <v>5354</v>
-      </c>
-      <c r="AAA15" t="s">
-        <v>5355</v>
       </c>
     </row>
     <row r="16" spans="1:774" x14ac:dyDescent="0.25">
       <c r="AZ16" t="s">
+        <v>5354</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>5355</v>
+      </c>
+      <c r="CN16" t="s">
         <v>5356</v>
       </c>
-      <c r="BQ16" t="s">
-        <v>5357</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>5358</v>
-      </c>
       <c r="DJ16" t="s">
+        <v>4564</v>
+      </c>
+      <c r="DN16" t="s">
         <v>4565</v>
-      </c>
-      <c r="DN16" t="s">
-        <v>4566</v>
       </c>
       <c r="DO16" t="s">
         <v>3851</v>
       </c>
       <c r="DP16" t="s">
-        <v>5359</v>
+        <v>5357</v>
       </c>
       <c r="DS16" t="s">
-        <v>5360</v>
+        <v>5358</v>
       </c>
       <c r="DY16" t="s">
         <v>4280</v>
@@ -42213,10 +42363,10 @@
         <v>3433</v>
       </c>
       <c r="FT16" t="s">
-        <v>5361</v>
+        <v>5359</v>
       </c>
       <c r="FU16" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="JQ16" t="s">
         <v>4281</v>
@@ -42225,529 +42375,529 @@
         <v>4282</v>
       </c>
       <c r="SL16" t="s">
+        <v>5361</v>
+      </c>
+      <c r="SM16" t="s">
+        <v>5362</v>
+      </c>
+      <c r="SN16" t="s">
         <v>5363</v>
       </c>
-      <c r="SM16" t="s">
+      <c r="TE16" t="s">
         <v>5364</v>
-      </c>
-      <c r="SN16" t="s">
-        <v>5365</v>
-      </c>
-      <c r="TE16" t="s">
-        <v>5366</v>
       </c>
       <c r="TI16" t="s">
         <v>4283</v>
       </c>
       <c r="UO16" t="s">
+        <v>5365</v>
+      </c>
+      <c r="ZT16" t="s">
+        <v>5366</v>
+      </c>
+      <c r="AAA16" t="s">
         <v>5367</v>
-      </c>
-      <c r="ZT16" t="s">
-        <v>5368</v>
-      </c>
-      <c r="AAA16" t="s">
-        <v>5369</v>
       </c>
     </row>
     <row r="17" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ17" t="s">
+        <v>5368</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>5369</v>
+      </c>
+      <c r="DJ17" t="s">
         <v>5370</v>
       </c>
-      <c r="CN17" t="s">
+      <c r="DN17" t="s">
         <v>5371</v>
-      </c>
-      <c r="DJ17" t="s">
-        <v>5372</v>
-      </c>
-      <c r="DN17" t="s">
-        <v>5373</v>
       </c>
       <c r="DO17" t="s">
         <v>4035</v>
       </c>
       <c r="DP17" t="s">
+        <v>5372</v>
+      </c>
+      <c r="DS17" t="s">
+        <v>5373</v>
+      </c>
+      <c r="DY17" t="s">
+        <v>5151</v>
+      </c>
+      <c r="EB17" t="s">
         <v>5374</v>
       </c>
-      <c r="DS17" t="s">
+      <c r="FT17" t="s">
         <v>5375</v>
       </c>
-      <c r="DY17" t="s">
-        <v>5153</v>
-      </c>
-      <c r="EB17" t="s">
+      <c r="FU17" t="s">
         <v>5376</v>
-      </c>
-      <c r="FT17" t="s">
-        <v>5377</v>
-      </c>
-      <c r="FU17" t="s">
-        <v>5378</v>
       </c>
       <c r="JQ17" t="s">
         <v>4285</v>
       </c>
       <c r="JR17" t="s">
+        <v>5377</v>
+      </c>
+      <c r="SL17" t="s">
+        <v>5378</v>
+      </c>
+      <c r="SM17" t="s">
         <v>5379</v>
       </c>
-      <c r="SL17" t="s">
+      <c r="SN17" t="s">
         <v>5380</v>
       </c>
-      <c r="SM17" t="s">
+      <c r="TE17" t="s">
         <v>5381</v>
-      </c>
-      <c r="SN17" t="s">
-        <v>5382</v>
-      </c>
-      <c r="TE17" t="s">
-        <v>5383</v>
       </c>
       <c r="TI17" t="s">
         <v>4286</v>
       </c>
       <c r="UO17" t="s">
+        <v>5382</v>
+      </c>
+      <c r="ZT17" t="s">
+        <v>5383</v>
+      </c>
+      <c r="AAA17" t="s">
         <v>5384</v>
-      </c>
-      <c r="ZT17" t="s">
-        <v>5385</v>
-      </c>
-      <c r="AAA17" t="s">
-        <v>5386</v>
       </c>
     </row>
     <row r="18" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ18" t="s">
+        <v>5385</v>
+      </c>
+      <c r="DO18" t="s">
+        <v>4606</v>
+      </c>
+      <c r="DP18" t="s">
+        <v>5386</v>
+      </c>
+      <c r="DS18" t="s">
         <v>5387</v>
       </c>
-      <c r="DO18" t="s">
-        <v>4607</v>
-      </c>
-      <c r="DP18" t="s">
+      <c r="EB18" t="s">
         <v>5388</v>
       </c>
-      <c r="DS18" t="s">
+      <c r="FT18" t="s">
         <v>5389</v>
       </c>
-      <c r="EB18" t="s">
+      <c r="FU18" t="s">
         <v>5390</v>
-      </c>
-      <c r="FT18" t="s">
-        <v>5391</v>
-      </c>
-      <c r="FU18" t="s">
-        <v>5392</v>
       </c>
       <c r="JQ18" t="s">
         <v>4288</v>
       </c>
       <c r="JR18" t="s">
+        <v>5391</v>
+      </c>
+      <c r="SL18" t="s">
+        <v>5392</v>
+      </c>
+      <c r="SM18" t="s">
         <v>5393</v>
       </c>
-      <c r="SL18" t="s">
+      <c r="SN18" t="s">
         <v>5394</v>
       </c>
-      <c r="SM18" t="s">
+      <c r="TE18" t="s">
         <v>5395</v>
-      </c>
-      <c r="SN18" t="s">
-        <v>5396</v>
-      </c>
-      <c r="TE18" t="s">
-        <v>5397</v>
       </c>
       <c r="TI18" t="s">
         <v>4289</v>
       </c>
       <c r="UO18" t="s">
+        <v>5396</v>
+      </c>
+      <c r="ZT18" t="s">
+        <v>5397</v>
+      </c>
+      <c r="AAA18" t="s">
         <v>5398</v>
-      </c>
-      <c r="ZT18" t="s">
-        <v>5399</v>
-      </c>
-      <c r="AAA18" t="s">
-        <v>5400</v>
       </c>
     </row>
     <row r="19" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ19" t="s">
+        <v>5399</v>
+      </c>
+      <c r="DO19" t="s">
+        <v>5400</v>
+      </c>
+      <c r="DP19" t="s">
         <v>5401</v>
       </c>
-      <c r="DO19" t="s">
+      <c r="DS19" t="s">
         <v>5402</v>
       </c>
-      <c r="DP19" t="s">
+      <c r="EB19" t="s">
         <v>5403</v>
       </c>
-      <c r="DS19" t="s">
+      <c r="FT19" t="s">
         <v>5404</v>
       </c>
-      <c r="EB19" t="s">
+      <c r="FU19" t="s">
         <v>5405</v>
-      </c>
-      <c r="FT19" t="s">
-        <v>5406</v>
-      </c>
-      <c r="FU19" t="s">
-        <v>5407</v>
       </c>
       <c r="JQ19" t="s">
         <v>4291</v>
       </c>
       <c r="JR19" t="s">
+        <v>5406</v>
+      </c>
+      <c r="SL19" t="s">
+        <v>5407</v>
+      </c>
+      <c r="SM19" t="s">
         <v>5408</v>
       </c>
-      <c r="SL19" t="s">
-        <v>5409</v>
-      </c>
-      <c r="SM19" t="s">
-        <v>5410</v>
-      </c>
       <c r="SN19" t="s">
-        <v>4593</v>
+        <v>4592</v>
       </c>
       <c r="TI19" t="s">
         <v>4292</v>
       </c>
       <c r="UO19" t="s">
+        <v>5409</v>
+      </c>
+      <c r="ZT19" t="s">
+        <v>5410</v>
+      </c>
+      <c r="AAA19" t="s">
         <v>5411</v>
-      </c>
-      <c r="ZT19" t="s">
-        <v>5412</v>
-      </c>
-      <c r="AAA19" t="s">
-        <v>5413</v>
       </c>
     </row>
     <row r="20" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ20" t="s">
+        <v>5412</v>
+      </c>
+      <c r="DO20" t="s">
+        <v>5413</v>
+      </c>
+      <c r="DP20" t="s">
         <v>5414</v>
       </c>
-      <c r="DO20" t="s">
+      <c r="DS20" t="s">
+        <v>4567</v>
+      </c>
+      <c r="EB20" t="s">
         <v>5415</v>
       </c>
-      <c r="DP20" t="s">
+      <c r="FT20" t="s">
         <v>5416</v>
       </c>
-      <c r="DS20" t="s">
-        <v>4568</v>
-      </c>
-      <c r="EB20" t="s">
+      <c r="FU20" t="s">
         <v>5417</v>
-      </c>
-      <c r="FT20" t="s">
-        <v>5418</v>
-      </c>
-      <c r="FU20" t="s">
-        <v>5419</v>
       </c>
       <c r="JQ20" t="s">
         <v>4294</v>
       </c>
       <c r="JR20" t="s">
+        <v>5418</v>
+      </c>
+      <c r="SL20" t="s">
+        <v>5042</v>
+      </c>
+      <c r="SM20" t="s">
+        <v>5419</v>
+      </c>
+      <c r="SN20" t="s">
         <v>5420</v>
-      </c>
-      <c r="SL20" t="s">
-        <v>5044</v>
-      </c>
-      <c r="SM20" t="s">
-        <v>5421</v>
-      </c>
-      <c r="SN20" t="s">
-        <v>5422</v>
       </c>
       <c r="TI20" t="s">
         <v>4295</v>
       </c>
       <c r="UO20" t="s">
+        <v>5421</v>
+      </c>
+      <c r="ZT20" t="s">
+        <v>5422</v>
+      </c>
+      <c r="AAA20" t="s">
         <v>5423</v>
-      </c>
-      <c r="ZT20" t="s">
-        <v>5424</v>
-      </c>
-      <c r="AAA20" t="s">
-        <v>5425</v>
       </c>
     </row>
     <row r="21" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ21" t="s">
+        <v>5424</v>
+      </c>
+      <c r="DO21" t="s">
+        <v>5425</v>
+      </c>
+      <c r="DP21" t="s">
         <v>5426</v>
-      </c>
-      <c r="DO21" t="s">
-        <v>5427</v>
-      </c>
-      <c r="DP21" t="s">
-        <v>5428</v>
       </c>
       <c r="DS21" t="s">
         <v>4216</v>
       </c>
       <c r="EB21" t="s">
-        <v>5429</v>
+        <v>5427</v>
       </c>
       <c r="FU21" t="s">
-        <v>5430</v>
+        <v>5428</v>
       </c>
       <c r="JQ21" t="s">
         <v>4297</v>
       </c>
       <c r="JR21" t="s">
-        <v>5431</v>
+        <v>5429</v>
       </c>
       <c r="SL21" t="s">
-        <v>5108</v>
+        <v>5106</v>
       </c>
       <c r="SM21" t="s">
-        <v>5432</v>
+        <v>5430</v>
       </c>
       <c r="SN21" t="s">
-        <v>4599</v>
+        <v>4598</v>
       </c>
       <c r="TI21" t="s">
         <v>4298</v>
       </c>
       <c r="UO21" t="s">
+        <v>5431</v>
+      </c>
+      <c r="ZT21" t="s">
+        <v>5432</v>
+      </c>
+      <c r="AAA21" t="s">
         <v>5433</v>
-      </c>
-      <c r="ZT21" t="s">
-        <v>5434</v>
-      </c>
-      <c r="AAA21" t="s">
-        <v>5435</v>
       </c>
     </row>
     <row r="22" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ22" t="s">
+        <v>5434</v>
+      </c>
+      <c r="DO22" t="s">
+        <v>5435</v>
+      </c>
+      <c r="DP22" t="s">
         <v>5436</v>
       </c>
-      <c r="DO22" t="s">
+      <c r="DS22" t="s">
         <v>5437</v>
       </c>
-      <c r="DP22" t="s">
+      <c r="EB22" t="s">
         <v>5438</v>
       </c>
-      <c r="DS22" t="s">
+      <c r="FU22" t="s">
         <v>5439</v>
-      </c>
-      <c r="EB22" t="s">
-        <v>5440</v>
-      </c>
-      <c r="FU22" t="s">
-        <v>5441</v>
       </c>
       <c r="JQ22" t="s">
         <v>4300</v>
       </c>
       <c r="JR22" t="s">
-        <v>5442</v>
+        <v>5440</v>
       </c>
       <c r="SL22" t="s">
-        <v>5161</v>
+        <v>5159</v>
       </c>
       <c r="SM22" t="s">
         <v>3673</v>
       </c>
       <c r="SN22" t="s">
-        <v>5443</v>
+        <v>5441</v>
       </c>
       <c r="TI22" t="s">
         <v>4301</v>
       </c>
       <c r="UO22" t="s">
+        <v>5442</v>
+      </c>
+      <c r="ZT22" t="s">
+        <v>5443</v>
+      </c>
+      <c r="AAA22" t="s">
         <v>5444</v>
-      </c>
-      <c r="ZT22" t="s">
-        <v>5445</v>
-      </c>
-      <c r="AAA22" t="s">
-        <v>5446</v>
       </c>
     </row>
     <row r="23" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ23" t="s">
+        <v>5445</v>
+      </c>
+      <c r="DO23" t="s">
+        <v>5446</v>
+      </c>
+      <c r="DP23" t="s">
         <v>5447</v>
-      </c>
-      <c r="DO23" t="s">
-        <v>5448</v>
-      </c>
-      <c r="DP23" t="s">
-        <v>5449</v>
       </c>
       <c r="DS23" t="s">
         <v>4228</v>
       </c>
       <c r="EB23" t="s">
-        <v>5450</v>
+        <v>5448</v>
       </c>
       <c r="JQ23" t="s">
         <v>4303</v>
       </c>
       <c r="JR23" t="s">
+        <v>5449</v>
+      </c>
+      <c r="SL23" t="s">
+        <v>5199</v>
+      </c>
+      <c r="SM23" t="s">
+        <v>4784</v>
+      </c>
+      <c r="SN23" t="s">
+        <v>5450</v>
+      </c>
+      <c r="TI23" t="s">
         <v>5451</v>
       </c>
-      <c r="SL23" t="s">
-        <v>5201</v>
-      </c>
-      <c r="SM23" t="s">
-        <v>4786</v>
-      </c>
-      <c r="SN23" t="s">
+      <c r="ZT23" t="s">
         <v>5452</v>
       </c>
-      <c r="TI23" t="s">
-        <v>5453</v>
-      </c>
-      <c r="ZT23" t="s">
-        <v>5454</v>
-      </c>
       <c r="AAA23" t="s">
-        <v>5127</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="24" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ24" t="s">
+        <v>5453</v>
+      </c>
+      <c r="DO24" t="s">
+        <v>5454</v>
+      </c>
+      <c r="DP24" t="s">
         <v>5455</v>
-      </c>
-      <c r="DO24" t="s">
-        <v>5456</v>
-      </c>
-      <c r="DP24" t="s">
-        <v>5457</v>
       </c>
       <c r="DS24" t="s">
         <v>4240</v>
       </c>
       <c r="EB24" t="s">
-        <v>5458</v>
+        <v>5456</v>
       </c>
       <c r="JQ24" t="s">
         <v>4305</v>
       </c>
       <c r="JR24" t="s">
+        <v>5457</v>
+      </c>
+      <c r="SL24" t="s">
+        <v>5233</v>
+      </c>
+      <c r="SM24" t="s">
+        <v>4884</v>
+      </c>
+      <c r="SN24" t="s">
+        <v>5458</v>
+      </c>
+      <c r="ZT24" t="s">
         <v>5459</v>
       </c>
-      <c r="SL24" t="s">
-        <v>5235</v>
-      </c>
-      <c r="SM24" t="s">
-        <v>4886</v>
-      </c>
-      <c r="SN24" t="s">
+      <c r="AAA24" t="s">
         <v>5460</v>
-      </c>
-      <c r="ZT24" t="s">
-        <v>5461</v>
-      </c>
-      <c r="AAA24" t="s">
-        <v>5462</v>
       </c>
     </row>
     <row r="25" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ25" t="s">
-        <v>5463</v>
+        <v>5461</v>
       </c>
       <c r="DO25" t="s">
-        <v>5464</v>
+        <v>5462</v>
       </c>
       <c r="DP25" t="s">
         <v>3421</v>
       </c>
       <c r="DS25" t="s">
-        <v>5465</v>
+        <v>5463</v>
       </c>
       <c r="EB25" t="s">
-        <v>5466</v>
+        <v>5464</v>
       </c>
       <c r="JQ25" t="s">
         <v>4307</v>
       </c>
       <c r="JR25" t="s">
+        <v>5465</v>
+      </c>
+      <c r="SL25" t="s">
+        <v>5262</v>
+      </c>
+      <c r="SM25" t="s">
+        <v>4973</v>
+      </c>
+      <c r="ZT25" t="s">
+        <v>5466</v>
+      </c>
+      <c r="AAA25" t="s">
         <v>5467</v>
-      </c>
-      <c r="SL25" t="s">
-        <v>5264</v>
-      </c>
-      <c r="SM25" t="s">
-        <v>4975</v>
-      </c>
-      <c r="ZT25" t="s">
-        <v>5468</v>
-      </c>
-      <c r="AAA25" t="s">
-        <v>5469</v>
       </c>
     </row>
     <row r="26" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ26" t="s">
+        <v>5468</v>
+      </c>
+      <c r="DO26" t="s">
+        <v>5469</v>
+      </c>
+      <c r="DP26" t="s">
+        <v>4596</v>
+      </c>
+      <c r="DS26" t="s">
         <v>5470</v>
       </c>
-      <c r="DO26" t="s">
+      <c r="EB26" t="s">
         <v>5471</v>
-      </c>
-      <c r="DP26" t="s">
-        <v>4597</v>
-      </c>
-      <c r="DS26" t="s">
-        <v>5472</v>
-      </c>
-      <c r="EB26" t="s">
-        <v>5473</v>
       </c>
       <c r="JQ26" t="s">
         <v>4309</v>
       </c>
       <c r="JR26" t="s">
+        <v>5472</v>
+      </c>
+      <c r="SL26" t="s">
+        <v>5287</v>
+      </c>
+      <c r="SM26" t="s">
+        <v>5043</v>
+      </c>
+      <c r="ZT26" t="s">
+        <v>5473</v>
+      </c>
+      <c r="AAA26" t="s">
         <v>5474</v>
-      </c>
-      <c r="SL26" t="s">
-        <v>5289</v>
-      </c>
-      <c r="SM26" t="s">
-        <v>5045</v>
-      </c>
-      <c r="ZT26" t="s">
-        <v>5475</v>
-      </c>
-      <c r="AAA26" t="s">
-        <v>5476</v>
       </c>
     </row>
     <row r="27" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ27" t="s">
-        <v>5477</v>
+        <v>5475</v>
       </c>
       <c r="DP27" t="s">
-        <v>5478</v>
+        <v>5476</v>
       </c>
       <c r="DS27" t="s">
         <v>4259</v>
       </c>
       <c r="EB27" t="s">
-        <v>5479</v>
+        <v>5477</v>
       </c>
       <c r="JQ27" t="s">
         <v>4310</v>
       </c>
       <c r="JR27" t="s">
+        <v>5478</v>
+      </c>
+      <c r="SL27" t="s">
+        <v>5307</v>
+      </c>
+      <c r="SM27" t="s">
+        <v>5107</v>
+      </c>
+      <c r="ZT27" t="s">
+        <v>5479</v>
+      </c>
+      <c r="AAA27" t="s">
         <v>5480</v>
-      </c>
-      <c r="SL27" t="s">
-        <v>5309</v>
-      </c>
-      <c r="SM27" t="s">
-        <v>5109</v>
-      </c>
-      <c r="ZT27" t="s">
-        <v>5481</v>
-      </c>
-      <c r="AAA27" t="s">
-        <v>5482</v>
       </c>
     </row>
     <row r="28" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ28" t="s">
-        <v>5483</v>
+        <v>5481</v>
       </c>
       <c r="DP28" t="s">
-        <v>4600</v>
+        <v>4599</v>
       </c>
       <c r="DS28" t="s">
         <v>4266</v>
@@ -42756,85 +42906,85 @@
         <v>4311</v>
       </c>
       <c r="JR28" t="s">
+        <v>5482</v>
+      </c>
+      <c r="SL28" t="s">
+        <v>5327</v>
+      </c>
+      <c r="SM28" t="s">
+        <v>5160</v>
+      </c>
+      <c r="ZT28" t="s">
+        <v>5483</v>
+      </c>
+      <c r="AAA28" t="s">
         <v>5484</v>
-      </c>
-      <c r="SL28" t="s">
-        <v>5329</v>
-      </c>
-      <c r="SM28" t="s">
-        <v>5162</v>
-      </c>
-      <c r="ZT28" t="s">
-        <v>5485</v>
-      </c>
-      <c r="AAA28" t="s">
-        <v>5486</v>
       </c>
     </row>
     <row r="29" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ29" t="s">
+        <v>5485</v>
+      </c>
+      <c r="DP29" t="s">
+        <v>5486</v>
+      </c>
+      <c r="DS29" t="s">
         <v>5487</v>
-      </c>
-      <c r="DP29" t="s">
-        <v>5488</v>
-      </c>
-      <c r="DS29" t="s">
-        <v>5489</v>
       </c>
       <c r="JQ29" t="s">
         <v>4312</v>
       </c>
       <c r="JR29" t="s">
+        <v>5488</v>
+      </c>
+      <c r="SL29" t="s">
+        <v>5345</v>
+      </c>
+      <c r="SM29" t="s">
+        <v>5200</v>
+      </c>
+      <c r="ZT29" t="s">
+        <v>5489</v>
+      </c>
+      <c r="AAA29" t="s">
         <v>5490</v>
-      </c>
-      <c r="SL29" t="s">
-        <v>5347</v>
-      </c>
-      <c r="SM29" t="s">
-        <v>5202</v>
-      </c>
-      <c r="ZT29" t="s">
-        <v>5491</v>
-      </c>
-      <c r="AAA29" t="s">
-        <v>5492</v>
       </c>
     </row>
     <row r="30" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ30" t="s">
+        <v>5491</v>
+      </c>
+      <c r="DP30" t="s">
+        <v>5492</v>
+      </c>
+      <c r="DS30" t="s">
         <v>5493</v>
-      </c>
-      <c r="DP30" t="s">
-        <v>5494</v>
-      </c>
-      <c r="DS30" t="s">
-        <v>5495</v>
       </c>
       <c r="JQ30" t="s">
         <v>4313</v>
       </c>
       <c r="JR30" t="s">
-        <v>5496</v>
+        <v>5494</v>
       </c>
       <c r="SL30" t="s">
         <v>3672</v>
       </c>
       <c r="SM30" t="s">
-        <v>5236</v>
+        <v>5234</v>
       </c>
       <c r="ZT30" t="s">
-        <v>5497</v>
+        <v>5495</v>
       </c>
       <c r="AAA30" t="s">
-        <v>5498</v>
+        <v>5496</v>
       </c>
     </row>
     <row r="31" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ31" t="s">
-        <v>5499</v>
+        <v>5497</v>
       </c>
       <c r="DP31" t="s">
-        <v>5500</v>
+        <v>5498</v>
       </c>
       <c r="DS31" t="s">
         <v>4279</v>
@@ -42843,648 +42993,648 @@
         <v>4314</v>
       </c>
       <c r="JR31" t="s">
+        <v>5499</v>
+      </c>
+      <c r="SL31" t="s">
+        <v>5361</v>
+      </c>
+      <c r="SM31" t="s">
+        <v>5263</v>
+      </c>
+      <c r="ZT31" t="s">
+        <v>5500</v>
+      </c>
+      <c r="AAA31" t="s">
         <v>5501</v>
-      </c>
-      <c r="SL31" t="s">
-        <v>5363</v>
-      </c>
-      <c r="SM31" t="s">
-        <v>5265</v>
-      </c>
-      <c r="ZT31" t="s">
-        <v>5502</v>
-      </c>
-      <c r="AAA31" t="s">
-        <v>5503</v>
       </c>
     </row>
     <row r="32" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ32" t="s">
+        <v>5502</v>
+      </c>
+      <c r="DP32" t="s">
+        <v>5503</v>
+      </c>
+      <c r="DS32" t="s">
         <v>5504</v>
-      </c>
-      <c r="DP32" t="s">
-        <v>5505</v>
-      </c>
-      <c r="DS32" t="s">
-        <v>5506</v>
       </c>
       <c r="JQ32" t="s">
         <v>4315</v>
       </c>
       <c r="JR32" t="s">
+        <v>5505</v>
+      </c>
+      <c r="SL32" t="s">
+        <v>5378</v>
+      </c>
+      <c r="SM32" t="s">
+        <v>5288</v>
+      </c>
+      <c r="ZT32" t="s">
+        <v>5506</v>
+      </c>
+      <c r="AAA32" t="s">
         <v>5507</v>
-      </c>
-      <c r="SL32" t="s">
-        <v>5380</v>
-      </c>
-      <c r="SM32" t="s">
-        <v>5290</v>
-      </c>
-      <c r="ZT32" t="s">
-        <v>5508</v>
-      </c>
-      <c r="AAA32" t="s">
-        <v>5509</v>
       </c>
     </row>
     <row r="33" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ33" t="s">
-        <v>5510</v>
+        <v>5508</v>
       </c>
       <c r="DP33" t="s">
-        <v>5511</v>
+        <v>5509</v>
       </c>
       <c r="JQ33" t="s">
         <v>4316</v>
       </c>
       <c r="JR33" t="s">
-        <v>5512</v>
+        <v>5510</v>
       </c>
       <c r="SL33" t="s">
         <v>4075</v>
       </c>
       <c r="SM33" t="s">
-        <v>5310</v>
+        <v>5308</v>
       </c>
       <c r="ZT33" t="s">
-        <v>5513</v>
+        <v>5511</v>
       </c>
       <c r="AAA33" t="s">
-        <v>5514</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="34" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ34" t="s">
-        <v>5515</v>
+        <v>5513</v>
       </c>
       <c r="DP34" t="s">
-        <v>5516</v>
+        <v>5514</v>
       </c>
       <c r="JQ34" t="s">
         <v>4317</v>
       </c>
       <c r="JR34" t="s">
+        <v>5515</v>
+      </c>
+      <c r="SL34" t="s">
+        <v>5392</v>
+      </c>
+      <c r="SM34" t="s">
+        <v>5328</v>
+      </c>
+      <c r="ZT34" t="s">
+        <v>5516</v>
+      </c>
+      <c r="AAA34" t="s">
         <v>5517</v>
-      </c>
-      <c r="SL34" t="s">
-        <v>5394</v>
-      </c>
-      <c r="SM34" t="s">
-        <v>5330</v>
-      </c>
-      <c r="ZT34" t="s">
-        <v>5518</v>
-      </c>
-      <c r="AAA34" t="s">
-        <v>5519</v>
       </c>
     </row>
     <row r="35" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ35" t="s">
+        <v>5518</v>
+      </c>
+      <c r="DP35" t="s">
+        <v>5519</v>
+      </c>
+      <c r="JQ35" t="s">
+        <v>4571</v>
+      </c>
+      <c r="JR35" t="s">
         <v>5520</v>
       </c>
-      <c r="DP35" t="s">
+      <c r="SL35" t="s">
+        <v>5407</v>
+      </c>
+      <c r="SM35" t="s">
+        <v>5346</v>
+      </c>
+      <c r="ZT35" t="s">
         <v>5521</v>
       </c>
-      <c r="JQ35" t="s">
-        <v>4572</v>
-      </c>
-      <c r="JR35" t="s">
+      <c r="AAA35" t="s">
         <v>5522</v>
-      </c>
-      <c r="SL35" t="s">
-        <v>5409</v>
-      </c>
-      <c r="SM35" t="s">
-        <v>5348</v>
-      </c>
-      <c r="ZT35" t="s">
-        <v>5523</v>
-      </c>
-      <c r="AAA35" t="s">
-        <v>5524</v>
       </c>
     </row>
     <row r="36" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ36" t="s">
+        <v>5523</v>
+      </c>
+      <c r="DP36" t="s">
+        <v>5524</v>
+      </c>
+      <c r="JQ36" t="s">
         <v>5525</v>
       </c>
-      <c r="DP36" t="s">
+      <c r="JR36" t="s">
         <v>5526</v>
       </c>
-      <c r="JQ36" t="s">
+      <c r="SM36" t="s">
+        <v>5362</v>
+      </c>
+      <c r="ZT36" t="s">
         <v>5527</v>
       </c>
-      <c r="JR36" t="s">
+      <c r="AAA36" t="s">
         <v>5528</v>
-      </c>
-      <c r="SM36" t="s">
-        <v>5364</v>
-      </c>
-      <c r="ZT36" t="s">
-        <v>5529</v>
-      </c>
-      <c r="AAA36" t="s">
-        <v>5530</v>
       </c>
     </row>
     <row r="37" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ37" t="s">
+        <v>5529</v>
+      </c>
+      <c r="JQ37" t="s">
+        <v>5530</v>
+      </c>
+      <c r="JR37" t="s">
         <v>5531</v>
       </c>
-      <c r="JQ37" t="s">
+      <c r="SM37" t="s">
+        <v>5379</v>
+      </c>
+      <c r="ZT37" t="s">
         <v>5532</v>
       </c>
-      <c r="JR37" t="s">
+      <c r="AAA37" t="s">
         <v>5533</v>
-      </c>
-      <c r="SM37" t="s">
-        <v>5381</v>
-      </c>
-      <c r="ZT37" t="s">
-        <v>5534</v>
-      </c>
-      <c r="AAA37" t="s">
-        <v>5535</v>
       </c>
     </row>
     <row r="38" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ38" t="s">
+        <v>5534</v>
+      </c>
+      <c r="JQ38" t="s">
+        <v>5535</v>
+      </c>
+      <c r="JR38" t="s">
         <v>5536</v>
       </c>
-      <c r="JQ38" t="s">
+      <c r="SM38" t="s">
+        <v>5393</v>
+      </c>
+      <c r="ZT38" t="s">
         <v>5537</v>
       </c>
-      <c r="JR38" t="s">
+      <c r="AAA38" t="s">
         <v>5538</v>
-      </c>
-      <c r="SM38" t="s">
-        <v>5395</v>
-      </c>
-      <c r="ZT38" t="s">
-        <v>5539</v>
-      </c>
-      <c r="AAA38" t="s">
-        <v>5540</v>
       </c>
     </row>
     <row r="39" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ39" t="s">
+        <v>5539</v>
+      </c>
+      <c r="JQ39" t="s">
+        <v>5540</v>
+      </c>
+      <c r="JR39" t="s">
         <v>5541</v>
       </c>
-      <c r="JQ39" t="s">
+      <c r="SM39" t="s">
+        <v>5408</v>
+      </c>
+      <c r="ZT39" t="s">
         <v>5542</v>
       </c>
-      <c r="JR39" t="s">
+      <c r="AAA39" t="s">
         <v>5543</v>
-      </c>
-      <c r="SM39" t="s">
-        <v>5410</v>
-      </c>
-      <c r="ZT39" t="s">
-        <v>5544</v>
-      </c>
-      <c r="AAA39" t="s">
-        <v>5545</v>
       </c>
     </row>
     <row r="40" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ40" t="s">
+        <v>5544</v>
+      </c>
+      <c r="JQ40" t="s">
+        <v>5545</v>
+      </c>
+      <c r="JR40" t="s">
         <v>5546</v>
       </c>
-      <c r="JQ40" t="s">
+      <c r="SM40" t="s">
+        <v>5419</v>
+      </c>
+      <c r="ZT40" t="s">
         <v>5547</v>
       </c>
-      <c r="JR40" t="s">
+      <c r="AAA40" t="s">
         <v>5548</v>
-      </c>
-      <c r="SM40" t="s">
-        <v>5421</v>
-      </c>
-      <c r="ZT40" t="s">
-        <v>5549</v>
-      </c>
-      <c r="AAA40" t="s">
-        <v>5550</v>
       </c>
     </row>
     <row r="41" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ41" t="s">
+        <v>5549</v>
+      </c>
+      <c r="JQ41" t="s">
+        <v>5550</v>
+      </c>
+      <c r="JR41" t="s">
         <v>5551</v>
       </c>
-      <c r="JQ41" t="s">
+      <c r="ZT41" t="s">
         <v>5552</v>
       </c>
-      <c r="JR41" t="s">
+      <c r="AAA41" t="s">
         <v>5553</v>
-      </c>
-      <c r="ZT41" t="s">
-        <v>5554</v>
-      </c>
-      <c r="AAA41" t="s">
-        <v>5555</v>
       </c>
     </row>
     <row r="42" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ42" t="s">
+        <v>5554</v>
+      </c>
+      <c r="JQ42" t="s">
+        <v>4578</v>
+      </c>
+      <c r="ZT42" t="s">
+        <v>5555</v>
+      </c>
+      <c r="AAA42" t="s">
         <v>5556</v>
-      </c>
-      <c r="JQ42" t="s">
-        <v>4579</v>
-      </c>
-      <c r="ZT42" t="s">
-        <v>5557</v>
-      </c>
-      <c r="AAA42" t="s">
-        <v>5558</v>
       </c>
     </row>
     <row r="43" spans="69:703" x14ac:dyDescent="0.25">
       <c r="BQ43" t="s">
+        <v>5557</v>
+      </c>
+      <c r="JQ43" t="s">
+        <v>5558</v>
+      </c>
+      <c r="ZT43" t="s">
         <v>5559</v>
       </c>
-      <c r="JQ43" t="s">
+      <c r="AAA43" t="s">
         <v>5560</v>
-      </c>
-      <c r="ZT43" t="s">
-        <v>5561</v>
-      </c>
-      <c r="AAA43" t="s">
-        <v>5562</v>
       </c>
     </row>
     <row r="44" spans="69:703" x14ac:dyDescent="0.25">
       <c r="JQ44" t="s">
+        <v>5561</v>
+      </c>
+      <c r="ZT44" t="s">
+        <v>5562</v>
+      </c>
+      <c r="AAA44" t="s">
         <v>5563</v>
-      </c>
-      <c r="ZT44" t="s">
-        <v>5564</v>
-      </c>
-      <c r="AAA44" t="s">
-        <v>5565</v>
       </c>
     </row>
     <row r="45" spans="69:703" x14ac:dyDescent="0.25">
       <c r="JQ45" t="s">
+        <v>5564</v>
+      </c>
+      <c r="ZT45" t="s">
+        <v>5565</v>
+      </c>
+      <c r="AAA45" t="s">
         <v>5566</v>
-      </c>
-      <c r="ZT45" t="s">
-        <v>5567</v>
-      </c>
-      <c r="AAA45" t="s">
-        <v>5568</v>
       </c>
     </row>
     <row r="46" spans="69:703" x14ac:dyDescent="0.25">
       <c r="JQ46" t="s">
+        <v>5567</v>
+      </c>
+      <c r="ZT46" t="s">
+        <v>5568</v>
+      </c>
+      <c r="AAA46" t="s">
         <v>5569</v>
-      </c>
-      <c r="ZT46" t="s">
-        <v>5570</v>
-      </c>
-      <c r="AAA46" t="s">
-        <v>5571</v>
       </c>
     </row>
     <row r="47" spans="69:703" x14ac:dyDescent="0.25">
       <c r="JQ47" t="s">
-        <v>4583</v>
+        <v>4582</v>
       </c>
       <c r="ZT47" t="s">
-        <v>5572</v>
+        <v>5570</v>
       </c>
       <c r="AAA47" t="s">
-        <v>5573</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="48" spans="69:703" x14ac:dyDescent="0.25">
       <c r="JQ48" t="s">
-        <v>4587</v>
+        <v>4586</v>
       </c>
       <c r="ZT48" t="s">
-        <v>5574</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="49" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ49" t="s">
-        <v>5575</v>
+        <v>5573</v>
       </c>
       <c r="ZT49" t="s">
-        <v>5576</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="50" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ50" t="s">
-        <v>5577</v>
+        <v>5575</v>
       </c>
       <c r="ZT50" t="s">
-        <v>5578</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="51" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ51" t="s">
-        <v>5579</v>
+        <v>5577</v>
       </c>
       <c r="ZT51" t="s">
-        <v>5580</v>
+        <v>5578</v>
       </c>
     </row>
     <row r="52" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ52" t="s">
-        <v>5581</v>
+        <v>5579</v>
       </c>
       <c r="ZT52" t="s">
-        <v>5582</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="53" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ53" t="s">
-        <v>5583</v>
+        <v>5581</v>
       </c>
       <c r="ZT53" t="s">
-        <v>5584</v>
+        <v>5582</v>
       </c>
     </row>
     <row r="54" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ54" t="s">
-        <v>5585</v>
+        <v>5583</v>
       </c>
       <c r="ZT54" t="s">
-        <v>5586</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="55" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ55" t="s">
-        <v>5587</v>
+        <v>5585</v>
       </c>
       <c r="ZT55" t="s">
-        <v>5588</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="56" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ56" t="s">
-        <v>5589</v>
+        <v>5587</v>
       </c>
       <c r="ZT56" t="s">
-        <v>5590</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="57" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ57" t="s">
-        <v>5591</v>
+        <v>5589</v>
       </c>
       <c r="ZT57" t="s">
-        <v>5592</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="58" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ58" t="s">
-        <v>5593</v>
+        <v>5591</v>
       </c>
       <c r="ZT58" t="s">
-        <v>5594</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="59" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ59" t="s">
-        <v>5595</v>
+        <v>5593</v>
       </c>
       <c r="ZT59" t="s">
-        <v>5596</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="60" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ60" t="s">
-        <v>5597</v>
+        <v>5595</v>
       </c>
       <c r="ZT60" t="s">
-        <v>5598</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="61" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ61" t="s">
-        <v>5599</v>
+        <v>5597</v>
       </c>
       <c r="ZT61" t="s">
-        <v>5600</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="62" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ62" t="s">
-        <v>5601</v>
+        <v>5599</v>
       </c>
       <c r="ZT62" t="s">
-        <v>5602</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="63" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ63" t="s">
-        <v>5603</v>
+        <v>5601</v>
       </c>
       <c r="ZT63" t="s">
-        <v>5604</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="64" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ64" t="s">
-        <v>5605</v>
+        <v>5603</v>
       </c>
       <c r="ZT64" t="s">
-        <v>5606</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="65" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ65" t="s">
-        <v>5607</v>
+        <v>5605</v>
       </c>
       <c r="ZT65" t="s">
-        <v>5608</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="66" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ66" t="s">
-        <v>5609</v>
+        <v>5607</v>
       </c>
       <c r="ZT66" t="s">
-        <v>5610</v>
+        <v>5608</v>
       </c>
     </row>
     <row r="67" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ67" t="s">
-        <v>5611</v>
+        <v>5609</v>
       </c>
       <c r="ZT67" t="s">
-        <v>5612</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="68" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ68" t="s">
-        <v>5613</v>
+        <v>5611</v>
       </c>
       <c r="ZT68" t="s">
-        <v>5614</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="69" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ69" t="s">
-        <v>5615</v>
+        <v>5613</v>
       </c>
       <c r="ZT69" t="s">
-        <v>5616</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="70" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ70" t="s">
-        <v>5617</v>
+        <v>5615</v>
       </c>
       <c r="ZT70" t="s">
-        <v>5618</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="71" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ71" t="s">
-        <v>5619</v>
+        <v>5617</v>
       </c>
       <c r="ZT71" t="s">
-        <v>5620</v>
+        <v>5618</v>
       </c>
     </row>
     <row r="72" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ72" t="s">
-        <v>5621</v>
+        <v>5619</v>
       </c>
       <c r="ZT72" t="s">
-        <v>5622</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="73" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ73" t="s">
-        <v>5623</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="74" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ74" t="s">
-        <v>5624</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="75" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ75" t="s">
-        <v>5625</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="76" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ76" t="s">
-        <v>5626</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="77" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ77" t="s">
-        <v>4595</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="78" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ78" t="s">
-        <v>5627</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="79" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ79" t="s">
-        <v>5628</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="80" spans="277:696" x14ac:dyDescent="0.25">
       <c r="JQ80" t="s">
-        <v>5629</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="81" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ81" t="s">
-        <v>5630</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="82" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ82" t="s">
-        <v>5631</v>
+        <v>5629</v>
       </c>
     </row>
     <row r="83" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ83" t="s">
-        <v>5632</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="84" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ84" t="s">
-        <v>5633</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="85" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ85" t="s">
-        <v>5634</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="86" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ86" t="s">
-        <v>5635</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="87" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ87" t="s">
-        <v>5636</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="88" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ88" t="s">
-        <v>5637</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="89" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ89" t="s">
-        <v>5638</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="90" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ90" t="s">
-        <v>5639</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="91" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ91" t="s">
-        <v>5640</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="92" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ92" t="s">
-        <v>5641</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="93" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ93" t="s">
-        <v>5642</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="94" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ94" t="s">
-        <v>5643</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="95" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ95" t="s">
-        <v>5644</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="96" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ96" t="s">
-        <v>5645</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="97" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ97" t="s">
-        <v>5646</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="98" spans="277:277" x14ac:dyDescent="0.25">
       <c r="JQ98" t="s">
-        <v>5647</v>
+        <v>5645</v>
       </c>
     </row>
   </sheetData>
@@ -43494,10 +43644,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43519,7 +43669,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>4571</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -43566,72 +43716,72 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5649</v>
+        <v>5647</v>
       </c>
       <c r="B5" t="s">
-        <v>5668</v>
+        <v>5666</v>
       </c>
       <c r="C5" t="s">
-        <v>5650</v>
+        <v>5648</v>
       </c>
       <c r="D5" t="s">
-        <v>5648</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>5647</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5661</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5650</v>
+      </c>
+      <c r="D6" t="s">
         <v>5649</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5663</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5652</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5651</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5649</v>
+        <v>5647</v>
       </c>
       <c r="B7" t="s">
-        <v>5663</v>
+        <v>5661</v>
       </c>
       <c r="C7" t="s">
-        <v>5654</v>
+        <v>5652</v>
       </c>
       <c r="D7" t="s">
-        <v>5653</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5649</v>
+        <v>5647</v>
       </c>
       <c r="B8" t="s">
-        <v>5669</v>
+        <v>5667</v>
       </c>
       <c r="C8" t="s">
-        <v>5656</v>
+        <v>5654</v>
       </c>
       <c r="D8" t="s">
-        <v>5655</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5649</v>
+        <v>5647</v>
       </c>
       <c r="B9" t="s">
-        <v>5664</v>
+        <v>5662</v>
       </c>
       <c r="C9" t="s">
-        <v>5658</v>
+        <v>5656</v>
       </c>
       <c r="D9" t="s">
-        <v>5657</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -43639,13 +43789,13 @@
         <v>4319</v>
       </c>
       <c r="B10" t="s">
-        <v>5670</v>
+        <v>5668</v>
       </c>
       <c r="C10" t="s">
-        <v>5660</v>
+        <v>5658</v>
       </c>
       <c r="D10" t="s">
-        <v>5659</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -43748,24 +43898,24 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="B18" t="s">
-        <v>5665</v>
+        <v>5663</v>
       </c>
       <c r="C18" t="s">
-        <v>5662</v>
+        <v>5660</v>
       </c>
       <c r="D18" t="s">
-        <v>5661</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="B19" t="s">
-        <v>5666</v>
+        <v>5664</v>
       </c>
       <c r="C19" t="s">
         <v>2381</v>
@@ -43776,10 +43926,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="B20" t="s">
-        <v>5667</v>
+        <v>5665</v>
       </c>
       <c r="C20" t="s">
         <v>2236</v>
@@ -43790,13 +43940,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5671</v>
+        <v>5669</v>
       </c>
       <c r="B21" t="s">
-        <v>5682</v>
+        <v>5680</v>
       </c>
       <c r="C21" t="s">
-        <v>5672</v>
+        <v>5670</v>
       </c>
       <c r="D21" t="s">
         <v>385</v>
@@ -43804,13 +43954,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>5669</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5682</v>
+      </c>
+      <c r="C22" t="s">
         <v>5671</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5684</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5673</v>
       </c>
       <c r="D22" t="s">
         <v>386</v>
@@ -43818,44 +43968,44 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5671</v>
+        <v>5669</v>
       </c>
       <c r="B23" t="s">
-        <v>5680</v>
+        <v>5678</v>
       </c>
       <c r="C23" t="s">
-        <v>5675</v>
+        <v>5673</v>
       </c>
       <c r="D23" t="s">
-        <v>5674</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5671</v>
+        <v>5669</v>
       </c>
       <c r="B24" t="s">
-        <v>5681</v>
+        <v>5679</v>
       </c>
       <c r="C24" t="s">
-        <v>5677</v>
+        <v>5675</v>
       </c>
       <c r="D24" t="s">
-        <v>5676</v>
+        <v>5674</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5671</v>
+        <v>5669</v>
       </c>
       <c r="B25" t="s">
-        <v>5683</v>
+        <v>5681</v>
       </c>
       <c r="C25" t="s">
-        <v>5679</v>
+        <v>5677</v>
       </c>
       <c r="D25" t="s">
-        <v>5678</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -44850,6 +45000,314 @@
       </c>
       <c r="D96" s="3" t="s">
         <v>2401</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>5729</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>5698</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5697</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>5730</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>5700</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5699</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>5730</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>5730</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>5701</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>5730</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>5732</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>5703</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5702</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>5732</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>5705</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5704</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>5729</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>5707</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5706</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>5729</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>5709</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>5729</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>5664</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5712</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>5664</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5714</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>5664</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5716</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>5664</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>5664</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5718</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>5665</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>5665</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>5647</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>5666</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>5721</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>5647</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>5733</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5722</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>5647</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>5731</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>5647</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>5667</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5726</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>5669</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>5681</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5676</v>
       </c>
     </row>
   </sheetData>
@@ -49547,7 +50005,7 @@
         <v>3856</v>
       </c>
       <c r="EA3" t="s">
-        <v>4524</v>
+        <v>4523</v>
       </c>
       <c r="EB3" t="s">
         <v>3857</v>
@@ -49748,19 +50206,19 @@
         <v>3921</v>
       </c>
       <c r="JV3" t="s">
-        <v>4570</v>
+        <v>4569</v>
       </c>
       <c r="JW3" t="s">
+        <v>4620</v>
+      </c>
+      <c r="JX3" t="s">
+        <v>4619</v>
+      </c>
+      <c r="JY3" t="s">
         <v>4621</v>
       </c>
-      <c r="JX3" t="s">
-        <v>4620</v>
-      </c>
-      <c r="JY3" t="s">
+      <c r="KA3" t="s">
         <v>4622</v>
-      </c>
-      <c r="KA3" t="s">
-        <v>4623</v>
       </c>
       <c r="KB3" t="s">
         <v>3922</v>
@@ -49799,7 +50257,7 @@
         <v>3933</v>
       </c>
       <c r="MP3" t="s">
-        <v>4632</v>
+        <v>4631</v>
       </c>
       <c r="MQ3" t="s">
         <v>3934</v>
@@ -50107,7 +50565,7 @@
         <v>4032</v>
       </c>
       <c r="DK4" t="s">
-        <v>4525</v>
+        <v>4524</v>
       </c>
       <c r="DL4" t="s">
         <v>4033</v>
@@ -50116,7 +50574,7 @@
         <v>4034</v>
       </c>
       <c r="DO4" t="s">
-        <v>4526</v>
+        <v>4525</v>
       </c>
       <c r="DP4" t="s">
         <v>4035</v>
@@ -50125,7 +50583,7 @@
         <v>4036</v>
       </c>
       <c r="DS4" t="s">
-        <v>4527</v>
+        <v>4526</v>
       </c>
       <c r="DT4" t="s">
         <v>4037</v>
@@ -50134,7 +50592,7 @@
         <v>4038</v>
       </c>
       <c r="EA4" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="EB4" t="s">
         <v>4039</v>
@@ -50173,7 +50631,7 @@
         <v>4050</v>
       </c>
       <c r="GS4" s="8" t="s">
-        <v>4669</v>
+        <v>4667</v>
       </c>
       <c r="GT4" t="s">
         <v>4051</v>
@@ -50218,7 +50676,7 @@
         <v>4064</v>
       </c>
       <c r="KH4" s="9" t="s">
-        <v>4670</v>
+        <v>4668</v>
       </c>
       <c r="MK4" t="s">
         <v>4065</v>
@@ -50233,7 +50691,7 @@
         <v>4068</v>
       </c>
       <c r="MV4" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
       <c r="NF4" t="s">
         <v>4069</v>
@@ -50352,19 +50810,19 @@
         <v>4106</v>
       </c>
       <c r="DK5" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="DL5" t="s">
         <v>4107</v>
       </c>
       <c r="DO5" t="s">
-        <v>4530</v>
+        <v>4529</v>
       </c>
       <c r="DR5" t="s">
         <v>4108</v>
       </c>
       <c r="DS5" t="s">
-        <v>4531</v>
+        <v>4530</v>
       </c>
       <c r="DT5" t="s">
         <v>4109</v>
@@ -50373,7 +50831,7 @@
         <v>4110</v>
       </c>
       <c r="EA5" t="s">
-        <v>4532</v>
+        <v>4531</v>
       </c>
       <c r="EB5" t="s">
         <v>4111</v>
@@ -50501,19 +50959,19 @@
         <v>4151</v>
       </c>
       <c r="DK6" t="s">
-        <v>4533</v>
+        <v>4532</v>
       </c>
       <c r="DL6" t="s">
         <v>4152</v>
       </c>
       <c r="DO6" t="s">
-        <v>4534</v>
+        <v>4533</v>
       </c>
       <c r="DR6" t="s">
         <v>4153</v>
       </c>
       <c r="DS6" t="s">
-        <v>4535</v>
+        <v>4534</v>
       </c>
       <c r="DT6" t="s">
         <v>4154</v>
@@ -50522,7 +50980,7 @@
         <v>4155</v>
       </c>
       <c r="EA6" t="s">
-        <v>4536</v>
+        <v>4535</v>
       </c>
       <c r="EB6" t="s">
         <v>4156</v>
@@ -50608,19 +51066,19 @@
         <v>4181</v>
       </c>
       <c r="DK7" t="s">
-        <v>4537</v>
+        <v>4536</v>
       </c>
       <c r="DL7" t="s">
         <v>4182</v>
       </c>
       <c r="DO7" t="s">
+        <v>4537</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>4618</v>
+      </c>
+      <c r="DS7" t="s">
         <v>4538</v>
-      </c>
-      <c r="DR7" t="s">
-        <v>4619</v>
-      </c>
-      <c r="DS7" t="s">
-        <v>4539</v>
       </c>
       <c r="DT7" t="s">
         <v>4183</v>
@@ -50629,7 +51087,7 @@
         <v>4184</v>
       </c>
       <c r="EA7" t="s">
-        <v>4540</v>
+        <v>4539</v>
       </c>
       <c r="EB7" t="s">
         <v>4185</v>
@@ -50682,16 +51140,16 @@
         <v>4200</v>
       </c>
       <c r="DK8" t="s">
-        <v>4541</v>
+        <v>4540</v>
       </c>
       <c r="DL8" t="s">
         <v>4201</v>
       </c>
       <c r="DO8" t="s">
+        <v>4541</v>
+      </c>
+      <c r="DS8" t="s">
         <v>4542</v>
-      </c>
-      <c r="DS8" t="s">
-        <v>4543</v>
       </c>
       <c r="DT8" t="s">
         <v>4202</v>
@@ -50700,7 +51158,7 @@
         <v>4203</v>
       </c>
       <c r="EA8" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
       <c r="EB8" t="s">
         <v>4204</v>
@@ -50715,7 +51173,7 @@
         <v>4207</v>
       </c>
       <c r="MR8" t="s">
-        <v>4624</v>
+        <v>4623</v>
       </c>
       <c r="MS8" t="s">
         <v>4208</v>
@@ -50741,16 +51199,16 @@
         <v>4214</v>
       </c>
       <c r="DK9" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
       <c r="DL9" t="s">
         <v>4215</v>
       </c>
       <c r="DO9" t="s">
+        <v>4545</v>
+      </c>
+      <c r="DS9" t="s">
         <v>4546</v>
-      </c>
-      <c r="DS9" t="s">
-        <v>4547</v>
       </c>
       <c r="DT9" t="s">
         <v>4216</v>
@@ -50759,7 +51217,7 @@
         <v>4217</v>
       </c>
       <c r="EA9" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
       <c r="EB9" t="s">
         <v>4218</v>
@@ -50774,7 +51232,7 @@
         <v>4221</v>
       </c>
       <c r="MS9" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="TJ9" t="s">
         <v>4222</v>
@@ -50794,16 +51252,16 @@
         <v>4226</v>
       </c>
       <c r="DK10" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
       <c r="DL10" t="s">
         <v>4227</v>
       </c>
       <c r="DO10" t="s">
+        <v>4549</v>
+      </c>
+      <c r="DS10" t="s">
         <v>4550</v>
-      </c>
-      <c r="DS10" t="s">
-        <v>4551</v>
       </c>
       <c r="DT10" t="s">
         <v>4228</v>
@@ -50812,7 +51270,7 @@
         <v>4229</v>
       </c>
       <c r="EA10" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
       <c r="EB10" t="s">
         <v>4230</v>
@@ -50847,16 +51305,16 @@
         <v>4238</v>
       </c>
       <c r="DK11" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
       <c r="DL11" t="s">
         <v>4239</v>
       </c>
       <c r="DO11" t="s">
+        <v>4553</v>
+      </c>
+      <c r="DS11" t="s">
         <v>4554</v>
-      </c>
-      <c r="DS11" t="s">
-        <v>4555</v>
       </c>
       <c r="DT11" t="s">
         <v>4240</v>
@@ -50865,7 +51323,7 @@
         <v>4241</v>
       </c>
       <c r="EA11" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="JR11" t="s">
         <v>4242</v>
@@ -50877,7 +51335,7 @@
         <v>4244</v>
       </c>
       <c r="MS11" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="TJ11" t="s">
         <v>4245</v>
@@ -50894,16 +51352,16 @@
         <v>4248</v>
       </c>
       <c r="DK12" t="s">
-        <v>4557</v>
+        <v>4556</v>
       </c>
       <c r="DL12" t="s">
         <v>4249</v>
       </c>
       <c r="DO12" t="s">
+        <v>4557</v>
+      </c>
+      <c r="DS12" t="s">
         <v>4558</v>
-      </c>
-      <c r="DS12" t="s">
-        <v>4559</v>
       </c>
       <c r="DT12" t="s">
         <v>4250</v>
@@ -50912,7 +51370,7 @@
         <v>4251</v>
       </c>
       <c r="EA12" t="s">
-        <v>4524</v>
+        <v>4523</v>
       </c>
       <c r="JR12" t="s">
         <v>4252</v>
@@ -50938,16 +51396,16 @@
     </row>
     <row r="13" spans="1:776" x14ac:dyDescent="0.25">
       <c r="DK13" t="s">
-        <v>4560</v>
+        <v>4559</v>
       </c>
       <c r="DL13" t="s">
         <v>4258</v>
       </c>
       <c r="DO13" t="s">
+        <v>4560</v>
+      </c>
+      <c r="DS13" t="s">
         <v>4561</v>
-      </c>
-      <c r="DS13" t="s">
-        <v>4562</v>
       </c>
       <c r="DT13" t="s">
         <v>4259</v>
@@ -50956,7 +51414,7 @@
         <v>4260</v>
       </c>
       <c r="EA13" t="s">
-        <v>4540</v>
+        <v>4539</v>
       </c>
       <c r="JR13" t="s">
         <v>4261</v>
@@ -50976,10 +51434,10 @@
     </row>
     <row r="14" spans="1:776" x14ac:dyDescent="0.25">
       <c r="DK14" t="s">
+        <v>4562</v>
+      </c>
+      <c r="DO14" t="s">
         <v>4563</v>
-      </c>
-      <c r="DO14" t="s">
-        <v>4564</v>
       </c>
       <c r="DT14" t="s">
         <v>4266</v>
@@ -51005,10 +51463,10 @@
     </row>
     <row r="15" spans="1:776" x14ac:dyDescent="0.25">
       <c r="DK15" t="s">
+        <v>4564</v>
+      </c>
+      <c r="DO15" t="s">
         <v>4565</v>
-      </c>
-      <c r="DO15" t="s">
-        <v>4566</v>
       </c>
       <c r="DT15" t="s">
         <v>4273</v>
@@ -51051,7 +51509,7 @@
     </row>
     <row r="17" spans="124:776" x14ac:dyDescent="0.25">
       <c r="DT17" t="s">
-        <v>4567</v>
+        <v>4566</v>
       </c>
       <c r="JR17" t="s">
         <v>4285</v>
@@ -51065,7 +51523,7 @@
     </row>
     <row r="18" spans="124:776" x14ac:dyDescent="0.25">
       <c r="DT18" t="s">
-        <v>4568</v>
+        <v>4567</v>
       </c>
       <c r="JR18" t="s">
         <v>4288</v>
@@ -51079,7 +51537,7 @@
     </row>
     <row r="19" spans="124:776" x14ac:dyDescent="0.25">
       <c r="DT19" t="s">
-        <v>4569</v>
+        <v>4568</v>
       </c>
       <c r="JR19" t="s">
         <v>4291</v>
@@ -51226,7 +51684,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>4571</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -51237,10 +51695,10 @@
         <v>2671</v>
       </c>
       <c r="C2" t="s">
+        <v>4601</v>
+      </c>
+      <c r="D2" t="s">
         <v>4602</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4603</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -51251,7 +51709,7 @@
         <v>2674</v>
       </c>
       <c r="C3" t="s">
-        <v>4612</v>
+        <v>4611</v>
       </c>
       <c r="D3" t="s">
         <v>2377</v>
@@ -51265,10 +51723,10 @@
         <v>2676</v>
       </c>
       <c r="C4" t="s">
+        <v>4606</v>
+      </c>
+      <c r="D4" t="s">
         <v>4607</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4608</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -51279,10 +51737,10 @@
         <v>2677</v>
       </c>
       <c r="C5" t="s">
+        <v>4596</v>
+      </c>
+      <c r="D5" t="s">
         <v>4597</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4598</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -51293,10 +51751,10 @@
         <v>2677</v>
       </c>
       <c r="C6" t="s">
+        <v>4599</v>
+      </c>
+      <c r="D6" t="s">
         <v>4600</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4601</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -51307,7 +51765,7 @@
         <v>2687</v>
       </c>
       <c r="C7" t="s">
-        <v>4606</v>
+        <v>4605</v>
       </c>
       <c r="D7" t="s">
         <v>2225</v>
@@ -51321,10 +51779,10 @@
         <v>2689</v>
       </c>
       <c r="C8" t="s">
+        <v>4603</v>
+      </c>
+      <c r="D8" t="s">
         <v>4604</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4605</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -51335,10 +51793,10 @@
         <v>2833</v>
       </c>
       <c r="C9" t="s">
+        <v>4573</v>
+      </c>
+      <c r="D9" t="s">
         <v>4574</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4575</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -51349,10 +51807,10 @@
         <v>2834</v>
       </c>
       <c r="C10" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D10" t="s">
         <v>4572</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4573</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -51363,7 +51821,7 @@
         <v>2834</v>
       </c>
       <c r="C11" t="s">
-        <v>4579</v>
+        <v>4578</v>
       </c>
       <c r="D11" t="s">
         <v>2520</v>
@@ -51377,10 +51835,10 @@
         <v>2834</v>
       </c>
       <c r="C12" t="s">
+        <v>4582</v>
+      </c>
+      <c r="D12" t="s">
         <v>4583</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4584</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -51391,10 +51849,10 @@
         <v>2834</v>
       </c>
       <c r="C13" t="s">
+        <v>4586</v>
+      </c>
+      <c r="D13" t="s">
         <v>4587</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4588</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -51405,10 +51863,10 @@
         <v>2834</v>
       </c>
       <c r="C14" t="s">
+        <v>4594</v>
+      </c>
+      <c r="D14" t="s">
         <v>4595</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4596</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -51419,10 +51877,10 @@
         <v>2834</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>4572</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>4573</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -51433,10 +51891,10 @@
         <v>2833</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>4573</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>4574</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>4575</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -51447,63 +51905,63 @@
         <v>2835</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>4616</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>4617</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>4618</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="B18" t="s">
         <v>3065</v>
       </c>
       <c r="C18" t="s">
+        <v>4576</v>
+      </c>
+      <c r="D18" t="s">
         <v>4577</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4578</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="B19" t="s">
         <v>3065</v>
       </c>
       <c r="C19" t="s">
+        <v>4588</v>
+      </c>
+      <c r="D19" t="s">
         <v>4589</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4590</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="B20" t="s">
         <v>3065</v>
       </c>
       <c r="C20" t="s">
+        <v>4592</v>
+      </c>
+      <c r="D20" t="s">
         <v>4593</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4594</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="B21" t="s">
         <v>3065</v>
       </c>
       <c r="C21" t="s">
-        <v>4599</v>
+        <v>4598</v>
       </c>
       <c r="D21" t="s">
         <v>2547</v>
@@ -51511,13 +51969,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="B22" t="s">
         <v>3073</v>
       </c>
       <c r="C22" t="s">
-        <v>4613</v>
+        <v>4612</v>
       </c>
       <c r="D22" t="s">
         <v>2380</v>
@@ -51525,83 +51983,83 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="B23" t="s">
         <v>3085</v>
       </c>
       <c r="C23" t="s">
+        <v>4608</v>
+      </c>
+      <c r="D23" t="s">
         <v>4609</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4610</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="B24" t="s">
         <v>3085</v>
       </c>
       <c r="C24" t="s">
+        <v>4614</v>
+      </c>
+      <c r="D24" t="s">
         <v>4615</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4616</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="B25" t="s">
         <v>3090</v>
       </c>
       <c r="C25" t="s">
+        <v>4580</v>
+      </c>
+      <c r="D25" t="s">
         <v>4581</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4582</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="B26" t="s">
         <v>3090</v>
       </c>
       <c r="C26" t="s">
+        <v>4590</v>
+      </c>
+      <c r="D26" t="s">
         <v>4591</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4592</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="B27" t="s">
         <v>3093</v>
       </c>
       <c r="C27" t="s">
+        <v>4584</v>
+      </c>
+      <c r="D27" t="s">
         <v>4585</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4586</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="B28" t="s">
         <v>3093</v>
       </c>
       <c r="C28" t="s">
-        <v>4611</v>
+        <v>4610</v>
       </c>
       <c r="D28" t="s">
         <v>2383</v>
@@ -51609,7 +52067,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4614</v>
+        <v>4613</v>
       </c>
       <c r="B29" t="s">
         <v>3235</v>
@@ -51629,10 +52087,10 @@
         <v>2834</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>4572</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>4573</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -51643,10 +52101,10 @@
         <v>2834</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>4628</v>
+        <v>4627</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -51671,10 +52129,10 @@
         <v>2835</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>4618</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -51685,7 +52143,7 @@
         <v>2688</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>4630</v>
+        <v>4629</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>460</v>
@@ -51713,7 +52171,7 @@
         <v>2679</v>
       </c>
       <c r="C36" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>2305</v>
@@ -51731,16 +52189,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -51753,10 +52211,10 @@
         <v>4318</v>
       </c>
       <c r="C1" t="s">
+        <v>4521</v>
+      </c>
+      <c r="D1" t="s">
         <v>4522</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4523</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -52369,10 +52827,10 @@
         <v>2834</v>
       </c>
       <c r="C45" t="s">
-        <v>4452</v>
+        <v>2144</v>
       </c>
       <c r="D45" t="s">
-        <v>4453</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -52383,10 +52841,10 @@
         <v>2834</v>
       </c>
       <c r="C46" t="s">
-        <v>2144</v>
+        <v>4453</v>
       </c>
       <c r="D46" t="s">
-        <v>2145</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -52397,10 +52855,10 @@
         <v>2834</v>
       </c>
       <c r="C47" t="s">
-        <v>4454</v>
+        <v>2436</v>
       </c>
       <c r="D47" t="s">
-        <v>4455</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -52411,10 +52869,10 @@
         <v>2834</v>
       </c>
       <c r="C48" t="s">
-        <v>2436</v>
+        <v>4455</v>
       </c>
       <c r="D48" t="s">
-        <v>2437</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -52425,10 +52883,10 @@
         <v>2834</v>
       </c>
       <c r="C49" t="s">
-        <v>4456</v>
+        <v>2250</v>
       </c>
       <c r="D49" t="s">
-        <v>4457</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -52439,10 +52897,10 @@
         <v>2834</v>
       </c>
       <c r="C50" t="s">
-        <v>2250</v>
+        <v>2196</v>
       </c>
       <c r="D50" t="s">
-        <v>2251</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -52453,10 +52911,10 @@
         <v>2834</v>
       </c>
       <c r="C51" t="s">
-        <v>2196</v>
+        <v>2104</v>
       </c>
       <c r="D51" t="s">
-        <v>2197</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -52464,13 +52922,13 @@
         <v>4415</v>
       </c>
       <c r="B52" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="C52" t="s">
-        <v>2104</v>
+        <v>4457</v>
       </c>
       <c r="D52" t="s">
-        <v>2105</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -52484,7 +52942,7 @@
         <v>4458</v>
       </c>
       <c r="D53" t="s">
-        <v>2480</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -52498,7 +52956,7 @@
         <v>4459</v>
       </c>
       <c r="D54" t="s">
-        <v>2173</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -52509,10 +52967,10 @@
         <v>2835</v>
       </c>
       <c r="C55" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="D55" t="s">
-        <v>4461</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -52523,10 +52981,10 @@
         <v>2835</v>
       </c>
       <c r="C56" t="s">
-        <v>4462</v>
+        <v>2542</v>
       </c>
       <c r="D56" t="s">
-        <v>2275</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -52537,10 +52995,10 @@
         <v>2835</v>
       </c>
       <c r="C57" t="s">
-        <v>2542</v>
+        <v>4462</v>
       </c>
       <c r="D57" t="s">
-        <v>2544</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -52551,10 +53009,10 @@
         <v>2835</v>
       </c>
       <c r="C58" t="s">
-        <v>4463</v>
+        <v>2473</v>
       </c>
       <c r="D58" t="s">
-        <v>4464</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -52565,10 +53023,10 @@
         <v>2835</v>
       </c>
       <c r="C59" t="s">
-        <v>2473</v>
+        <v>2128</v>
       </c>
       <c r="D59" t="s">
-        <v>2474</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -52579,10 +53037,10 @@
         <v>2835</v>
       </c>
       <c r="C60" t="s">
-        <v>2128</v>
+        <v>2452</v>
       </c>
       <c r="D60" t="s">
-        <v>2129</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -52593,10 +53051,10 @@
         <v>2835</v>
       </c>
       <c r="C61" t="s">
-        <v>2452</v>
+        <v>4464</v>
       </c>
       <c r="D61" t="s">
-        <v>2454</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -52607,10 +53065,10 @@
         <v>2835</v>
       </c>
       <c r="C62" t="s">
-        <v>4465</v>
+        <v>2216</v>
       </c>
       <c r="D62" t="s">
-        <v>2311</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -52621,10 +53079,10 @@
         <v>2835</v>
       </c>
       <c r="C63" t="s">
-        <v>2216</v>
+        <v>2182</v>
       </c>
       <c r="D63" t="s">
-        <v>2217</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -52635,10 +53093,10 @@
         <v>2835</v>
       </c>
       <c r="C64" t="s">
-        <v>2182</v>
+        <v>4465</v>
       </c>
       <c r="D64" t="s">
-        <v>2183</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -52649,10 +53107,10 @@
         <v>2835</v>
       </c>
       <c r="C65" t="s">
-        <v>4466</v>
+        <v>2516</v>
       </c>
       <c r="D65" t="s">
-        <v>2119</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -52663,10 +53121,10 @@
         <v>2835</v>
       </c>
       <c r="C66" t="s">
-        <v>2516</v>
+        <v>4466</v>
       </c>
       <c r="D66" t="s">
-        <v>2509</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -52674,13 +53132,13 @@
         <v>4415</v>
       </c>
       <c r="B67" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="C67" t="s">
-        <v>4467</v>
+        <v>2536</v>
       </c>
       <c r="D67" t="s">
-        <v>4468</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -52691,10 +53149,10 @@
         <v>2836</v>
       </c>
       <c r="C68" t="s">
-        <v>2536</v>
+        <v>4468</v>
       </c>
       <c r="D68" t="s">
-        <v>2538</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -52708,7 +53166,7 @@
         <v>4469</v>
       </c>
       <c r="D69" t="s">
-        <v>2287</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -52722,7 +53180,7 @@
         <v>4470</v>
       </c>
       <c r="D70" t="s">
-        <v>2291</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -52730,88 +53188,88 @@
         <v>4415</v>
       </c>
       <c r="B71" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="C71" t="s">
-        <v>4471</v>
+        <v>2184</v>
       </c>
       <c r="D71" t="s">
-        <v>4472</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>4415</v>
+        <v>4472</v>
       </c>
       <c r="B72" t="s">
-        <v>2837</v>
+        <v>2954</v>
       </c>
       <c r="C72" t="s">
-        <v>2184</v>
+        <v>4473</v>
       </c>
       <c r="D72" t="s">
-        <v>2185</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="B73" t="s">
-        <v>2954</v>
+        <v>2978</v>
       </c>
       <c r="C73" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="D73" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="B74" t="s">
-        <v>2978</v>
+        <v>2989</v>
       </c>
       <c r="C74" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
       <c r="D74" t="s">
-        <v>4477</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>4473</v>
+        <v>4478</v>
       </c>
       <c r="B75" t="s">
-        <v>2989</v>
+        <v>3085</v>
       </c>
       <c r="C75" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="D75" t="s">
-        <v>2541</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B76" t="s">
         <v>3085</v>
       </c>
       <c r="C76" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="D76" t="s">
-        <v>4481</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B77" t="s">
         <v>3085</v>
@@ -52820,26 +53278,26 @@
         <v>4482</v>
       </c>
       <c r="D77" t="s">
-        <v>2359</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B78" t="s">
         <v>3085</v>
       </c>
       <c r="C78" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="D78" t="s">
-        <v>4484</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B79" t="s">
         <v>3085</v>
@@ -52848,12 +53306,12 @@
         <v>4485</v>
       </c>
       <c r="D79" t="s">
-        <v>2329</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B80" t="s">
         <v>3085</v>
@@ -52862,54 +53320,54 @@
         <v>4486</v>
       </c>
       <c r="D80" t="s">
-        <v>2362</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B81" t="s">
         <v>3085</v>
       </c>
       <c r="C81" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="D81" t="s">
-        <v>4488</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B82" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="C82" t="s">
         <v>4489</v>
       </c>
       <c r="D82" t="s">
-        <v>2552</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B83" t="s">
         <v>3086</v>
       </c>
       <c r="C83" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="D83" t="s">
-        <v>4491</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B84" t="s">
         <v>3086</v>
@@ -52918,12 +53376,12 @@
         <v>4492</v>
       </c>
       <c r="D84" t="s">
-        <v>2338</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B85" t="s">
         <v>3086</v>
@@ -52932,12 +53390,12 @@
         <v>4493</v>
       </c>
       <c r="D85" t="s">
-        <v>2341</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B86" t="s">
         <v>3086</v>
@@ -52946,12 +53404,12 @@
         <v>4494</v>
       </c>
       <c r="D86" t="s">
-        <v>2171</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B87" t="s">
         <v>3086</v>
@@ -52960,124 +53418,124 @@
         <v>4495</v>
       </c>
       <c r="D87" t="s">
-        <v>2356</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B88" t="s">
         <v>3086</v>
       </c>
       <c r="C88" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="D88" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B89" t="s">
         <v>3086</v>
       </c>
       <c r="C89" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="D89" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B90" t="s">
         <v>3086</v>
       </c>
       <c r="C90" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="D90" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B91" t="s">
         <v>3086</v>
       </c>
       <c r="C91" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="D91" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B92" t="s">
-        <v>3086</v>
+        <v>3088</v>
       </c>
       <c r="C92" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="D92" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B93" t="s">
-        <v>3088</v>
+        <v>3091</v>
       </c>
       <c r="C93" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="D93" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B94" t="s">
         <v>3091</v>
       </c>
       <c r="C94" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="D94" t="s">
-        <v>4509</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B95" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="C95" t="s">
         <v>4510</v>
       </c>
       <c r="D95" t="s">
-        <v>2353</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B96" t="s">
         <v>3090</v>
@@ -53086,12 +53544,12 @@
         <v>4511</v>
       </c>
       <c r="D96" t="s">
-        <v>2323</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B97" t="s">
         <v>3090</v>
@@ -53100,12 +53558,12 @@
         <v>4512</v>
       </c>
       <c r="D97" t="s">
-        <v>2374</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B98" t="s">
         <v>3090</v>
@@ -53114,26 +53572,26 @@
         <v>4513</v>
       </c>
       <c r="D98" t="s">
-        <v>2326</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B99" t="s">
         <v>3090</v>
       </c>
       <c r="C99" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="D99" t="s">
-        <v>4515</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B100" t="s">
         <v>3090</v>
@@ -53142,26 +53600,26 @@
         <v>4516</v>
       </c>
       <c r="D100" t="s">
-        <v>2335</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B101" t="s">
         <v>3090</v>
       </c>
       <c r="C101" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="D101" t="s">
-        <v>4518</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B102" t="s">
         <v>3090</v>
@@ -53170,424 +53628,424 @@
         <v>4519</v>
       </c>
       <c r="D102" t="s">
-        <v>2555</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B103" t="s">
-        <v>3090</v>
+        <v>3093</v>
       </c>
       <c r="C103" t="s">
         <v>4520</v>
       </c>
       <c r="D103" t="s">
-        <v>2371</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B104" t="s">
         <v>3093</v>
       </c>
       <c r="C104" t="s">
-        <v>4521</v>
+        <v>2367</v>
       </c>
       <c r="D104" t="s">
-        <v>2344</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B105" t="s">
-        <v>3093</v>
+        <v>3085</v>
       </c>
       <c r="C105" t="s">
-        <v>2367</v>
+        <v>2469</v>
       </c>
       <c r="D105" t="s">
-        <v>2368</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B106" t="s">
         <v>3085</v>
       </c>
       <c r="C106" t="s">
-        <v>2469</v>
+        <v>282</v>
       </c>
       <c r="D106" t="s">
-        <v>2470</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B107" t="s">
         <v>3085</v>
       </c>
       <c r="C107" t="s">
-        <v>282</v>
+        <v>2252</v>
       </c>
       <c r="D107" t="s">
-        <v>4633</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B108" t="s">
         <v>3085</v>
       </c>
       <c r="C108" t="s">
-        <v>2252</v>
+        <v>2256</v>
       </c>
       <c r="D108" t="s">
-        <v>2253</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B109" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="C109" t="s">
-        <v>2256</v>
+        <v>2426</v>
       </c>
       <c r="D109" t="s">
-        <v>2257</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B110" t="s">
         <v>3086</v>
       </c>
       <c r="C110" t="s">
-        <v>2426</v>
+        <v>2429</v>
       </c>
       <c r="D110" t="s">
-        <v>2425</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B111" t="s">
         <v>3086</v>
       </c>
       <c r="C111" t="s">
-        <v>2429</v>
+        <v>2110</v>
       </c>
       <c r="D111" t="s">
-        <v>2428</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B112" t="s">
         <v>3086</v>
       </c>
       <c r="C112" t="s">
-        <v>2110</v>
+        <v>2126</v>
       </c>
       <c r="D112" t="s">
-        <v>2111</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B113" t="s">
         <v>3086</v>
       </c>
       <c r="C113" t="s">
-        <v>2126</v>
+        <v>4633</v>
       </c>
       <c r="D113" t="s">
-        <v>2127</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B114" t="s">
         <v>3086</v>
       </c>
       <c r="C114" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
       <c r="D114" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B115" t="s">
         <v>3086</v>
       </c>
       <c r="C115" t="s">
-        <v>4636</v>
+        <v>2467</v>
       </c>
       <c r="D115" t="s">
-        <v>4637</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B116" t="s">
         <v>3086</v>
       </c>
       <c r="C116" t="s">
-        <v>2467</v>
+        <v>4637</v>
       </c>
       <c r="D116" t="s">
-        <v>2468</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B117" t="s">
         <v>3086</v>
       </c>
       <c r="C117" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
       <c r="D117" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B118" t="s">
-        <v>3086</v>
+        <v>3089</v>
       </c>
       <c r="C118" t="s">
-        <v>4640</v>
+        <v>1298</v>
       </c>
       <c r="D118" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>4641</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>4479</v>
-      </c>
-      <c r="B119" t="s">
-        <v>3089</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D119" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>4479</v>
+      <c r="D119" s="6" t="s">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>4478</v>
       </c>
       <c r="B120" t="s">
         <v>3090</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>4642</v>
-      </c>
-      <c r="D120" s="6" t="s">
+      <c r="C120" t="s">
         <v>4643</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4644</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B121" t="s">
         <v>3090</v>
       </c>
       <c r="C121" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
       <c r="D121" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B122" t="s">
         <v>3090</v>
       </c>
       <c r="C122" t="s">
-        <v>4646</v>
+        <v>2463</v>
       </c>
       <c r="D122" t="s">
-        <v>4647</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B123" t="s">
         <v>3090</v>
       </c>
       <c r="C123" t="s">
-        <v>2463</v>
+        <v>4647</v>
       </c>
       <c r="D123" t="s">
-        <v>2464</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B124" t="s">
         <v>3090</v>
       </c>
       <c r="C124" t="s">
-        <v>4648</v>
+        <v>2258</v>
       </c>
       <c r="D124" t="s">
-        <v>4649</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B125" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="C125" t="s">
-        <v>2258</v>
+        <v>4649</v>
       </c>
       <c r="D125" t="s">
-        <v>2259</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B126" t="s">
         <v>3091</v>
       </c>
       <c r="C126" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
       <c r="D126" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B127" t="s">
         <v>3091</v>
       </c>
       <c r="C127" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
       <c r="D127" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B128" t="s">
         <v>3091</v>
       </c>
       <c r="C128" t="s">
-        <v>4654</v>
+        <v>322</v>
       </c>
       <c r="D128" t="s">
-        <v>4655</v>
+        <v>673</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B129" t="s">
-        <v>3091</v>
+        <v>3093</v>
       </c>
       <c r="C129" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D129" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B130" t="s">
         <v>3093</v>
       </c>
       <c r="C130" t="s">
-        <v>325</v>
+        <v>4655</v>
       </c>
       <c r="D130" t="s">
-        <v>676</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B131" t="s">
         <v>3093</v>
       </c>
       <c r="C131" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
       <c r="D131" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B132" t="s">
         <v>3093</v>
       </c>
       <c r="C132" t="s">
-        <v>4658</v>
+        <v>4452</v>
       </c>
       <c r="D132" t="s">
         <v>4659</v>
@@ -53595,10 +54053,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B133" t="s">
-        <v>3093</v>
+        <v>3086</v>
       </c>
       <c r="C133" t="s">
         <v>4660</v>
@@ -53609,10 +54067,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>4479</v>
+        <v>4415</v>
       </c>
       <c r="B134" t="s">
-        <v>3086</v>
+        <v>2834</v>
       </c>
       <c r="C134" t="s">
         <v>4662</v>
@@ -53623,297 +54081,294 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>4415</v>
+        <v>4664</v>
       </c>
       <c r="B135" t="s">
-        <v>2834</v>
+        <v>3154</v>
       </c>
       <c r="C135" t="s">
-        <v>4664</v>
+        <v>4665</v>
       </c>
       <c r="D135" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>4666</v>
+        <v>4478</v>
       </c>
       <c r="B136" t="s">
-        <v>3154</v>
+        <v>3085</v>
       </c>
       <c r="C136" t="s">
-        <v>4667</v>
-      </c>
-      <c r="D136" t="s">
-        <v>4668</v>
+        <v>282</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B137" t="s">
         <v>3085</v>
       </c>
       <c r="C137" t="s">
-        <v>282</v>
+        <v>5683</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B138" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="C138" t="s">
-        <v>5685</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B139" t="s">
         <v>3086</v>
       </c>
       <c r="C139" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B140" t="s">
         <v>3086</v>
       </c>
       <c r="C140" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B141" t="s">
         <v>3086</v>
       </c>
       <c r="C141" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B142" t="s">
         <v>3086</v>
       </c>
       <c r="C142" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B143" t="s">
         <v>3086</v>
       </c>
       <c r="C143" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B144" t="s">
         <v>3086</v>
       </c>
       <c r="C144" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B145" t="s">
         <v>3086</v>
       </c>
       <c r="C145" t="s">
-        <v>298</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B146" t="s">
         <v>3086</v>
       </c>
       <c r="C146" t="s">
-        <v>5686</v>
+        <v>299</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B147" t="s">
         <v>3086</v>
       </c>
       <c r="C147" t="s">
-        <v>299</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B148" t="s">
         <v>3086</v>
       </c>
       <c r="C148" t="s">
-        <v>5687</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B149" t="s">
         <v>3086</v>
       </c>
       <c r="C149" t="s">
-        <v>5688</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B150" t="s">
         <v>3086</v>
       </c>
       <c r="C150" t="s">
-        <v>5689</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B151" t="s">
         <v>3086</v>
       </c>
       <c r="C151" t="s">
-        <v>5690</v>
+        <v>5689</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B152" t="s">
         <v>3086</v>
       </c>
       <c r="C152" t="s">
-        <v>5691</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B153" t="s">
         <v>3086</v>
       </c>
       <c r="C153" t="s">
-        <v>5692</v>
+        <v>318</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B154" t="s">
         <v>3086</v>
       </c>
       <c r="C154" t="s">
-        <v>318</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B155" t="s">
         <v>3086</v>
       </c>
       <c r="C155" t="s">
-        <v>5693</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B156" t="s">
         <v>3086</v>
       </c>
       <c r="C156" t="s">
-        <v>2465</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B157" t="s">
         <v>3086</v>
       </c>
       <c r="C157" t="s">
-        <v>2228</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B158" t="s">
         <v>3086</v>
       </c>
       <c r="C158" t="s">
-        <v>5694</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B159" t="s">
         <v>3086</v>
       </c>
       <c r="C159" t="s">
-        <v>4433</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>4479</v>
+        <v>4415</v>
       </c>
       <c r="B160" t="s">
-        <v>3086</v>
+        <v>2835</v>
       </c>
       <c r="C160" t="s">
-        <v>5695</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5694</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>4415</v>
       </c>
@@ -53921,34 +54376,179 @@
         <v>2835</v>
       </c>
       <c r="C161" t="s">
-        <v>5696</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5695</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>4415</v>
       </c>
       <c r="B162" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="C162" t="s">
-        <v>5697</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5696</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>4415</v>
+        <v>4478</v>
       </c>
       <c r="B163" t="s">
-        <v>2834</v>
+        <v>3091</v>
       </c>
       <c r="C163" t="s">
-        <v>5698</v>
+        <v>5734</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5738</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5737</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5738</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4610</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5739</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4608</v>
+      </c>
+      <c r="D168" t="s">
+        <v>4609</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5740</v>
+      </c>
+      <c r="C169" t="s">
+        <v>4580</v>
+      </c>
+      <c r="D169" t="s">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5741</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5738</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4584</v>
+      </c>
+      <c r="D171" t="s">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5740</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4590</v>
+      </c>
+      <c r="D172" t="s">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5740</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5742</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5743</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D163"/>
-  <conditionalFormatting sqref="D232:D1048576 D1:D163">
+  <autoFilter ref="A1:D162"/>
+  <conditionalFormatting sqref="D231:D1048576 D1:D162">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DMP/Report/Template/ART sites.xlsx
+++ b/DMP/Report/Template/ART sites.xlsx
@@ -15,12 +15,13 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="OriginalRADETFacilities" sheetId="5" r:id="rId2"/>
     <sheet name="APIN_Extra" sheetId="6" r:id="rId3"/>
-    <sheet name="Old_OriginalRADETFacilities" sheetId="2" r:id="rId4"/>
+    <sheet name="Old_OriginalRADETFacilities" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="CCFN_Extra" sheetId="4" r:id="rId5"/>
     <sheet name="IHVN_Extra" sheetId="3" r:id="rId6"/>
+    <sheet name="CIHP_Extra" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">IHVN_Extra!$A$1:$D$163</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11042" uniqueCount="5988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11099" uniqueCount="6018">
   <si>
     <t>Facility</t>
   </si>
@@ -18004,13 +18005,103 @@
   </si>
   <si>
     <t>zfdD2sjZ6zu</t>
+  </si>
+  <si>
+    <t>Emmanuella Clinic</t>
+  </si>
+  <si>
+    <t>Primary Health Centre Doma Town</t>
+  </si>
+  <si>
+    <t>Catholic Maternity and Rural Health Center -Agwatashi</t>
+  </si>
+  <si>
+    <t>Akwanga Primary Health Care Center</t>
+  </si>
+  <si>
+    <t>Wadata Primary Health center</t>
+  </si>
+  <si>
+    <t>Kwandere Primary Health Center</t>
+  </si>
+  <si>
+    <t>Gidan Buba Primary Health Care Center</t>
+  </si>
+  <si>
+    <t>na Akwanga</t>
+  </si>
+  <si>
+    <t>fc Kwali</t>
+  </si>
+  <si>
+    <t>VQNCQLUsMpe</t>
+  </si>
+  <si>
+    <t>ru4E5BfLsib</t>
+  </si>
+  <si>
+    <t>bAmNuqe1QtM</t>
+  </si>
+  <si>
+    <t>OHu3MeJ3B6V</t>
+  </si>
+  <si>
+    <t>Jj4IO088cM3</t>
+  </si>
+  <si>
+    <t>PKIGGA1CoX9</t>
+  </si>
+  <si>
+    <t>Kaduna</t>
+  </si>
+  <si>
+    <t>yR3KYnURaLT</t>
+  </si>
+  <si>
+    <t>kd Jema'a</t>
+  </si>
+  <si>
+    <t>Kundu Primary Health Care Centre</t>
+  </si>
+  <si>
+    <t>Nassarrawa</t>
+  </si>
+  <si>
+    <t>Bakin Rijiya Primary Health Center</t>
+  </si>
+  <si>
+    <t>be Vandeikya KP One Stop Shop - Virtual</t>
+  </si>
+  <si>
+    <t>be Vandeikya</t>
+  </si>
+  <si>
+    <t>uYCM5I1Rh34</t>
+  </si>
+  <si>
+    <t>Mgbara Primary Health Center</t>
+  </si>
+  <si>
+    <t>Ezioha Amaifeke Health Centre</t>
+  </si>
+  <si>
+    <t>Okwelle Primary Health Center</t>
+  </si>
+  <si>
+    <t>im Unuimo</t>
+  </si>
+  <si>
+    <t>Evangelical Reformed Church of Christ(ERCC)Clinic-Keffi</t>
+  </si>
+  <si>
+    <t>na Keffi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18068,6 +18159,13 @@
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -18090,7 +18188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -18104,6 +18202,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18569,8 +18668,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E1171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1159" workbookViewId="0">
-      <selection activeCell="B1173" sqref="B1173"/>
+    <sheetView tabSelected="1" topLeftCell="A1150" workbookViewId="0">
+      <selection activeCell="B1150" sqref="B1150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34987,9 +35086,6 @@
     <sortCondition ref="A2:A994"/>
     <sortCondition ref="B2:B994"/>
   </sortState>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34998,8 +35094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACT98"/>
   <sheetViews>
-    <sheetView topLeftCell="JJ1" workbookViewId="0">
-      <selection activeCell="JL1" sqref="JL1"/>
+    <sheetView topLeftCell="TH1" workbookViewId="0">
+      <selection activeCell="TK1" sqref="TK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44433,15 +44529,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="60.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
@@ -46197,15 +46293,30 @@
         <v>5806</v>
       </c>
     </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6010</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>6011</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D24:D94">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  <conditionalFormatting sqref="D1:D125 D127:D1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -52552,10 +52663,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -54457,6 +54568,39 @@
         <v>5987</v>
       </c>
     </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>5751</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5952</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6012</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>5751</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5963</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6013</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>5751</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6015</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6014</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D27">
     <sortCondition ref="A2:A27"/>
@@ -54464,7 +54608,7 @@
     <sortCondition ref="C2:C27"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54472,10 +54616,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56843,12 +56987,189 @@
         <v>5740</v>
       </c>
     </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5737</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5988</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5736</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5989</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5735</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D178" t="s">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5995</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D179" t="s">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5996</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5737</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D181" t="s">
+        <v>5997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5737</v>
+      </c>
+      <c r="C182" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D182" t="s">
+        <v>5998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5737</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D183" t="s">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>6007</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5737</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>6007</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6017</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6016</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D163"/>
-  <conditionalFormatting sqref="D232:D1048576 D1:D163">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="D231:D1048576 D1:D163">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4519</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6005</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4629</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DMP/Report/Template/ART sites.xlsx
+++ b/DMP/Report/Template/ART sites.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7940" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">IHVN_Extra!$A$1:$D$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">IHVN_Extra!$A$1:$D$162</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$2:$E$984</definedName>
     <definedName name="Faclist">INDEX([1]!LGAFac[#Data],,MATCH(LGA,LGAFac_list,0))</definedName>
     <definedName name="LGA">[1]MainPage!$S$17</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11099" uniqueCount="6018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11152" uniqueCount="6046">
   <si>
     <t>Facility</t>
   </si>
@@ -18064,9 +18064,6 @@
     <t>Kundu Primary Health Care Centre</t>
   </si>
   <si>
-    <t>Nassarrawa</t>
-  </si>
-  <si>
     <t>Bakin Rijiya Primary Health Center</t>
   </si>
   <si>
@@ -18095,6 +18092,93 @@
   </si>
   <si>
     <t>na Keffi</t>
+  </si>
+  <si>
+    <t>Duduguru Primary Health Center</t>
+  </si>
+  <si>
+    <t>Fadama North Primary Health center</t>
+  </si>
+  <si>
+    <t>Fadama South Primary Health Care Center</t>
+  </si>
+  <si>
+    <t>Agyema Primary Health Center</t>
+  </si>
+  <si>
+    <t>Akaleku Primary Health Center</t>
+  </si>
+  <si>
+    <t>Igbabo Primary Health Center</t>
+  </si>
+  <si>
+    <t>Mararaba Akunza Primary Health Center</t>
+  </si>
+  <si>
+    <t>Ome Primary Health Center</t>
+  </si>
+  <si>
+    <t>Yelwa Primary Health Center (Doma)</t>
+  </si>
+  <si>
+    <t>Gwadenye Primary Health Center</t>
+  </si>
+  <si>
+    <t>Angbashi Primary Health Center</t>
+  </si>
+  <si>
+    <t>Agudu Primary Health center</t>
+  </si>
+  <si>
+    <t>GCcO69CpYwL</t>
+  </si>
+  <si>
+    <t>eQRGVlBfDWl</t>
+  </si>
+  <si>
+    <t>XjiIk618XYq</t>
+  </si>
+  <si>
+    <t>vYYI1uFpY7L</t>
+  </si>
+  <si>
+    <t>YUygKF5FXVj</t>
+  </si>
+  <si>
+    <t>I4SR0c59bRn</t>
+  </si>
+  <si>
+    <t>NvU04S14ZHq</t>
+  </si>
+  <si>
+    <t>THPqBF5gJq3</t>
+  </si>
+  <si>
+    <t>T1PoXgIcBhr</t>
+  </si>
+  <si>
+    <t>UsL1KSoB9rp</t>
+  </si>
+  <si>
+    <t>SXPKvnIVVAx</t>
+  </si>
+  <si>
+    <t>vmFu5pzEpEb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na Doma </t>
+  </si>
+  <si>
+    <t>Gitata Primary Health Center</t>
+  </si>
+  <si>
+    <t>YmOky8alW1d</t>
+  </si>
+  <si>
+    <t>Tatara Primary Health Center</t>
+  </si>
+  <si>
+    <t>FBBTY7S1T4S</t>
   </si>
 </sst>
 </file>
@@ -18208,7 +18292,47 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 8 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18294,8 +18418,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -18668,7 +18792,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E1171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1150" workbookViewId="0">
+    <sheetView topLeftCell="A1150" workbookViewId="0">
       <selection activeCell="B1150" sqref="B1150"/>
     </sheetView>
   </sheetViews>
@@ -35094,8 +35218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACT98"/>
   <sheetViews>
-    <sheetView topLeftCell="TH1" workbookViewId="0">
-      <selection activeCell="TK1" sqref="TK1"/>
+    <sheetView topLeftCell="PB1" workbookViewId="0">
+      <selection activeCell="PD19" sqref="PD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46298,25 +46422,25 @@
         <v>4316</v>
       </c>
       <c r="B126" t="s">
+        <v>6009</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D126" s="11" t="s">
         <v>6010</v>
-      </c>
-      <c r="C126" t="s">
-        <v>6009</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>6011</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D24:D94">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D125 D127:D1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -54576,7 +54700,7 @@
         <v>5952</v>
       </c>
       <c r="C144" t="s">
-        <v>6012</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
@@ -54587,7 +54711,7 @@
         <v>5963</v>
       </c>
       <c r="C145" t="s">
-        <v>6013</v>
+        <v>6012</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
@@ -54595,10 +54719,10 @@
         <v>5751</v>
       </c>
       <c r="B146" t="s">
-        <v>6015</v>
+        <v>6014</v>
       </c>
       <c r="C146" t="s">
-        <v>6014</v>
+        <v>6013</v>
       </c>
     </row>
   </sheetData>
@@ -54608,7 +54732,7 @@
     <sortCondition ref="C2:C27"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54616,15 +54740,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D185"/>
+  <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
@@ -56542,7 +56666,7 @@
         <v>3082</v>
       </c>
       <c r="C137" t="s">
-        <v>282</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -56550,10 +56674,10 @@
         <v>4476</v>
       </c>
       <c r="B138" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="C138" t="s">
-        <v>5680</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -56564,7 +56688,7 @@
         <v>3083</v>
       </c>
       <c r="C139" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -56575,7 +56699,7 @@
         <v>3083</v>
       </c>
       <c r="C140" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -56586,7 +56710,7 @@
         <v>3083</v>
       </c>
       <c r="C141" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -56597,7 +56721,7 @@
         <v>3083</v>
       </c>
       <c r="C142" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -56608,7 +56732,7 @@
         <v>3083</v>
       </c>
       <c r="C143" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -56619,7 +56743,7 @@
         <v>3083</v>
       </c>
       <c r="C144" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
@@ -56630,7 +56754,7 @@
         <v>3083</v>
       </c>
       <c r="C145" t="s">
-        <v>298</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
@@ -56641,7 +56765,7 @@
         <v>3083</v>
       </c>
       <c r="C146" t="s">
-        <v>5681</v>
+        <v>299</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
@@ -56652,7 +56776,7 @@
         <v>3083</v>
       </c>
       <c r="C147" t="s">
-        <v>299</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
@@ -56663,7 +56787,7 @@
         <v>3083</v>
       </c>
       <c r="C148" t="s">
-        <v>5682</v>
+        <v>5683</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
@@ -56674,7 +56798,7 @@
         <v>3083</v>
       </c>
       <c r="C149" t="s">
-        <v>5683</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
@@ -56685,7 +56809,7 @@
         <v>3083</v>
       </c>
       <c r="C150" t="s">
-        <v>5684</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
@@ -56696,7 +56820,7 @@
         <v>3083</v>
       </c>
       <c r="C151" t="s">
-        <v>5685</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
@@ -56707,7 +56831,7 @@
         <v>3083</v>
       </c>
       <c r="C152" t="s">
-        <v>5686</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -56718,7 +56842,7 @@
         <v>3083</v>
       </c>
       <c r="C153" t="s">
-        <v>5687</v>
+        <v>318</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
@@ -56729,7 +56853,7 @@
         <v>3083</v>
       </c>
       <c r="C154" t="s">
-        <v>318</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
@@ -56740,7 +56864,7 @@
         <v>3083</v>
       </c>
       <c r="C155" t="s">
-        <v>5688</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
@@ -56751,7 +56875,7 @@
         <v>3083</v>
       </c>
       <c r="C156" t="s">
-        <v>2463</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
@@ -56762,7 +56886,7 @@
         <v>3083</v>
       </c>
       <c r="C157" t="s">
-        <v>2228</v>
+        <v>5689</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
@@ -56773,7 +56897,7 @@
         <v>3083</v>
       </c>
       <c r="C158" t="s">
-        <v>5689</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -56784,18 +56908,18 @@
         <v>3083</v>
       </c>
       <c r="C159" t="s">
-        <v>4430</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>4476</v>
+        <v>4412</v>
       </c>
       <c r="B160" t="s">
-        <v>3083</v>
+        <v>2832</v>
       </c>
       <c r="C160" t="s">
-        <v>5690</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -56806,7 +56930,7 @@
         <v>2832</v>
       </c>
       <c r="C161" t="s">
-        <v>5691</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -56814,21 +56938,24 @@
         <v>4412</v>
       </c>
       <c r="B162" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="C162" t="s">
-        <v>5692</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>4412</v>
+        <v>4476</v>
       </c>
       <c r="B163" t="s">
-        <v>2831</v>
+        <v>3088</v>
       </c>
       <c r="C163" t="s">
-        <v>5693</v>
+        <v>5731</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2444</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -56836,13 +56963,13 @@
         <v>4476</v>
       </c>
       <c r="B164" t="s">
-        <v>3088</v>
+        <v>3080</v>
       </c>
       <c r="C164" t="s">
-        <v>5731</v>
+        <v>5732</v>
       </c>
       <c r="D164" t="s">
-        <v>2444</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -56853,10 +56980,10 @@
         <v>3080</v>
       </c>
       <c r="C165" t="s">
-        <v>5732</v>
+        <v>5733</v>
       </c>
       <c r="D165" t="s">
-        <v>1887</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -56864,13 +56991,10 @@
         <v>4476</v>
       </c>
       <c r="B166" t="s">
-        <v>3080</v>
+        <v>5735</v>
       </c>
       <c r="C166" t="s">
-        <v>5733</v>
-      </c>
-      <c r="D166" t="s">
-        <v>1893</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -56881,7 +57005,10 @@
         <v>5735</v>
       </c>
       <c r="C167" t="s">
-        <v>5734</v>
+        <v>4608</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2383</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -56889,13 +57016,13 @@
         <v>4476</v>
       </c>
       <c r="B168" t="s">
-        <v>5735</v>
+        <v>5736</v>
       </c>
       <c r="C168" t="s">
-        <v>4608</v>
+        <v>4606</v>
       </c>
       <c r="D168" t="s">
-        <v>2383</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -56903,13 +57030,13 @@
         <v>4476</v>
       </c>
       <c r="B169" t="s">
-        <v>5736</v>
+        <v>5737</v>
       </c>
       <c r="C169" t="s">
-        <v>4606</v>
+        <v>4578</v>
       </c>
       <c r="D169" t="s">
-        <v>4607</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -56917,13 +57044,10 @@
         <v>4476</v>
       </c>
       <c r="B170" t="s">
-        <v>5737</v>
+        <v>3087</v>
       </c>
       <c r="C170" t="s">
-        <v>4578</v>
-      </c>
-      <c r="D170" t="s">
-        <v>4579</v>
+        <v>5738</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -56931,10 +57055,13 @@
         <v>4476</v>
       </c>
       <c r="B171" t="s">
-        <v>3087</v>
+        <v>5735</v>
       </c>
       <c r="C171" t="s">
-        <v>5738</v>
+        <v>4582</v>
+      </c>
+      <c r="D171" t="s">
+        <v>4583</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -56942,13 +57069,13 @@
         <v>4476</v>
       </c>
       <c r="B172" t="s">
-        <v>5735</v>
+        <v>5737</v>
       </c>
       <c r="C172" t="s">
-        <v>4582</v>
+        <v>4588</v>
       </c>
       <c r="D172" t="s">
-        <v>4583</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -56959,10 +57086,7 @@
         <v>5737</v>
       </c>
       <c r="C173" t="s">
-        <v>4588</v>
-      </c>
-      <c r="D173" t="s">
-        <v>4589</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -56970,21 +57094,21 @@
         <v>4476</v>
       </c>
       <c r="B174" t="s">
-        <v>5737</v>
+        <v>3088</v>
       </c>
       <c r="C174" t="s">
-        <v>5739</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>4476</v>
+        <v>4577</v>
       </c>
       <c r="B175" t="s">
-        <v>3088</v>
+        <v>5737</v>
       </c>
       <c r="C175" t="s">
-        <v>5740</v>
+        <v>5988</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -56992,10 +57116,10 @@
         <v>4577</v>
       </c>
       <c r="B176" t="s">
-        <v>5737</v>
+        <v>5736</v>
       </c>
       <c r="C176" t="s">
-        <v>5988</v>
+        <v>5989</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -57003,10 +57127,13 @@
         <v>4577</v>
       </c>
       <c r="B177" t="s">
-        <v>5736</v>
+        <v>5735</v>
       </c>
       <c r="C177" t="s">
-        <v>5989</v>
+        <v>5990</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6002</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -57014,41 +57141,41 @@
         <v>4577</v>
       </c>
       <c r="B178" t="s">
-        <v>5735</v>
+        <v>5995</v>
       </c>
       <c r="C178" t="s">
-        <v>5990</v>
+        <v>5991</v>
       </c>
       <c r="D178" t="s">
-        <v>6002</v>
+        <v>6001</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>4577</v>
+        <v>4412</v>
       </c>
       <c r="B179" t="s">
-        <v>5995</v>
+        <v>5996</v>
       </c>
       <c r="C179" t="s">
-        <v>5991</v>
+        <v>6006</v>
       </c>
       <c r="D179" t="s">
-        <v>6001</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>4412</v>
+        <v>4577</v>
       </c>
       <c r="B180" t="s">
-        <v>5996</v>
+        <v>5737</v>
       </c>
       <c r="C180" t="s">
-        <v>6006</v>
+        <v>5992</v>
       </c>
       <c r="D180" t="s">
-        <v>6000</v>
+        <v>5997</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -57059,10 +57186,10 @@
         <v>5737</v>
       </c>
       <c r="C181" t="s">
-        <v>5992</v>
+        <v>5993</v>
       </c>
       <c r="D181" t="s">
-        <v>5997</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -57073,51 +57200,241 @@
         <v>5737</v>
       </c>
       <c r="C182" t="s">
-        <v>5993</v>
+        <v>5994</v>
       </c>
       <c r="D182" t="s">
-        <v>5998</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>4577</v>
+        <v>4476</v>
       </c>
       <c r="B183" t="s">
         <v>5737</v>
       </c>
       <c r="C183" t="s">
-        <v>5994</v>
-      </c>
-      <c r="D183" t="s">
-        <v>5999</v>
+        <v>6007</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>6007</v>
+        <v>4476</v>
       </c>
       <c r="B184" t="s">
-        <v>5737</v>
+        <v>6016</v>
       </c>
       <c r="C184" t="s">
-        <v>6008</v>
+        <v>6015</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>6007</v>
+        <v>4476</v>
       </c>
       <c r="B185" t="s">
+        <v>5735</v>
+      </c>
+      <c r="C185" t="s">
         <v>6017</v>
       </c>
-      <c r="C185" t="s">
-        <v>6016</v>
+      <c r="D185" t="s">
+        <v>6029</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5737</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D186" t="s">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5737</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D187" t="s">
+        <v>6031</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5736</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D188" t="s">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5735</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D189" t="s">
+        <v>6033</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5736</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D190" t="s">
+        <v>6034</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5737</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D191" t="s">
+        <v>6035</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5735</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D192" t="s">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6041</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D193" t="s">
+        <v>6037</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5735</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D194" t="s">
+        <v>6038</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6041</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D195" t="s">
+        <v>6039</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5737</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D196" t="s">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D197" t="s">
+        <v>6043</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D198" t="s">
+        <v>6045</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D163"/>
-  <conditionalFormatting sqref="D231:D1048576 D1:D163">
+  <autoFilter ref="A1:D162"/>
+  <conditionalFormatting sqref="D229:D1048576 D1:D162">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DMP/Report/Template/ART sites.xlsx
+++ b/DMP/Report/Template/ART sites.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7940" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7940" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="LGA">[1]MainPage!$S$17</definedName>
     <definedName name="LGAFac_list">[1]!LGAFac[#Headers]</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" iterate="1" iterateCount="1" iterateDelta="1E-4"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11152" uniqueCount="6046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11392" uniqueCount="6188">
   <si>
     <t>Facility</t>
   </si>
@@ -18179,6 +18179,432 @@
   </si>
   <si>
     <t>FBBTY7S1T4S</t>
+  </si>
+  <si>
+    <t>fc Kuchibuyi Primary Health Center</t>
+  </si>
+  <si>
+    <t>MjPJsyoDyUI</t>
+  </si>
+  <si>
+    <t>Gombe</t>
+  </si>
+  <si>
+    <t>go Akko</t>
+  </si>
+  <si>
+    <t>go Bogo Model Primary Health Center</t>
+  </si>
+  <si>
+    <t>hnu8aVM6eMV</t>
+  </si>
+  <si>
+    <t>go Balanga</t>
+  </si>
+  <si>
+    <t>go Cham Primary Health Center</t>
+  </si>
+  <si>
+    <t>tIEFDNyv2IV</t>
+  </si>
+  <si>
+    <t>go Billiri</t>
+  </si>
+  <si>
+    <t>go Pobaure Primary Health Center</t>
+  </si>
+  <si>
+    <t>frnHxx8ZcTF</t>
+  </si>
+  <si>
+    <t>go Funakaye</t>
+  </si>
+  <si>
+    <t>go Jalingo Primary Health Center</t>
+  </si>
+  <si>
+    <t>I9vA78jcthr</t>
+  </si>
+  <si>
+    <t>go Gombe</t>
+  </si>
+  <si>
+    <t>go Bolari Maternal and Child Health Clinic</t>
+  </si>
+  <si>
+    <t>ve4UhhWPdtv</t>
+  </si>
+  <si>
+    <t>go Herwagana Maternal and Child Health Clinic</t>
+  </si>
+  <si>
+    <t>TinjgNiJrB4</t>
+  </si>
+  <si>
+    <t>go Kasuwan Mata Health Clinic</t>
+  </si>
+  <si>
+    <t>y6Kk5VUXOX7</t>
+  </si>
+  <si>
+    <t>go London Maidorawa Health Clinic</t>
+  </si>
+  <si>
+    <t>oso9UXCPxTW</t>
+  </si>
+  <si>
+    <t>go Nasarawo Maternal and Child Health Clinic</t>
+  </si>
+  <si>
+    <t>tRkbi8NqKzg</t>
+  </si>
+  <si>
+    <t>go Pantami Primary Health Center</t>
+  </si>
+  <si>
+    <t>pU92ZUAY68L</t>
+  </si>
+  <si>
+    <t>go Sunnah Hospital</t>
+  </si>
+  <si>
+    <t>TiAwIXFMkLy</t>
+  </si>
+  <si>
+    <t>go Town Maternity Gombe</t>
+  </si>
+  <si>
+    <t>aGOQB2fZ1Bt</t>
+  </si>
+  <si>
+    <t>go Tudun Wada Primary Health Center</t>
+  </si>
+  <si>
+    <t>dxf5N2oFePK</t>
+  </si>
+  <si>
+    <t>go Kwami</t>
+  </si>
+  <si>
+    <t>go Daban Fulani Maternal and Child Health Clinic</t>
+  </si>
+  <si>
+    <t>K4zAO0M2Kmq</t>
+  </si>
+  <si>
+    <t>kd Chikun</t>
+  </si>
+  <si>
+    <t>kd Kasuwa Magani Primary Health Center</t>
+  </si>
+  <si>
+    <t>JWZaYKHTAvt</t>
+  </si>
+  <si>
+    <t>kd Kujama Primary Health Center</t>
+  </si>
+  <si>
+    <t>nwcnPbXH2SR</t>
+  </si>
+  <si>
+    <t>kd Nasarawa Primary Health Center</t>
+  </si>
+  <si>
+    <t>qq4e0kfaUvb</t>
+  </si>
+  <si>
+    <t>kd Romi Primary Health Center</t>
+  </si>
+  <si>
+    <t>FLqvfq0KBA4</t>
+  </si>
+  <si>
+    <t>kd Igabi</t>
+  </si>
+  <si>
+    <t>kd Mararaban Jos Primary Health Center</t>
+  </si>
+  <si>
+    <t>OKrnMlZFkFf</t>
+  </si>
+  <si>
+    <t>kd Barde Primary Health Center</t>
+  </si>
+  <si>
+    <t>nnO4MwYN93D</t>
+  </si>
+  <si>
+    <t>kd Gidan Waya Primary Health Center</t>
+  </si>
+  <si>
+    <t>zDhjewQr48h</t>
+  </si>
+  <si>
+    <t>kd Godogodo Primary Health Center</t>
+  </si>
+  <si>
+    <t>gOO2jNM0enh</t>
+  </si>
+  <si>
+    <t>kd Jagindi Tasha Health Clinic</t>
+  </si>
+  <si>
+    <t>Md3GGdU4n1S</t>
+  </si>
+  <si>
+    <t>kd Salem Medical Center - Kafanchan</t>
+  </si>
+  <si>
+    <t>f0wy9MgKtUx</t>
+  </si>
+  <si>
+    <t>kd Kaduna North</t>
+  </si>
+  <si>
+    <t>kd Al-Munnir Hospital</t>
+  </si>
+  <si>
+    <t>vpRIpHsK1EG</t>
+  </si>
+  <si>
+    <t>kd Hayin Banki Primary Health Center</t>
+  </si>
+  <si>
+    <t>V5Le2Ban78U</t>
+  </si>
+  <si>
+    <t>kd Tukur Malali Primary Health Center</t>
+  </si>
+  <si>
+    <t>Gh18S2BxHKn</t>
+  </si>
+  <si>
+    <t>kd Ungwan Shanu Primary Health Center</t>
+  </si>
+  <si>
+    <t>hD3xRpPBnWf</t>
+  </si>
+  <si>
+    <t>kd Kaduna South</t>
+  </si>
+  <si>
+    <t>kd Kudenda Primary Health Center</t>
+  </si>
+  <si>
+    <t>Xs1MosdNYO5</t>
+  </si>
+  <si>
+    <t>kd Kurmi Mashi Primary Health Center</t>
+  </si>
+  <si>
+    <t>oB3NepeAtXB</t>
+  </si>
+  <si>
+    <t>kd Television Primary Health Center</t>
+  </si>
+  <si>
+    <t>zVAiLsWRBQb</t>
+  </si>
+  <si>
+    <t>kd Tudun Wada Family Health Unit</t>
+  </si>
+  <si>
+    <t>BTfKBTk1iJ9</t>
+  </si>
+  <si>
+    <t>kd Kagarko</t>
+  </si>
+  <si>
+    <t>kd Jere Primary Health Center</t>
+  </si>
+  <si>
+    <t>k9ShWQ2CK5c</t>
+  </si>
+  <si>
+    <t>kd Kagarko Primary Health Center</t>
+  </si>
+  <si>
+    <t>pyCjMH0xPyt</t>
+  </si>
+  <si>
+    <t>kd Taffa Health Center</t>
+  </si>
+  <si>
+    <t>uDPDgMxSdDU</t>
+  </si>
+  <si>
+    <t>kd Kauru</t>
+  </si>
+  <si>
+    <t>kd Damakasuwa Health Clinic</t>
+  </si>
+  <si>
+    <t>HneMVa1g1rl</t>
+  </si>
+  <si>
+    <t>kd Kubau</t>
+  </si>
+  <si>
+    <t>kd Anchau Primary Health Center</t>
+  </si>
+  <si>
+    <t>bWhHCsWrqie</t>
+  </si>
+  <si>
+    <t>kd Lere</t>
+  </si>
+  <si>
+    <t>kd Evangelical Church of West Africa (ECWA) Comprehensive Health Center - Ungwan Bawa</t>
+  </si>
+  <si>
+    <t>IO38n1uX0Z7</t>
+  </si>
+  <si>
+    <t>kd Garun Kurama Primary Health Center</t>
+  </si>
+  <si>
+    <t>XyGNdts89ji</t>
+  </si>
+  <si>
+    <t>kd Lere Primary Health Center</t>
+  </si>
+  <si>
+    <t>Eq0SMoSZuRc</t>
+  </si>
+  <si>
+    <t>kd Ramin Kura Primary Health Center</t>
+  </si>
+  <si>
+    <t>FIyoBlcRtsm</t>
+  </si>
+  <si>
+    <t>kd Makarfi</t>
+  </si>
+  <si>
+    <t>kd Makarfi Primary Health Center</t>
+  </si>
+  <si>
+    <t>uEhcBbwErng</t>
+  </si>
+  <si>
+    <t>kd Sanga</t>
+  </si>
+  <si>
+    <t>kd Combila Health Center</t>
+  </si>
+  <si>
+    <t>GDk0Y7jIeAz</t>
+  </si>
+  <si>
+    <t>kd Gwantu Primary Health Center</t>
+  </si>
+  <si>
+    <t>HwVtJkZK6mX</t>
+  </si>
+  <si>
+    <t>kd Karshi Daji Health Center</t>
+  </si>
+  <si>
+    <t>hduP3AR3vqA</t>
+  </si>
+  <si>
+    <t>kd Mayir Primary Health Center</t>
+  </si>
+  <si>
+    <t>iY9AWY5Juy5</t>
+  </si>
+  <si>
+    <t>kd Nimbe Health Center</t>
+  </si>
+  <si>
+    <t>tVjg7MfEpfY</t>
+  </si>
+  <si>
+    <t>Kogi</t>
+  </si>
+  <si>
+    <t>ko Adavi</t>
+  </si>
+  <si>
+    <t>ko Aimoizza Clinic</t>
+  </si>
+  <si>
+    <t>oyiQ8ltpF2c</t>
+  </si>
+  <si>
+    <t>ko Ogaminana Clinic - Adavi</t>
+  </si>
+  <si>
+    <t>e5aGNsUPSvn</t>
+  </si>
+  <si>
+    <t>ko Ankpa</t>
+  </si>
+  <si>
+    <t>ko Ankpa Primary Health Center</t>
+  </si>
+  <si>
+    <t>DaTMu3rYeQK</t>
+  </si>
+  <si>
+    <t>ko Bethel Hospital</t>
+  </si>
+  <si>
+    <t>N2YrIzbDRkx</t>
+  </si>
+  <si>
+    <t>ko Emere Primary Health Center</t>
+  </si>
+  <si>
+    <t>wHuOS6cG6Sr</t>
+  </si>
+  <si>
+    <t>ko Living Hope Hospital</t>
+  </si>
+  <si>
+    <t>CFi2osDSAQt</t>
+  </si>
+  <si>
+    <t>ko Dekina</t>
+  </si>
+  <si>
+    <t>ko Ayingba Comprehensive Health Center</t>
+  </si>
+  <si>
+    <t>WwVbcxjtu79</t>
+  </si>
+  <si>
+    <t>ko St. Luke's Clinic - Egume</t>
+  </si>
+  <si>
+    <t>HrGggd9x1os</t>
+  </si>
+  <si>
+    <t>ko Igalamela-Odolu</t>
+  </si>
+  <si>
+    <t>ko Ajaka Primary Health Center</t>
+  </si>
+  <si>
+    <t>g6NVwIeNfgD</t>
+  </si>
+  <si>
+    <t>ko Kogi</t>
+  </si>
+  <si>
+    <t>ko Ideal Hospital - Koton-Karfe</t>
+  </si>
+  <si>
+    <t>ebtsGbWllYg</t>
+  </si>
+  <si>
+    <t>ko Okene</t>
+  </si>
+  <si>
+    <t>ko Nagazi Clinic</t>
+  </si>
+  <si>
+    <t>rlB4mUoaEdr</t>
   </si>
 </sst>
 </file>
@@ -18790,10 +19216,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E1171"/>
+  <dimension ref="A1:E1172"/>
   <sheetViews>
-    <sheetView topLeftCell="A1150" workbookViewId="0">
-      <selection activeCell="B1150" sqref="B1150"/>
+    <sheetView topLeftCell="A1165" workbookViewId="0">
+      <selection activeCell="B1172" sqref="B1172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35203,6 +35629,20 @@
       </c>
       <c r="D1171" t="s">
         <v>5743</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1172" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>6046</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>6047</v>
       </c>
     </row>
   </sheetData>
@@ -54740,10 +55180,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C199" sqref="C199:D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -57424,18 +57864,32 @@
         <v>6045</v>
       </c>
     </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D199" t="s">
+        <v>6047</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D162"/>
   <conditionalFormatting sqref="D229:D1048576 D1:D162">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  <conditionalFormatting sqref="C1:C198 C200:C1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="D1:D198 D200:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -57444,18 +57898,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -57486,6 +57940,818 @@
         <v>6004</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6049</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6050</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6052</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6055</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6056</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6057</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6058</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6061</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6061</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6064</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6061</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6066</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6061</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6068</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6061</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6070</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6061</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6061</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6061</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6076</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6061</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6080</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6083</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6083</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6083</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6083</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6092</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6094</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6005</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6005</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6005</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6099</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6005</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6005</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6117</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6119</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6121</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6123</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6123</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6128</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6133</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6137</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6136</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6143</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6145</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6146</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6148</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6148</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6148</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6148</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6148</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>6159</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6160</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6161</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>6159</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6160</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>6159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6165</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6166</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>6159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6165</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6168</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>6159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6165</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6170</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>6159</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6165</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6172</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>6159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6174</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6175</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>6159</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6174</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6177</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>6159</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6179</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6180</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>6159</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6182</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6183</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>6159</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6185</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6186</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DMP/Report/Template/ART sites.xlsx
+++ b/DMP/Report/Template/ART sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MGIC\Project\ShieldPortal\DMP\Report\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2CD2606A-5DF4-4804-9351-3B2AE9E95897}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5767DA88-EED4-45E3-BF93-86293F216D70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="LGA">[1]MainPage!$S$17</definedName>
     <definedName name="LGAFac_list">[1]!LGAFac[#Headers]</definedName>
   </definedNames>
-  <calcPr calcId="171027" iterate="1" iterateCount="1" iterateDelta="1E-4"/>
+  <calcPr calcId="179017" iterate="1" iterateCount="1" iterateDelta="1E-4"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19216,8 +19216,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E1171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1002" workbookViewId="0">
-      <selection activeCell="B1014" sqref="B1014"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35642,8 +35642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:ACT98"/>
   <sheetViews>
-    <sheetView topLeftCell="PB1" workbookViewId="0">
-      <selection activeCell="PD19" sqref="PD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
